--- a/1-Data-Codes/2-Final_Data/va_shares_allyears.xlsx
+++ b/1-Data-Codes/2-Final_Data/va_shares_allyears.xlsx
@@ -485,10 +485,10 @@
         <v>0.534980054393872</v>
       </c>
       <c r="O2">
-        <v>0.605369766087276</v>
+        <v>0.605369766074688</v>
       </c>
       <c r="P2">
-        <v>0.481719747598585</v>
+        <v>0.481719747590906</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
         <v>0.437347318805592</v>
       </c>
       <c r="F3">
-        <v>0.5653127830552061</v>
+        <v>0.565312783055206</v>
       </c>
       <c r="G3">
         <v>0.0687487828526368</v>
@@ -537,10 +537,10 @@
         <v>0.134025736710726</v>
       </c>
       <c r="O3">
-        <v>0.613506521928353</v>
+        <v>0.613506521928486</v>
       </c>
       <c r="P3">
-        <v>0.167677207635436</v>
+        <v>0.167677207635435</v>
       </c>
     </row>
     <row r="4">
@@ -589,10 +589,10 @@
         <v>0.771737691139749</v>
       </c>
       <c r="O4">
-        <v>0.608269789703938</v>
+        <v>0.608269789704335</v>
       </c>
       <c r="P4">
-        <v>0.602160926177595</v>
+        <v>0.602160926177555</v>
       </c>
     </row>
     <row r="5">
@@ -641,10 +641,10 @@
         <v>0.869289585153724</v>
       </c>
       <c r="O5">
-        <v>0.601043364558066</v>
+        <v>0.601043364558273</v>
       </c>
       <c r="P5">
-        <v>0.417106692635191</v>
+        <v>0.417106692634897</v>
       </c>
     </row>
     <row r="6">
@@ -693,10 +693,10 @@
         <v>0.365241302006003</v>
       </c>
       <c r="O6">
-        <v>0.616803160616911</v>
+        <v>0.616803160616001</v>
       </c>
       <c r="P6">
-        <v>0.62436712356631</v>
+        <v>0.624367123566971</v>
       </c>
     </row>
     <row r="7">
@@ -745,10 +745,10 @@
         <v>0.58442751476607</v>
       </c>
       <c r="O7">
-        <v>0.62278738357583</v>
+        <v>0.6227873835757211</v>
       </c>
       <c r="P7">
-        <v>0.325393976176374</v>
+        <v>0.325393976176781</v>
       </c>
     </row>
     <row r="8">
@@ -797,10 +797,10 @@
         <v>0.642744868107093</v>
       </c>
       <c r="O8">
-        <v>0.613331709576193</v>
+        <v>0.613331709575999</v>
       </c>
       <c r="P8">
-        <v>0.705109954536067</v>
+        <v>0.7051099545360811</v>
       </c>
     </row>
     <row r="9">
@@ -846,13 +846,13 @@
         <v>0.401034343420393</v>
       </c>
       <c r="N9">
-        <v>0.8851250774270491</v>
+        <v>0.885125077427049</v>
       </c>
       <c r="O9">
-        <v>0.6351765562924691</v>
+        <v>0.63517655629243</v>
       </c>
       <c r="P9">
-        <v>0.348831042232223</v>
+        <v>0.348831042232224</v>
       </c>
     </row>
     <row r="10">
@@ -901,10 +901,10 @@
         <v>0.315261717526881</v>
       </c>
       <c r="O10">
-        <v>0.594619089119779</v>
+        <v>0.594619089121347</v>
       </c>
       <c r="P10">
-        <v>0.813151892216136</v>
+        <v>0.813151892215768</v>
       </c>
     </row>
     <row r="11">
@@ -953,10 +953,10 @@
         <v>0.33049583240109</v>
       </c>
       <c r="O11">
-        <v>0.616620232999734</v>
+        <v>0.616620232998799</v>
       </c>
       <c r="P11">
-        <v>0.568343763255882</v>
+        <v>0.568343763255315</v>
       </c>
     </row>
     <row r="12">
@@ -1005,10 +1005,10 @@
         <v>0.278728100194584</v>
       </c>
       <c r="O12">
-        <v>0.594655557724705</v>
+        <v>0.594655557724845</v>
       </c>
       <c r="P12">
-        <v>0.59854227998857</v>
+        <v>0.598542279988577</v>
       </c>
     </row>
     <row r="13">
@@ -1057,10 +1057,10 @@
         <v>0.625593878350872</v>
       </c>
       <c r="O13">
-        <v>0.60522520547665</v>
+        <v>0.605225205476801</v>
       </c>
       <c r="P13">
-        <v>0.452558479577167</v>
+        <v>0.452558479577352</v>
       </c>
     </row>
     <row r="14">
@@ -1109,10 +1109,10 @@
         <v>0.555162067254994</v>
       </c>
       <c r="O14">
-        <v>0.61229049005567</v>
+        <v>0.612290490055501</v>
       </c>
       <c r="P14">
-        <v>0.249362251812315</v>
+        <v>0.249362251812395</v>
       </c>
     </row>
     <row r="15">
@@ -1134,7 +1134,7 @@
         <v>0.512396023388446</v>
       </c>
       <c r="F15">
-        <v>0.08432879613973431</v>
+        <v>0.0843287961397343</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         <v>0.838025814714475</v>
       </c>
       <c r="O15">
-        <v>0.609378628243977</v>
+        <v>0.6093786282446479</v>
       </c>
       <c r="P15">
-        <v>0.355566994178361</v>
+        <v>0.35556699417836</v>
       </c>
     </row>
     <row r="16">
@@ -1213,10 +1213,10 @@
         <v>0.62948018828644</v>
       </c>
       <c r="O16">
-        <v>0.6066156274086421</v>
+        <v>0.606615627408957</v>
       </c>
       <c r="P16">
-        <v>0.228151544298425</v>
+        <v>0.228151544298503</v>
       </c>
     </row>
     <row r="17">
@@ -1265,10 +1265,10 @@
         <v>0.658621823089703</v>
       </c>
       <c r="O17">
-        <v>0.604467125493118</v>
+        <v>0.604467125493327</v>
       </c>
       <c r="P17">
-        <v>0.188419197813049</v>
+        <v>0.188419197813051</v>
       </c>
     </row>
     <row r="18">
@@ -1317,10 +1317,10 @@
         <v>0.525379930431303</v>
       </c>
       <c r="O18">
-        <v>0.606764595701524</v>
+        <v>0.60676459570179</v>
       </c>
       <c r="P18">
-        <v>0.684332858385927</v>
+        <v>0.684332858385808</v>
       </c>
     </row>
     <row r="19">
@@ -1369,10 +1369,10 @@
         <v>0.20219723004868</v>
       </c>
       <c r="O19">
-        <v>0.59597300987894</v>
+        <v>0.595973009879165</v>
       </c>
       <c r="P19">
-        <v>0.134177166275894</v>
+        <v>0.134177166275888</v>
       </c>
     </row>
     <row r="20">
@@ -1403,10 +1403,10 @@
         <v>0.9958155499929811</v>
       </c>
       <c r="I20">
-        <v>0.5626793582804121</v>
+        <v>0.562679358280412</v>
       </c>
       <c r="J20">
-        <v>0.700744769001925</v>
+        <v>0.7007447690019249</v>
       </c>
       <c r="K20">
         <v>0.195551330139385</v>
@@ -1421,10 +1421,10 @@
         <v>0.386621975063619</v>
       </c>
       <c r="O20">
-        <v>0.589488592109962</v>
+        <v>0.589488592110094</v>
       </c>
       <c r="P20">
-        <v>0.8519304458464631</v>
+        <v>0.851930445846488</v>
       </c>
     </row>
     <row r="21">
@@ -1473,10 +1473,10 @@
         <v>0.347609659729063</v>
       </c>
       <c r="O21">
-        <v>0.614395127601672</v>
+        <v>0.614395127602266</v>
       </c>
       <c r="P21">
-        <v>0.499545438151491</v>
+        <v>0.499545438151511</v>
       </c>
     </row>
     <row r="22">
@@ -1525,10 +1525,10 @@
         <v>0.601428126404944</v>
       </c>
       <c r="O22">
-        <v>0.62736403285751</v>
+        <v>0.627364032857634</v>
       </c>
       <c r="P22">
-        <v>0.665733039833892</v>
+        <v>0.665733039833897</v>
       </c>
     </row>
     <row r="23">
@@ -1577,10 +1577,10 @@
         <v>0.587416435220941</v>
       </c>
       <c r="O23">
-        <v>0.606239372944402</v>
+        <v>0.606239372945711</v>
       </c>
       <c r="P23">
-        <v>0.376772071513036</v>
+        <v>0.37677207151309</v>
       </c>
     </row>
     <row r="24">
@@ -1629,10 +1629,10 @@
         <v>0.476018106363763</v>
       </c>
       <c r="O24">
-        <v>0.609346287437865</v>
+        <v>0.609346287438611</v>
       </c>
       <c r="P24">
-        <v>0.247402197365034</v>
+        <v>0.247402197365415</v>
       </c>
     </row>
     <row r="25">
@@ -1681,10 +1681,10 @@
         <v>0.725676689416906</v>
       </c>
       <c r="O25">
-        <v>0.58253589657304</v>
+        <v>0.582535896573229</v>
       </c>
       <c r="P25">
-        <v>0.423535497064612</v>
+        <v>0.423535497064153</v>
       </c>
     </row>
     <row r="26">
@@ -1733,10 +1733,10 @@
         <v>0.473159564654425</v>
       </c>
       <c r="O26">
-        <v>0.6167289181671271</v>
+        <v>0.61672891816733</v>
       </c>
       <c r="P26">
-        <v>0.307489139240429</v>
+        <v>0.307489139240351</v>
       </c>
     </row>
     <row r="27">
@@ -1785,10 +1785,10 @@
         <v>0.59169255139545</v>
       </c>
       <c r="O27">
-        <v>0.614077881036469</v>
+        <v>0.614077881036499</v>
       </c>
       <c r="P27">
-        <v>0.309118574532087</v>
+        <v>0.309118574532096</v>
       </c>
     </row>
     <row r="28">
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0.6111451444859281</v>
+        <v>0.611145144486117</v>
       </c>
       <c r="P28">
-        <v>0.201553632094861</v>
+        <v>0.20155363209536</v>
       </c>
     </row>
     <row r="29">
@@ -1889,10 +1889,10 @@
         <v>0.513652014171554</v>
       </c>
       <c r="O29">
-        <v>0.605115828222609</v>
+        <v>0.605115828222498</v>
       </c>
       <c r="P29">
-        <v>0.455478589049022</v>
+        <v>0.455478589049018</v>
       </c>
     </row>
     <row r="30">
@@ -1941,10 +1941,10 @@
         <v>0.577988428900246</v>
       </c>
       <c r="O30">
-        <v>0.611194951993512</v>
+        <v>0.611194951993554</v>
       </c>
       <c r="P30">
-        <v>0.738721543098375</v>
+        <v>0.738721543098379</v>
       </c>
     </row>
     <row r="31">
@@ -1993,10 +1993,10 @@
         <v>0.390852192349629</v>
       </c>
       <c r="O31">
-        <v>0.60232551906965</v>
+        <v>0.602325519069666</v>
       </c>
       <c r="P31">
-        <v>0.640770562813365</v>
+        <v>0.640770562813377</v>
       </c>
     </row>
     <row r="32">
@@ -2045,10 +2045,10 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>0.599235693776766</v>
+        <v>0.599235693776989</v>
       </c>
       <c r="P32">
-        <v>0.498180096655072</v>
+        <v>0.498180096655032</v>
       </c>
     </row>
     <row r="33">
@@ -2097,10 +2097,10 @@
         <v>0.344816659507192</v>
       </c>
       <c r="O33">
-        <v>0.617108341024104</v>
+        <v>0.6171083410232689</v>
       </c>
       <c r="P33">
-        <v>0.463395507120129</v>
+        <v>0.463395507120181</v>
       </c>
     </row>
     <row r="34">
@@ -2140,7 +2140,7 @@
         <v>0.356517592689773</v>
       </c>
       <c r="L34">
-        <v>0.5133643606834381</v>
+        <v>0.513364360683438</v>
       </c>
       <c r="M34">
         <v>0.184172188559245</v>
@@ -2149,10 +2149,10 @@
         <v>0.394167088969556</v>
       </c>
       <c r="O34">
-        <v>0.61850991283052</v>
+        <v>0.618509912830712</v>
       </c>
       <c r="P34">
-        <v>0.534055890608296</v>
+        <v>0.534055890608219</v>
       </c>
     </row>
     <row r="35">
@@ -2201,10 +2201,10 @@
         <v>0.391154395484287</v>
       </c>
       <c r="O35">
-        <v>0.595979127624637</v>
+        <v>0.595979127624694</v>
       </c>
       <c r="P35">
-        <v>0.290436203345168</v>
+        <v>0.290436203345192</v>
       </c>
     </row>
     <row r="36">
@@ -2253,10 +2253,10 @@
         <v>0.289404552278184</v>
       </c>
       <c r="O36">
-        <v>0.6105923859050551</v>
+        <v>0.610592385906338</v>
       </c>
       <c r="P36">
-        <v>0.455173116353061</v>
+        <v>0.455173116353104</v>
       </c>
     </row>
     <row r="37">
@@ -2287,7 +2287,7 @@
         <v>0.559915480845639</v>
       </c>
       <c r="I37">
-        <v>0.701191236333566</v>
+        <v>0.7011912363335659</v>
       </c>
       <c r="J37">
         <v>0.463032960311028</v>
@@ -2305,10 +2305,10 @@
         <v>0.45472821092914</v>
       </c>
       <c r="O37">
-        <v>0.607232285005288</v>
+        <v>0.6072322850055309</v>
       </c>
       <c r="P37">
-        <v>0.346956974291369</v>
+        <v>0.346956974291291</v>
       </c>
     </row>
     <row r="38">
@@ -2342,7 +2342,7 @@
         <v>0.277392517407419</v>
       </c>
       <c r="J38">
-        <v>0.6072184039681851</v>
+        <v>0.607218403968185</v>
       </c>
       <c r="K38">
         <v>0.37641378961051</v>
@@ -2357,10 +2357,10 @@
         <v>0.374812342218374</v>
       </c>
       <c r="O38">
-        <v>0.627040699814624</v>
+        <v>0.627040699815028</v>
       </c>
       <c r="P38">
-        <v>0.610496226592406</v>
+        <v>0.6104962265926011</v>
       </c>
     </row>
     <row r="39">
@@ -2388,7 +2388,7 @@
         <v>0.721766025320665</v>
       </c>
       <c r="H39">
-        <v>0.553375590355694</v>
+        <v>0.5533755903556939</v>
       </c>
       <c r="I39">
         <v>0.544294020027024</v>
@@ -2409,10 +2409,10 @@
         <v>0.437396072564056</v>
       </c>
       <c r="O39">
-        <v>0.61147873584263</v>
+        <v>0.611478735844367</v>
       </c>
       <c r="P39">
-        <v>0.558718869205918</v>
+        <v>0.558718869205978</v>
       </c>
     </row>
     <row r="40">
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <v>0.599551001396419</v>
+        <v>0.599551001396619</v>
       </c>
       <c r="P40">
         <v>0.920123190316149</v>
@@ -2513,10 +2513,10 @@
         <v>0.427457013877955</v>
       </c>
       <c r="O41">
-        <v>0.6001049024426181</v>
+        <v>0.6001049024428921</v>
       </c>
       <c r="P41">
-        <v>0.6230216518646861</v>
+        <v>0.623021651864623</v>
       </c>
     </row>
     <row r="42">
@@ -2565,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>0.591819013044851</v>
+        <v>0.591819013044828</v>
       </c>
       <c r="P42">
-        <v>0.410990024777749</v>
+        <v>0.410990024777769</v>
       </c>
     </row>
     <row r="43">
@@ -2617,10 +2617,10 @@
         <v>0.381908662978635</v>
       </c>
       <c r="O43">
-        <v>0.603237241347734</v>
+        <v>0.603237241347554</v>
       </c>
       <c r="P43">
-        <v>0.839236596576356</v>
+        <v>0.83923659657619</v>
       </c>
     </row>
     <row r="44">
@@ -2669,10 +2669,10 @@
         <v>0.376692467535891</v>
       </c>
       <c r="O44">
-        <v>0.601437728913651</v>
+        <v>0.601437728913766</v>
       </c>
       <c r="P44">
-        <v>0.39185933582827</v>
+        <v>0.391859335828014</v>
       </c>
     </row>
     <row r="45">
@@ -2721,10 +2721,10 @@
         <v>0.799305356943392</v>
       </c>
       <c r="O45">
-        <v>0.611072563566157</v>
+        <v>0.611072563566193</v>
       </c>
       <c r="P45">
-        <v>0.434865478584375</v>
+        <v>0.434865478584407</v>
       </c>
     </row>
     <row r="46">
@@ -2773,10 +2773,10 @@
         <v>0.629623197993482</v>
       </c>
       <c r="O46">
-        <v>0.593694891326821</v>
+        <v>0.593694891326943</v>
       </c>
       <c r="P46">
-        <v>0.583914725846722</v>
+        <v>0.583914725846731</v>
       </c>
     </row>
     <row r="47">
@@ -2825,10 +2825,10 @@
         <v>0.426137116814854</v>
       </c>
       <c r="O47">
-        <v>0.618747607350208</v>
+        <v>0.618747607350368</v>
       </c>
       <c r="P47">
-        <v>0.455400188546447</v>
+        <v>0.455400188546466</v>
       </c>
     </row>
     <row r="48">
@@ -2877,10 +2877,10 @@
         <v>0.417353531932591</v>
       </c>
       <c r="O48">
-        <v>0.592246510403615</v>
+        <v>0.592246510403812</v>
       </c>
       <c r="P48">
-        <v>0.464847279919142</v>
+        <v>0.464847279919656</v>
       </c>
     </row>
     <row r="49">
@@ -2929,10 +2929,10 @@
         <v>0.864808509921236</v>
       </c>
       <c r="O49">
-        <v>0.599917556080573</v>
+        <v>0.599917556080711</v>
       </c>
       <c r="P49">
-        <v>0.427590132636547</v>
+        <v>0.427590132636544</v>
       </c>
     </row>
     <row r="50">
@@ -2981,10 +2981,10 @@
         <v>0.330216008397684</v>
       </c>
       <c r="O50">
-        <v>0.597263835075654</v>
+        <v>0.597263835076363</v>
       </c>
       <c r="P50">
-        <v>0.373545712177405</v>
+        <v>0.373545712177535</v>
       </c>
     </row>
     <row r="51">
@@ -3033,10 +3033,10 @@
         <v>0.357032552807856</v>
       </c>
       <c r="O51">
-        <v>0.595264103453665</v>
+        <v>0.595264103453657</v>
       </c>
       <c r="P51">
-        <v>0.406740186740909</v>
+        <v>0.406740186740889</v>
       </c>
     </row>
     <row r="52">
@@ -3134,7 +3134,7 @@
         <v>0.328836814777376</v>
       </c>
       <c r="N53">
-        <v>0.5048194769987791</v>
+        <v>0.504819476998779</v>
       </c>
       <c r="O53">
         <v>0.613790129928712</v>
@@ -3208,7 +3208,7 @@
         <v>0.338957614145039</v>
       </c>
       <c r="D55">
-        <v>0.5273896009151911</v>
+        <v>0.527389600915191</v>
       </c>
       <c r="E55">
         <v>0.290778653051441</v>
@@ -3296,7 +3296,7 @@
         <v>0.661247552110216</v>
       </c>
       <c r="P56">
-        <v>0.638843316106873</v>
+        <v>0.6388433161068729</v>
       </c>
     </row>
     <row r="57">
@@ -3452,7 +3452,7 @@
         <v>0.684948723545649</v>
       </c>
       <c r="P59">
-        <v>0.5753447702278201</v>
+        <v>0.57534477022782</v>
       </c>
     </row>
     <row r="60">
@@ -3816,7 +3816,7 @@
         <v>0.608906795776773</v>
       </c>
       <c r="P66">
-        <v>0.502980714258417</v>
+        <v>0.5029807142584169</v>
       </c>
     </row>
     <row r="67">
@@ -3920,7 +3920,7 @@
         <v>0.655298272682122</v>
       </c>
       <c r="P68">
-        <v>0.641653559181456</v>
+        <v>0.6416535591814559</v>
       </c>
     </row>
     <row r="69">
@@ -4076,7 +4076,7 @@
         <v>0.649451307174201</v>
       </c>
       <c r="P71">
-        <v>0.7727567480313961</v>
+        <v>0.772756748031396</v>
       </c>
     </row>
     <row r="72">
@@ -4125,7 +4125,7 @@
         <v>0.320365100958219</v>
       </c>
       <c r="O72">
-        <v>0.5173382028549191</v>
+        <v>0.517338202854919</v>
       </c>
       <c r="P72">
         <v>0.516611871344735</v>
@@ -4177,7 +4177,7 @@
         <v>0.311889303229288</v>
       </c>
       <c r="O73">
-        <v>0.567422494963639</v>
+        <v>0.5674224949636389</v>
       </c>
       <c r="P73">
         <v>0.664459618763692</v>
@@ -5009,10 +5009,10 @@
         <v>0.489947353125278</v>
       </c>
       <c r="O89">
-        <v>0.618478585921161</v>
+        <v>0.618478585922131</v>
       </c>
       <c r="P89">
-        <v>0.558310112970013</v>
+        <v>0.558310112970022</v>
       </c>
     </row>
     <row r="90">
@@ -5061,10 +5061,10 @@
         <v>0.127864107977362</v>
       </c>
       <c r="O90">
-        <v>0.634570328703484</v>
+        <v>0.634570328703766</v>
       </c>
       <c r="P90">
-        <v>0.148265832805535</v>
+        <v>0.148265832805534</v>
       </c>
     </row>
     <row r="91">
@@ -5113,10 +5113,10 @@
         <v>0.816074603530215</v>
       </c>
       <c r="O91">
-        <v>0.619648729370911</v>
+        <v>0.619648729370891</v>
       </c>
       <c r="P91">
-        <v>0.5670871370928911</v>
+        <v>0.5670871370928779</v>
       </c>
     </row>
     <row r="92">
@@ -5165,10 +5165,10 @@
         <v>0.786609447331813</v>
       </c>
       <c r="O92">
-        <v>0.611042848941169</v>
+        <v>0.611042848941125</v>
       </c>
       <c r="P92">
-        <v>0.460221906300415</v>
+        <v>0.460221906300406</v>
       </c>
     </row>
     <row r="93">
@@ -5217,10 +5217,10 @@
         <v>0.347903249614106</v>
       </c>
       <c r="O93">
-        <v>0.627558622368006</v>
+        <v>0.627558622368026</v>
       </c>
       <c r="P93">
-        <v>0.60992943685332</v>
+        <v>0.609929436853303</v>
       </c>
     </row>
     <row r="94">
@@ -5269,10 +5269,10 @@
         <v>0.595813108259288</v>
       </c>
       <c r="O94">
-        <v>0.634656267941221</v>
+        <v>0.634656267941233</v>
       </c>
       <c r="P94">
-        <v>0.404567022058721</v>
+        <v>0.404567022058719</v>
       </c>
     </row>
     <row r="95">
@@ -5315,16 +5315,16 @@
         <v>0.440265591117492</v>
       </c>
       <c r="M95">
-        <v>0.558098553320373</v>
+        <v>0.5580985533203729</v>
       </c>
       <c r="N95">
         <v>0.642178660117157</v>
       </c>
       <c r="O95">
-        <v>0.6266601529343691</v>
+        <v>0.626660152934667</v>
       </c>
       <c r="P95">
-        <v>0.645730501895958</v>
+        <v>0.64573050189595</v>
       </c>
     </row>
     <row r="96">
@@ -5373,10 +5373,10 @@
         <v>0.814753450788438</v>
       </c>
       <c r="O96">
-        <v>0.651753115698984</v>
+        <v>0.65175311569911</v>
       </c>
       <c r="P96">
-        <v>0.445363917967957</v>
+        <v>0.445363917967963</v>
       </c>
     </row>
     <row r="97">
@@ -5425,10 +5425,10 @@
         <v>0.332854555232669</v>
       </c>
       <c r="O97">
-        <v>0.609444881275884</v>
+        <v>0.609444881275179</v>
       </c>
       <c r="P97">
-        <v>0.783305693426833</v>
+        <v>0.783305693426844</v>
       </c>
     </row>
     <row r="98">
@@ -5477,10 +5477,10 @@
         <v>0.324846061385334</v>
       </c>
       <c r="O98">
-        <v>0.627664483084356</v>
+        <v>0.627664483084421</v>
       </c>
       <c r="P98">
-        <v>0.616950909237691</v>
+        <v>0.616950909237676</v>
       </c>
     </row>
     <row r="99">
@@ -5529,10 +5529,10 @@
         <v>0.292313308120993</v>
       </c>
       <c r="O99">
-        <v>0.61035020749118</v>
+        <v>0.610350207491147</v>
       </c>
       <c r="P99">
-        <v>0.591466329476637</v>
+        <v>0.591466329476653</v>
       </c>
     </row>
     <row r="100">
@@ -5548,7 +5548,7 @@
         <v>0.275966540827351</v>
       </c>
       <c r="D100">
-        <v>0.550214883543024</v>
+        <v>0.5502148835430239</v>
       </c>
       <c r="E100">
         <v>0.241403464346077</v>
@@ -5578,13 +5578,13 @@
         <v>0.155093219119452</v>
       </c>
       <c r="N100">
-        <v>0.599285176260617</v>
+        <v>0.5992851762606169</v>
       </c>
       <c r="O100">
-        <v>0.619137737315814</v>
+        <v>0.619137737315855</v>
       </c>
       <c r="P100">
-        <v>0.480179897460235</v>
+        <v>0.480179897460237</v>
       </c>
     </row>
     <row r="101">
@@ -5633,10 +5633,10 @@
         <v>0.560741392355107</v>
       </c>
       <c r="O101">
-        <v>0.623726635255924</v>
+        <v>0.623726635255881</v>
       </c>
       <c r="P101">
-        <v>0.238386612763036</v>
+        <v>0.238386612763041</v>
       </c>
     </row>
     <row r="102">
@@ -5652,7 +5652,7 @@
         <v>0.31257975355423</v>
       </c>
       <c r="D102">
-        <v>0.06744483740657011</v>
+        <v>0.0674448374065701</v>
       </c>
       <c r="E102">
         <v>0.519941292905629</v>
@@ -5685,10 +5685,10 @@
         <v>0.957623182318567</v>
       </c>
       <c r="O102">
-        <v>0.620093895422158</v>
+        <v>0.62009389542294</v>
       </c>
       <c r="P102">
-        <v>0.391758913864064</v>
+        <v>0.391758913864068</v>
       </c>
     </row>
     <row r="103">
@@ -5737,10 +5737,10 @@
         <v>0.589844008861354</v>
       </c>
       <c r="O103">
-        <v>0.617602931641378</v>
+        <v>0.617602931641382</v>
       </c>
       <c r="P103">
-        <v>0.226037179565462</v>
+        <v>0.22603717956547</v>
       </c>
     </row>
     <row r="104">
@@ -5783,13 +5783,13 @@
         <v>0.315050716676944</v>
       </c>
       <c r="M104">
-        <v>0.548517530103173</v>
+        <v>0.5485175301031729</v>
       </c>
       <c r="N104">
         <v>0.657349241221371</v>
       </c>
       <c r="O104">
-        <v>0.614794556664783</v>
+        <v>0.614794556665022</v>
       </c>
       <c r="P104">
         <v>0.217833334127774</v>
@@ -5841,10 +5841,10 @@
         <v>0.501843045930553</v>
       </c>
       <c r="O105">
-        <v>0.61795726094458</v>
+        <v>0.617957260944524</v>
       </c>
       <c r="P105">
-        <v>0.585914435697422</v>
+        <v>0.5859144356974</v>
       </c>
     </row>
     <row r="106">
@@ -5893,7 +5893,7 @@
         <v>0.174141475460144</v>
       </c>
       <c r="O106">
-        <v>0.6049253220712461</v>
+        <v>0.604925322071231</v>
       </c>
       <c r="P106">
         <v>0.147105537632619</v>
@@ -5945,10 +5945,10 @@
         <v>0.413088681829481</v>
       </c>
       <c r="O107">
-        <v>0.601457153243672</v>
+        <v>0.601457153243545</v>
       </c>
       <c r="P107">
-        <v>0.814357552402834</v>
+        <v>0.81435755240285</v>
       </c>
     </row>
     <row r="108">
@@ -5997,10 +5997,10 @@
         <v>0.304099284148025</v>
       </c>
       <c r="O108">
-        <v>0.625454670781209</v>
+        <v>0.625454670781143</v>
       </c>
       <c r="P108">
-        <v>0.511972165147541</v>
+        <v>0.511972165147544</v>
       </c>
     </row>
     <row r="109">
@@ -6049,10 +6049,10 @@
         <v>0.652827001865208</v>
       </c>
       <c r="O109">
-        <v>0.638082897469018</v>
+        <v>0.6380828974689799</v>
       </c>
       <c r="P109">
-        <v>0.658777200665877</v>
+        <v>0.658777200665864</v>
       </c>
     </row>
     <row r="110">
@@ -6101,10 +6101,10 @@
         <v>0.536676555260223</v>
       </c>
       <c r="O110">
-        <v>0.617219656417566</v>
+        <v>0.617219656417465</v>
       </c>
       <c r="P110">
-        <v>0.380167742925285</v>
+        <v>0.380167742925295</v>
       </c>
     </row>
     <row r="111">
@@ -6153,10 +6153,10 @@
         <v>0.479440937233241</v>
       </c>
       <c r="O111">
-        <v>0.621778766233819</v>
+        <v>0.621778766233773</v>
       </c>
       <c r="P111">
-        <v>0.22835460443467</v>
+        <v>0.228354604434668</v>
       </c>
     </row>
     <row r="112">
@@ -6205,10 +6205,10 @@
         <v>0.720607369454474</v>
       </c>
       <c r="O112">
-        <v>0.593768656534293</v>
+        <v>0.59376865653426</v>
       </c>
       <c r="P112">
-        <v>0.49884929741913</v>
+        <v>0.498849297419137</v>
       </c>
     </row>
     <row r="113">
@@ -6236,7 +6236,7 @@
         <v>0.396124772769873</v>
       </c>
       <c r="H113">
-        <v>0.56259080619689</v>
+        <v>0.5625908061968899</v>
       </c>
       <c r="I113">
         <v>0.887371102685131</v>
@@ -6257,10 +6257,10 @@
         <v>0.493167846320286</v>
       </c>
       <c r="O113">
-        <v>0.6279978974531481</v>
+        <v>0.627997897453123</v>
       </c>
       <c r="P113">
-        <v>0.314327824175533</v>
+        <v>0.314327824175531</v>
       </c>
     </row>
     <row r="114">
@@ -6309,10 +6309,10 @@
         <v>0.52734541373767</v>
       </c>
       <c r="O114">
-        <v>0.627681804646154</v>
+        <v>0.627681804646143</v>
       </c>
       <c r="P114">
-        <v>0.334358612104759</v>
+        <v>0.334358612104768</v>
       </c>
     </row>
     <row r="115">
@@ -6361,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="O115">
-        <v>0.620480951871871</v>
+        <v>0.620480951871808</v>
       </c>
       <c r="P115">
-        <v>0.241000568746552</v>
+        <v>0.241000568746556</v>
       </c>
     </row>
     <row r="116">
@@ -6413,10 +6413,10 @@
         <v>0.533499550563735</v>
       </c>
       <c r="O116">
-        <v>0.617315602609791</v>
+        <v>0.617315602609785</v>
       </c>
       <c r="P116">
-        <v>0.457474085524613</v>
+        <v>0.457474085524607</v>
       </c>
     </row>
     <row r="117">
@@ -6465,10 +6465,10 @@
         <v>0.603197958847829</v>
       </c>
       <c r="O117">
-        <v>0.624167160941893</v>
+        <v>0.624167160942001</v>
       </c>
       <c r="P117">
-        <v>0.714987318677629</v>
+        <v>0.714987318677635</v>
       </c>
     </row>
     <row r="118">
@@ -6517,7 +6517,7 @@
         <v>0.4015276839221</v>
       </c>
       <c r="O118">
-        <v>0.613734284978375</v>
+        <v>0.613734284978336</v>
       </c>
       <c r="P118">
         <v>0.557872505255788</v>
@@ -6569,10 +6569,10 @@
         <v>1</v>
       </c>
       <c r="O119">
-        <v>0.614403028207391</v>
+        <v>0.61440302820735</v>
       </c>
       <c r="P119">
-        <v>0.611084058673685</v>
+        <v>0.611084058673701</v>
       </c>
     </row>
     <row r="120">
@@ -6621,10 +6621,10 @@
         <v>0.309997187200844</v>
       </c>
       <c r="O120">
-        <v>0.629670261253287</v>
+        <v>0.629670261253466</v>
       </c>
       <c r="P120">
-        <v>0.510628908816417</v>
+        <v>0.510628908816414</v>
       </c>
     </row>
     <row r="121">
@@ -6673,10 +6673,10 @@
         <v>0.375988922087931</v>
       </c>
       <c r="O121">
-        <v>0.633057060066457</v>
+        <v>0.633057060066528</v>
       </c>
       <c r="P121">
-        <v>0.553736250549144</v>
+        <v>0.553736250549118</v>
       </c>
     </row>
     <row r="122">
@@ -6725,10 +6725,10 @@
         <v>0.475277362604142</v>
       </c>
       <c r="O122">
-        <v>0.611526599073982</v>
+        <v>0.61152659907395</v>
       </c>
       <c r="P122">
-        <v>0.261304592985069</v>
+        <v>0.261304592985068</v>
       </c>
     </row>
     <row r="123">
@@ -6777,10 +6777,10 @@
         <v>0.287437719048495</v>
       </c>
       <c r="O123">
-        <v>0.623323911223716</v>
+        <v>0.623323911223571</v>
       </c>
       <c r="P123">
-        <v>0.424711431820229</v>
+        <v>0.424711431820226</v>
       </c>
     </row>
     <row r="124">
@@ -6829,10 +6829,10 @@
         <v>0.510447284149441</v>
       </c>
       <c r="O124">
-        <v>0.620951660894064</v>
+        <v>0.620951660893593</v>
       </c>
       <c r="P124">
-        <v>0.318921626487047</v>
+        <v>0.318921626487039</v>
       </c>
     </row>
     <row r="125">
@@ -6881,10 +6881,10 @@
         <v>0.37378892858984</v>
       </c>
       <c r="O125">
-        <v>0.636993439882887</v>
+        <v>0.636993439882796</v>
       </c>
       <c r="P125">
-        <v>0.600236814593733</v>
+        <v>0.600236814593746</v>
       </c>
     </row>
     <row r="126">
@@ -6933,10 +6933,10 @@
         <v>0.474379729085526</v>
       </c>
       <c r="O126">
-        <v>0.622548842405938</v>
+        <v>0.622548842405815</v>
       </c>
       <c r="P126">
-        <v>0.542481696675707</v>
+        <v>0.542481696675711</v>
       </c>
     </row>
     <row r="127">
@@ -6976,7 +6976,7 @@
         <v>0.531988644609055</v>
       </c>
       <c r="L127">
-        <v>0.6748543486297161</v>
+        <v>0.674854348629716</v>
       </c>
       <c r="M127">
         <v>0.526378991550144</v>
@@ -6985,10 +6985,10 @@
         <v>1</v>
       </c>
       <c r="O127">
-        <v>0.610721329758947</v>
+        <v>0.610721329758696</v>
       </c>
       <c r="P127">
-        <v>0.855040828922458</v>
+        <v>0.855040828922434</v>
       </c>
     </row>
     <row r="128">
@@ -7037,10 +7037,10 @@
         <v>0.571380339115883</v>
       </c>
       <c r="O128">
-        <v>0.611142105249417</v>
+        <v>0.611142105249378</v>
       </c>
       <c r="P128">
-        <v>0.696295251528157</v>
+        <v>0.6962952515281891</v>
       </c>
     </row>
     <row r="129">
@@ -7089,10 +7089,10 @@
         <v>1</v>
       </c>
       <c r="O129">
-        <v>0.610002897798738</v>
+        <v>0.6100028977988839</v>
       </c>
       <c r="P129">
-        <v>0.368599779944158</v>
+        <v>0.368599779944187</v>
       </c>
     </row>
     <row r="130">
@@ -7141,7 +7141,7 @@
         <v>0.363175758049949</v>
       </c>
       <c r="O130">
-        <v>0.615171326487625</v>
+        <v>0.615171326487669</v>
       </c>
       <c r="P130">
         <v>0.844001875828278</v>
@@ -7193,10 +7193,10 @@
         <v>0.355202105074889</v>
       </c>
       <c r="O131">
-        <v>0.612837827060623</v>
+        <v>0.612837827060547</v>
       </c>
       <c r="P131">
-        <v>0.382189725486947</v>
+        <v>0.382189725486962</v>
       </c>
     </row>
     <row r="132">
@@ -7245,10 +7245,10 @@
         <v>0.777543454956961</v>
       </c>
       <c r="O132">
-        <v>0.622983694685067</v>
+        <v>0.622983694685202</v>
       </c>
       <c r="P132">
-        <v>0.514915632303585</v>
+        <v>0.5149156323035849</v>
       </c>
     </row>
     <row r="133">
@@ -7297,10 +7297,10 @@
         <v>0.696423132998821</v>
       </c>
       <c r="O133">
-        <v>0.605448582845609</v>
+        <v>0.605448582845497</v>
       </c>
       <c r="P133">
-        <v>0.615011947546642</v>
+        <v>0.615011947546665</v>
       </c>
     </row>
     <row r="134">
@@ -7349,10 +7349,10 @@
         <v>0.444317846092377</v>
       </c>
       <c r="O134">
-        <v>0.62904272339624</v>
+        <v>0.629042723396155</v>
       </c>
       <c r="P134">
-        <v>0.422783912922756</v>
+        <v>0.422783912922762</v>
       </c>
     </row>
     <row r="135">
@@ -7380,7 +7380,7 @@
         <v>0.197551081132222</v>
       </c>
       <c r="H135">
-        <v>0.540349637083191</v>
+        <v>0.5403496370831909</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -7401,10 +7401,10 @@
         <v>0.415929727333706</v>
       </c>
       <c r="O135">
-        <v>0.602916495697673</v>
+        <v>0.602916495697848</v>
       </c>
       <c r="P135">
-        <v>0.43654416969623</v>
+        <v>0.436544169696231</v>
       </c>
     </row>
     <row r="136">
@@ -7453,10 +7453,10 @@
         <v>0.713047723822171</v>
       </c>
       <c r="O136">
-        <v>0.609015846425772</v>
+        <v>0.609015846425767</v>
       </c>
       <c r="P136">
-        <v>0.45594669635515</v>
+        <v>0.455946696355144</v>
       </c>
     </row>
     <row r="137">
@@ -7487,7 +7487,7 @@
         <v>0.532996964138495</v>
       </c>
       <c r="I137">
-        <v>0.552034853818891</v>
+        <v>0.5520348538188909</v>
       </c>
       <c r="J137">
         <v>0.5902730464463261</v>
@@ -7505,10 +7505,10 @@
         <v>0.361730173630665</v>
       </c>
       <c r="O137">
-        <v>0.607753623021382</v>
+        <v>0.607753623021325</v>
       </c>
       <c r="P137">
-        <v>0.467581480816267</v>
+        <v>0.46758148081626</v>
       </c>
     </row>
     <row r="138">
@@ -7557,10 +7557,10 @@
         <v>0.394130868610557</v>
       </c>
       <c r="O138">
-        <v>0.612679258806468</v>
+        <v>0.612679258806669</v>
       </c>
       <c r="P138">
-        <v>0.462803077209202</v>
+        <v>0.462803077209241</v>
       </c>
     </row>
     <row r="139">
@@ -7713,7 +7713,7 @@
         <v>0.285877455196624</v>
       </c>
       <c r="O141">
-        <v>0.517169068949135</v>
+        <v>0.5171690689491349</v>
       </c>
       <c r="P141">
         <v>0.45708366932315</v>
@@ -8129,7 +8129,7 @@
         <v>0.418349925926201</v>
       </c>
       <c r="O149">
-        <v>0.5806328844900101</v>
+        <v>0.58063288449001</v>
       </c>
       <c r="P149">
         <v>0.516706221003625</v>
@@ -8444,7 +8444,7 @@
         <v>0.656579212223289</v>
       </c>
       <c r="P155">
-        <v>0.674279694993484</v>
+        <v>0.6742796949934839</v>
       </c>
     </row>
     <row r="156">
@@ -9068,7 +9068,7 @@
         <v>0.569377882089227</v>
       </c>
       <c r="P167">
-        <v>0.5648337923097651</v>
+        <v>0.564833792309765</v>
       </c>
     </row>
     <row r="168">
@@ -9114,7 +9114,7 @@
         <v>0.456703559973229</v>
       </c>
       <c r="N168">
-        <v>0.523091697484866</v>
+        <v>0.5230916974848659</v>
       </c>
       <c r="O168">
         <v>0.587071744027575</v>
@@ -9169,7 +9169,7 @@
         <v>0.330313782660558</v>
       </c>
       <c r="O169">
-        <v>0.578471624513542</v>
+        <v>0.5784716245135419</v>
       </c>
       <c r="P169">
         <v>0.643295791955662</v>
@@ -9533,7 +9533,7 @@
         <v>0.464162548288665</v>
       </c>
       <c r="O176">
-        <v>0.621986046553304</v>
+        <v>0.621986046553119</v>
       </c>
       <c r="P176">
         <v>0.453076816865182</v>
@@ -9585,10 +9585,10 @@
         <v>0.125244555601437</v>
       </c>
       <c r="O177">
-        <v>0.632513956430886</v>
+        <v>0.6325139564309</v>
       </c>
       <c r="P177">
-        <v>0.147674943861279</v>
+        <v>0.14767494386128</v>
       </c>
     </row>
     <row r="178">
@@ -9637,10 +9637,10 @@
         <v>0.737376132420409</v>
       </c>
       <c r="O178">
-        <v>0.619315410480388</v>
+        <v>0.619315410480423</v>
       </c>
       <c r="P178">
-        <v>0.6148550865868661</v>
+        <v>0.614855086586868</v>
       </c>
     </row>
     <row r="179">
@@ -9689,10 +9689,10 @@
         <v>0.80441478989174</v>
       </c>
       <c r="O179">
-        <v>0.612887394021759</v>
+        <v>0.612887394021713</v>
       </c>
       <c r="P179">
-        <v>0.386872893102323</v>
+        <v>0.386872893102324</v>
       </c>
     </row>
     <row r="180">
@@ -9741,10 +9741,10 @@
         <v>0.319929160052106</v>
       </c>
       <c r="O180">
-        <v>0.627134394779298</v>
+        <v>0.627134394780012</v>
       </c>
       <c r="P180">
-        <v>0.657853970148035</v>
+        <v>0.657853970148037</v>
       </c>
     </row>
     <row r="181">
@@ -9793,10 +9793,10 @@
         <v>0.602229423403864</v>
       </c>
       <c r="O181">
-        <v>0.632938263068568</v>
+        <v>0.632938263068806</v>
       </c>
       <c r="P181">
-        <v>0.333579350720817</v>
+        <v>0.333579350720815</v>
       </c>
     </row>
     <row r="182">
@@ -9845,10 +9845,10 @@
         <v>0.435907628958442</v>
       </c>
       <c r="O182">
-        <v>0.626476716665339</v>
+        <v>0.626476716665481</v>
       </c>
       <c r="P182">
-        <v>0.588965442839994</v>
+        <v>0.588965442839995</v>
       </c>
     </row>
     <row r="183">
@@ -9897,7 +9897,7 @@
         <v>0.764212013246918</v>
       </c>
       <c r="O183">
-        <v>0.651313581626439</v>
+        <v>0.651313581626526</v>
       </c>
       <c r="P183">
         <v>0.256932680763196</v>
@@ -9949,7 +9949,7 @@
         <v>0.315360968761598</v>
       </c>
       <c r="O184">
-        <v>0.60846912823752</v>
+        <v>0.608469128237876</v>
       </c>
       <c r="P184">
         <v>0.787723088662718</v>
@@ -10001,10 +10001,10 @@
         <v>0.305828275767393</v>
       </c>
       <c r="O185">
-        <v>0.628654098891408</v>
+        <v>0.628654098891558</v>
       </c>
       <c r="P185">
-        <v>0.473650233516349</v>
+        <v>0.473650233516352</v>
       </c>
     </row>
     <row r="186">
@@ -10026,7 +10026,7 @@
         <v>0.164986366117826</v>
       </c>
       <c r="F186">
-        <v>0.0756816516990891</v>
+        <v>0.07568165169908909</v>
       </c>
       <c r="G186">
         <v>0.06710165536564811</v>
@@ -10053,7 +10053,7 @@
         <v>0.298497491615177</v>
       </c>
       <c r="O186">
-        <v>0.6103071009647471</v>
+        <v>0.610307100964698</v>
       </c>
       <c r="P186">
         <v>0.65185003836366</v>
@@ -10105,7 +10105,7 @@
         <v>0.550138345691502</v>
       </c>
       <c r="O187">
-        <v>0.617463119815472</v>
+        <v>0.617463119815489</v>
       </c>
       <c r="P187">
         <v>0.498146809149807</v>
@@ -10157,10 +10157,10 @@
         <v>0.533234658807078</v>
       </c>
       <c r="O188">
-        <v>0.62352915076966</v>
+        <v>0.623529150769932</v>
       </c>
       <c r="P188">
-        <v>0.287298999534725</v>
+        <v>0.287298999534727</v>
       </c>
     </row>
     <row r="189">
@@ -10209,10 +10209,10 @@
         <v>0.936771965250389</v>
       </c>
       <c r="O189">
-        <v>0.620898480462544</v>
+        <v>0.6208984804626489</v>
       </c>
       <c r="P189">
-        <v>0.362596664942004</v>
+        <v>0.362596664942005</v>
       </c>
     </row>
     <row r="190">
@@ -10261,10 +10261,10 @@
         <v>0.590610640681373</v>
       </c>
       <c r="O190">
-        <v>0.619038878531205</v>
+        <v>0.6190388785312529</v>
       </c>
       <c r="P190">
-        <v>0.295812014376198</v>
+        <v>0.2958120143762</v>
       </c>
     </row>
     <row r="191">
@@ -10313,7 +10313,7 @@
         <v>0.59718918824625</v>
       </c>
       <c r="O191">
-        <v>0.615854082481922</v>
+        <v>0.615854082482025</v>
       </c>
       <c r="P191">
         <v>0.180297912096657</v>
@@ -10365,10 +10365,10 @@
         <v>0.451527492352328</v>
       </c>
       <c r="O192">
-        <v>0.618566489214754</v>
+        <v>0.618566489214803</v>
       </c>
       <c r="P192">
-        <v>0.5253264498449151</v>
+        <v>0.5253264498449171</v>
       </c>
     </row>
     <row r="193">
@@ -10417,7 +10417,7 @@
         <v>0.191930708458236</v>
       </c>
       <c r="O193">
-        <v>0.606034716011235</v>
+        <v>0.606034716011283</v>
       </c>
       <c r="P193">
         <v>0.127939219625821</v>
@@ -10469,7 +10469,7 @@
         <v>0.389990534005698</v>
       </c>
       <c r="O194">
-        <v>0.602279093721723</v>
+        <v>0.602279093721683</v>
       </c>
       <c r="P194">
         <v>0.780244724409016</v>
@@ -10521,7 +10521,7 @@
         <v>0.351768316348489</v>
       </c>
       <c r="O195">
-        <v>0.626440812876456</v>
+        <v>0.626440812876651</v>
       </c>
       <c r="P195">
         <v>0.388922357211108</v>
@@ -10567,13 +10567,13 @@
         <v>0.799419944615765</v>
       </c>
       <c r="M196">
-        <v>0.5956539942108881</v>
+        <v>0.595653994210888</v>
       </c>
       <c r="N196">
         <v>0.5986397888431499</v>
       </c>
       <c r="O196">
-        <v>0.637812302479322</v>
+        <v>0.637812302479544</v>
       </c>
       <c r="P196">
         <v>0.7112826089451521</v>
@@ -10625,10 +10625,10 @@
         <v>0.478658582311208</v>
       </c>
       <c r="O197">
-        <v>0.61951503166962</v>
+        <v>0.6195150316697809</v>
       </c>
       <c r="P197">
-        <v>0.406292814376975</v>
+        <v>0.406292814376977</v>
       </c>
     </row>
     <row r="198">
@@ -10677,10 +10677,10 @@
         <v>0.414985899325756</v>
       </c>
       <c r="O198">
-        <v>0.623366058248176</v>
+        <v>0.6233660582482879</v>
       </c>
       <c r="P198">
-        <v>0.282153317178704</v>
+        <v>0.282153317178703</v>
       </c>
     </row>
     <row r="199">
@@ -10708,7 +10708,7 @@
         <v>0.228985492419309</v>
       </c>
       <c r="H199">
-        <v>0.5370528929726141</v>
+        <v>0.537052892972614</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>0.642004238143874</v>
       </c>
       <c r="O199">
-        <v>0.5981118067194841</v>
+        <v>0.598111806719422</v>
       </c>
       <c r="P199">
         <v>0.381846153684017</v>
@@ -10781,7 +10781,7 @@
         <v>0.483338333489423</v>
       </c>
       <c r="O200">
-        <v>0.628334295703865</v>
+        <v>0.628334295704037</v>
       </c>
       <c r="P200">
         <v>0.303222465512177</v>
@@ -10833,7 +10833,7 @@
         <v>0.591042421378565</v>
       </c>
       <c r="O201">
-        <v>0.629146123476126</v>
+        <v>0.629146123476192</v>
       </c>
       <c r="P201">
         <v>0.364383326000141</v>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="O202">
-        <v>0.621932120956655</v>
+        <v>0.621932120956694</v>
       </c>
       <c r="P202">
         <v>0.213529130165398</v>
@@ -10937,7 +10937,7 @@
         <v>0.769669627717009</v>
       </c>
       <c r="O203">
-        <v>0.616746884792184</v>
+        <v>0.616746884792108</v>
       </c>
       <c r="P203">
         <v>0.389520993373633</v>
@@ -10980,7 +10980,7 @@
         <v>0.549366608790578</v>
       </c>
       <c r="L204">
-        <v>0.522621879988934</v>
+        <v>0.5226218799889339</v>
       </c>
       <c r="M204">
         <v>0.158417666405995</v>
@@ -10989,10 +10989,10 @@
         <v>0.5538801364352119</v>
       </c>
       <c r="O204">
-        <v>0.624173948432491</v>
+        <v>0.624173948432452</v>
       </c>
       <c r="P204">
-        <v>0.721790603966374</v>
+        <v>0.721790603966371</v>
       </c>
     </row>
     <row r="205">
@@ -11041,7 +11041,7 @@
         <v>0.3931994191603</v>
       </c>
       <c r="O205">
-        <v>0.615214226739962</v>
+        <v>0.615214226740077</v>
       </c>
       <c r="P205">
         <v>0.595810091008351</v>
@@ -11093,10 +11093,10 @@
         <v>0.966367203420501</v>
       </c>
       <c r="O206">
-        <v>0.6174104034357411</v>
+        <v>0.617410403435823</v>
       </c>
       <c r="P206">
-        <v>0.489234257499927</v>
+        <v>0.489234257499929</v>
       </c>
     </row>
     <row r="207">
@@ -11145,10 +11145,10 @@
         <v>0.290782001955544</v>
       </c>
       <c r="O207">
-        <v>0.62889920523399</v>
+        <v>0.6288992052344829</v>
       </c>
       <c r="P207">
-        <v>0.431741011685144</v>
+        <v>0.431741011685145</v>
       </c>
     </row>
     <row r="208">
@@ -11197,10 +11197,10 @@
         <v>0.340015690225009</v>
       </c>
       <c r="O208">
-        <v>0.633408302402758</v>
+        <v>0.633408302402839</v>
       </c>
       <c r="P208">
-        <v>0.34276364958315</v>
+        <v>0.342763649583148</v>
       </c>
     </row>
     <row r="209">
@@ -11237,7 +11237,7 @@
         <v>0.22797469085547</v>
       </c>
       <c r="K209">
-        <v>0.6356766036813391</v>
+        <v>0.635676603681339</v>
       </c>
       <c r="L209">
         <v>0.313835280753007</v>
@@ -11246,13 +11246,13 @@
         <v>0.202037929596221</v>
       </c>
       <c r="N209">
-        <v>0.5224656499614721</v>
+        <v>0.522465649961472</v>
       </c>
       <c r="O209">
-        <v>0.614036726363222</v>
+        <v>0.6140367263632061</v>
       </c>
       <c r="P209">
-        <v>0.338597819621131</v>
+        <v>0.33859781962113</v>
       </c>
     </row>
     <row r="210">
@@ -11301,10 +11301,10 @@
         <v>0.285829751870982</v>
       </c>
       <c r="O210">
-        <v>0.624274450333173</v>
+        <v>0.624274450333381</v>
       </c>
       <c r="P210">
-        <v>0.39087225876139</v>
+        <v>0.390872258761389</v>
       </c>
     </row>
     <row r="211">
@@ -11341,7 +11341,7 @@
         <v>0.521445246321549</v>
       </c>
       <c r="K211">
-        <v>0.5295955804567391</v>
+        <v>0.529595580456739</v>
       </c>
       <c r="L211">
         <v>0.250805103229732</v>
@@ -11353,10 +11353,10 @@
         <v>0.5457309568386171</v>
       </c>
       <c r="O211">
-        <v>0.622956930780368</v>
+        <v>0.622956930780366</v>
       </c>
       <c r="P211">
-        <v>0.37863355585867</v>
+        <v>0.378633555858671</v>
       </c>
     </row>
     <row r="212">
@@ -11405,10 +11405,10 @@
         <v>0.407337405300057</v>
       </c>
       <c r="O212">
-        <v>0.63724201399999</v>
+        <v>0.637242014000048</v>
       </c>
       <c r="P212">
-        <v>0.6530903715838931</v>
+        <v>0.653090371583891</v>
       </c>
     </row>
     <row r="213">
@@ -11457,10 +11457,10 @@
         <v>0.448671148851241</v>
       </c>
       <c r="O213">
-        <v>0.623033732066012</v>
+        <v>0.623033732065789</v>
       </c>
       <c r="P213">
-        <v>0.455231861138001</v>
+        <v>0.455231861138</v>
       </c>
     </row>
     <row r="214">
@@ -11509,10 +11509,10 @@
         <v>1</v>
       </c>
       <c r="O214">
-        <v>0.612530432255213</v>
+        <v>0.612530432255231</v>
       </c>
       <c r="P214">
-        <v>0.903108855620386</v>
+        <v>0.903108855620379</v>
       </c>
     </row>
     <row r="215">
@@ -11546,7 +11546,7 @@
         <v>0.384409754597982</v>
       </c>
       <c r="J215">
-        <v>0.615765645491748</v>
+        <v>0.6157656454917479</v>
       </c>
       <c r="K215">
         <v>1</v>
@@ -11558,10 +11558,10 @@
         <v>0.264218231932092</v>
       </c>
       <c r="N215">
-        <v>0.6102833910473851</v>
+        <v>0.610283391047385</v>
       </c>
       <c r="O215">
-        <v>0.613358699224774</v>
+        <v>0.613358699224704</v>
       </c>
       <c r="P215">
         <v>0.474050460322005</v>
@@ -11580,7 +11580,7 @@
         <v>0.447820028144984</v>
       </c>
       <c r="D216">
-        <v>0.5502567869973331</v>
+        <v>0.550256786997333</v>
       </c>
       <c r="E216">
         <v>0.391311512722622</v>
@@ -11601,7 +11601,7 @@
         <v>0.609695219728205</v>
       </c>
       <c r="K216">
-        <v>0.560251897347043</v>
+        <v>0.5602518973470429</v>
       </c>
       <c r="L216">
         <v>1</v>
@@ -11613,10 +11613,10 @@
         <v>1</v>
       </c>
       <c r="O216">
-        <v>0.616448076750142</v>
+        <v>0.616448076750169</v>
       </c>
       <c r="P216">
-        <v>0.278779314251204</v>
+        <v>0.278779314251203</v>
       </c>
     </row>
     <row r="217">
@@ -11665,7 +11665,7 @@
         <v>0.332932265823715</v>
       </c>
       <c r="O217">
-        <v>0.615788848883785</v>
+        <v>0.6157888488839059</v>
       </c>
       <c r="P217">
         <v>0.762834239330226</v>
@@ -11717,7 +11717,7 @@
         <v>0.355698859797973</v>
       </c>
       <c r="O218">
-        <v>0.611273573875139</v>
+        <v>0.611273573875506</v>
       </c>
       <c r="P218">
         <v>0.429297803627561</v>
@@ -11769,10 +11769,10 @@
         <v>0.77245362887976</v>
       </c>
       <c r="O219">
-        <v>0.625233794919564</v>
+        <v>0.625233794919574</v>
       </c>
       <c r="P219">
-        <v>0.401594346478743</v>
+        <v>0.40159434647874</v>
       </c>
     </row>
     <row r="220">
@@ -11821,10 +11821,10 @@
         <v>1</v>
       </c>
       <c r="O220">
-        <v>0.6053506517373271</v>
+        <v>0.605350651737216</v>
       </c>
       <c r="P220">
-        <v>0.50039762279945</v>
+        <v>0.500397622799447</v>
       </c>
     </row>
     <row r="221">
@@ -11873,7 +11873,7 @@
         <v>0.374354264203206</v>
       </c>
       <c r="O221">
-        <v>0.629210862840347</v>
+        <v>0.629210862840458</v>
       </c>
       <c r="P221">
         <v>0.368732661162695</v>
@@ -11919,13 +11919,13 @@
         <v>0.279222220549824</v>
       </c>
       <c r="M222">
-        <v>0.5145730411508001</v>
+        <v>0.5145730411508</v>
       </c>
       <c r="N222">
         <v>0.4067618330914</v>
       </c>
       <c r="O222">
-        <v>0.604629346420585</v>
+        <v>0.604629346420765</v>
       </c>
       <c r="P222">
         <v>0.485606796370064</v>
@@ -11977,10 +11977,10 @@
         <v>0.554329950429769</v>
       </c>
       <c r="O223">
-        <v>0.611033901386661</v>
+        <v>0.611033901386677</v>
       </c>
       <c r="P223">
-        <v>0.354930418718341</v>
+        <v>0.35493041871834</v>
       </c>
     </row>
     <row r="224">
@@ -12029,10 +12029,10 @@
         <v>0.35136857767257</v>
       </c>
       <c r="O224">
-        <v>0.609278304949193</v>
+        <v>0.609278304949277</v>
       </c>
       <c r="P224">
-        <v>0.438787497075605</v>
+        <v>0.438787497075606</v>
       </c>
     </row>
     <row r="225">
@@ -12081,7 +12081,7 @@
         <v>0.36525426140215</v>
       </c>
       <c r="O225">
-        <v>0.611081692776099</v>
+        <v>0.611081692776137</v>
       </c>
       <c r="P225">
         <v>0.339642569188909</v>
@@ -12133,7 +12133,7 @@
         <v>0.358468056277523</v>
       </c>
       <c r="O226">
-        <v>0.5310061209518741</v>
+        <v>0.531006120951874</v>
       </c>
       <c r="P226">
         <v>0.565912914024544</v>
@@ -12708,7 +12708,7 @@
         <v>0.574650416761718</v>
       </c>
       <c r="P237">
-        <v>0.631803425391741</v>
+        <v>0.6318034253917409</v>
       </c>
     </row>
     <row r="238">
@@ -12809,7 +12809,7 @@
         <v>0.406627089030579</v>
       </c>
       <c r="O239">
-        <v>0.601200427570517</v>
+        <v>0.6012004275705169</v>
       </c>
       <c r="P239">
         <v>0.557935225832994</v>
@@ -13173,7 +13173,7 @@
         <v>0.306268928542117</v>
       </c>
       <c r="O246">
-        <v>0.515336268360644</v>
+        <v>0.5153362683606439</v>
       </c>
       <c r="P246">
         <v>0.4731229313344</v>
@@ -13280,7 +13280,7 @@
         <v>0.622408262919311</v>
       </c>
       <c r="P248">
-        <v>0.5604470364547191</v>
+        <v>0.560447036454719</v>
       </c>
     </row>
     <row r="249">
@@ -13800,7 +13800,7 @@
         <v>0.49435502552873</v>
       </c>
       <c r="P258">
-        <v>0.5086444970977671</v>
+        <v>0.508644497097767</v>
       </c>
     </row>
     <row r="259">
@@ -14057,10 +14057,10 @@
         <v>0.407990922872873</v>
       </c>
       <c r="O263">
-        <v>0.6176905001772161</v>
+        <v>0.617690500183255</v>
       </c>
       <c r="P263">
-        <v>0.5502438094454351</v>
+        <v>0.5502438094454341</v>
       </c>
     </row>
     <row r="264">
@@ -14109,7 +14109,7 @@
         <v>0.13641713294605</v>
       </c>
       <c r="O264">
-        <v>0.6305169316416091</v>
+        <v>0.630516931641514</v>
       </c>
       <c r="P264">
         <v>0.131469757581328</v>
@@ -14161,10 +14161,10 @@
         <v>0.709999160234549</v>
       </c>
       <c r="O265">
-        <v>0.615165626892072</v>
+        <v>0.6151656268919919</v>
       </c>
       <c r="P265">
-        <v>0.531784214979562</v>
+        <v>0.531784214979565</v>
       </c>
     </row>
     <row r="266">
@@ -14180,7 +14180,7 @@
         <v>0.51252585634355</v>
       </c>
       <c r="D266">
-        <v>0.8760352726437271</v>
+        <v>0.876035272643727</v>
       </c>
       <c r="E266">
         <v>0.373069600582495</v>
@@ -14213,10 +14213,10 @@
         <v>0.686701034617754</v>
       </c>
       <c r="O266">
-        <v>0.609237853865969</v>
+        <v>0.6092378538658531</v>
       </c>
       <c r="P266">
-        <v>0.472795619272134</v>
+        <v>0.472795619272138</v>
       </c>
     </row>
     <row r="267">
@@ -14265,10 +14265,10 @@
         <v>0.321083674048803</v>
       </c>
       <c r="O267">
-        <v>0.625361610787291</v>
+        <v>0.625361610787745</v>
       </c>
       <c r="P267">
-        <v>0.644079829227763</v>
+        <v>0.644079829227767</v>
       </c>
     </row>
     <row r="268">
@@ -14317,10 +14317,10 @@
         <v>0.561716451441549</v>
       </c>
       <c r="O268">
-        <v>0.630096883224388</v>
+        <v>0.6300968832242</v>
       </c>
       <c r="P268">
-        <v>0.302201238678995</v>
+        <v>0.302201238678994</v>
       </c>
     </row>
     <row r="269">
@@ -14369,10 +14369,10 @@
         <v>0.422986203795138</v>
       </c>
       <c r="O269">
-        <v>0.620323502417365</v>
+        <v>0.620323502416727</v>
       </c>
       <c r="P269">
-        <v>0.544849813570115</v>
+        <v>0.544849813570113</v>
       </c>
     </row>
     <row r="270">
@@ -14421,10 +14421,10 @@
         <v>0.816412436632277</v>
       </c>
       <c r="O270">
-        <v>0.645612102019489</v>
+        <v>0.6456121020201741</v>
       </c>
       <c r="P270">
-        <v>0.364630978853139</v>
+        <v>0.364630978853141</v>
       </c>
     </row>
     <row r="271">
@@ -14473,10 +14473,10 @@
         <v>0.342510239648775</v>
       </c>
       <c r="O271">
-        <v>0.602656815279716</v>
+        <v>0.6026568152794231</v>
       </c>
       <c r="P271">
-        <v>0.712562007313492</v>
+        <v>0.712562007313481</v>
       </c>
     </row>
     <row r="272">
@@ -14525,7 +14525,7 @@
         <v>0.29314711727461</v>
       </c>
       <c r="O272">
-        <v>0.625341809579952</v>
+        <v>0.6253418095804451</v>
       </c>
       <c r="P272">
         <v>0.530757029264413</v>
@@ -14577,10 +14577,10 @@
         <v>0.27231068141896</v>
       </c>
       <c r="O273">
-        <v>0.606965666605234</v>
+        <v>0.606965666604651</v>
       </c>
       <c r="P273">
-        <v>0.615720874644561</v>
+        <v>0.615720874644559</v>
       </c>
     </row>
     <row r="274">
@@ -14629,10 +14629,10 @@
         <v>0.522883043709801</v>
       </c>
       <c r="O274">
-        <v>0.610768119279287</v>
+        <v>0.6107681192791879</v>
       </c>
       <c r="P274">
-        <v>0.396999224446344</v>
+        <v>0.39699922444635</v>
       </c>
     </row>
     <row r="275">
@@ -14681,10 +14681,10 @@
         <v>0.500940050548633</v>
       </c>
       <c r="O275">
-        <v>0.618154523387508</v>
+        <v>0.618154523386839</v>
       </c>
       <c r="P275">
-        <v>0.350715821207815</v>
+        <v>0.350715821207814</v>
       </c>
     </row>
     <row r="276">
@@ -14709,7 +14709,7 @@
         <v>0.144871508920258</v>
       </c>
       <c r="G276">
-        <v>0.9397994372052561</v>
+        <v>0.939799437205256</v>
       </c>
       <c r="H276">
         <v>0.437696486072415</v>
@@ -14733,10 +14733,10 @@
         <v>0.938486079378139</v>
       </c>
       <c r="O276">
-        <v>0.613585749449037</v>
+        <v>0.613585749448744</v>
       </c>
       <c r="P276">
-        <v>0.441605945215618</v>
+        <v>0.441605945215623</v>
       </c>
     </row>
     <row r="277">
@@ -14785,10 +14785,10 @@
         <v>0.522882527056324</v>
       </c>
       <c r="O277">
-        <v>0.617105723383059</v>
+        <v>0.617105723382866</v>
       </c>
       <c r="P277">
-        <v>0.270240901144234</v>
+        <v>0.270240901144232</v>
       </c>
     </row>
     <row r="278">
@@ -14837,10 +14837,10 @@
         <v>0.446198338951764</v>
       </c>
       <c r="O278">
-        <v>0.609007557508287</v>
+        <v>0.609007557508119</v>
       </c>
       <c r="P278">
-        <v>0.269404080287284</v>
+        <v>0.269404080287287</v>
       </c>
     </row>
     <row r="279">
@@ -14889,10 +14889,10 @@
         <v>0.361141256544866</v>
       </c>
       <c r="O279">
-        <v>0.616238504959292</v>
+        <v>0.6162385049603269</v>
       </c>
       <c r="P279">
-        <v>0.485647899977423</v>
+        <v>0.485647899977425</v>
       </c>
     </row>
     <row r="280">
@@ -14941,7 +14941,7 @@
         <v>0.172853944169995</v>
       </c>
       <c r="O280">
-        <v>0.602602860624509</v>
+        <v>0.602602860624287</v>
       </c>
       <c r="P280">
         <v>0.148714629668468</v>
@@ -14993,7 +14993,7 @@
         <v>0.336565108153657</v>
       </c>
       <c r="O281">
-        <v>0.5965575543749611</v>
+        <v>0.596557554374915</v>
       </c>
       <c r="P281">
         <v>0.68117416734753</v>
@@ -15045,10 +15045,10 @@
         <v>0.389858366705706</v>
       </c>
       <c r="O282">
-        <v>0.62301097528384</v>
+        <v>0.623010975283653</v>
       </c>
       <c r="P282">
-        <v>0.392992403868318</v>
+        <v>0.39299240386832</v>
       </c>
     </row>
     <row r="283">
@@ -15097,10 +15097,10 @@
         <v>0.549639942649313</v>
       </c>
       <c r="O283">
-        <v>0.632067075128899</v>
+        <v>0.632067075127108</v>
       </c>
       <c r="P283">
-        <v>0.624372926125123</v>
+        <v>0.624372926125118</v>
       </c>
     </row>
     <row r="284">
@@ -15149,10 +15149,10 @@
         <v>0.440941094396085</v>
       </c>
       <c r="O284">
-        <v>0.612486790432667</v>
+        <v>0.612486790432174</v>
       </c>
       <c r="P284">
-        <v>0.377152993136088</v>
+        <v>0.377152993136092</v>
       </c>
     </row>
     <row r="285">
@@ -15189,7 +15189,7 @@
         <v>0.475093286800529</v>
       </c>
       <c r="K285">
-        <v>0.5312535879646591</v>
+        <v>0.531253587964659</v>
       </c>
       <c r="L285">
         <v>0.459323113945173</v>
@@ -15201,10 +15201,10 @@
         <v>0.479090304732797</v>
       </c>
       <c r="O285">
-        <v>0.620767830609576</v>
+        <v>0.620767830609361</v>
       </c>
       <c r="P285">
-        <v>0.318567357107843</v>
+        <v>0.318567357107846</v>
       </c>
     </row>
     <row r="286">
@@ -15253,10 +15253,10 @@
         <v>0.622048130370731</v>
       </c>
       <c r="O286">
-        <v>0.593439270581507</v>
+        <v>0.593439270581483</v>
       </c>
       <c r="P286">
-        <v>0.489960326351345</v>
+        <v>0.489960326351338</v>
       </c>
     </row>
     <row r="287">
@@ -15284,7 +15284,7 @@
         <v>0.382101467275613</v>
       </c>
       <c r="H287">
-        <v>0.56999935941731</v>
+        <v>0.5699993594173099</v>
       </c>
       <c r="I287">
         <v>0.917267772536647</v>
@@ -15305,10 +15305,10 @@
         <v>0.439652307141949</v>
       </c>
       <c r="O287">
-        <v>0.625037476183464</v>
+        <v>0.6250374761846</v>
       </c>
       <c r="P287">
-        <v>0.36759564079393</v>
+        <v>0.367595640793932</v>
       </c>
     </row>
     <row r="288">
@@ -15357,7 +15357,7 @@
         <v>0.562680742470279</v>
       </c>
       <c r="O288">
-        <v>0.624168034052438</v>
+        <v>0.624168034051845</v>
       </c>
       <c r="P288">
         <v>0.376868380528691</v>
@@ -15409,10 +15409,10 @@
         <v>1</v>
       </c>
       <c r="O289">
-        <v>0.614482595436368</v>
+        <v>0.614482595436316</v>
       </c>
       <c r="P289">
-        <v>0.351787462716162</v>
+        <v>0.351787462716159</v>
       </c>
     </row>
     <row r="290">
@@ -15449,7 +15449,7 @@
         <v>0.28127596000688</v>
       </c>
       <c r="K290">
-        <v>0.0913556817553482</v>
+        <v>0.09135568175534819</v>
       </c>
       <c r="L290">
         <v>0.165842338931087</v>
@@ -15461,10 +15461,10 @@
         <v>0.892308270181148</v>
       </c>
       <c r="O290">
-        <v>0.6161622269917491</v>
+        <v>0.616162226992463</v>
       </c>
       <c r="P290">
-        <v>0.36274583620755</v>
+        <v>0.362745836207552</v>
       </c>
     </row>
     <row r="291">
@@ -15513,7 +15513,7 @@
         <v>0.568176175646722</v>
       </c>
       <c r="O291">
-        <v>0.616708796207414</v>
+        <v>0.616708796206645</v>
       </c>
       <c r="P291">
         <v>0.748432533755885</v>
@@ -15541,7 +15541,7 @@
         <v>0.196381278842018</v>
       </c>
       <c r="G292">
-        <v>0.7054420940084391</v>
+        <v>0.705442094008439</v>
       </c>
       <c r="H292">
         <v>0.242089595260775</v>
@@ -15565,10 +15565,10 @@
         <v>0.408055140209943</v>
       </c>
       <c r="O292">
-        <v>0.6092407778737</v>
+        <v>0.609240777874118</v>
       </c>
       <c r="P292">
-        <v>0.560872524026048</v>
+        <v>0.560872524026053</v>
       </c>
     </row>
     <row r="293">
@@ -15617,10 +15617,10 @@
         <v>0.906044595126733</v>
       </c>
       <c r="O293">
-        <v>0.614900157375796</v>
+        <v>0.614900157375197</v>
       </c>
       <c r="P293">
-        <v>0.45000273859477</v>
+        <v>0.450002738594773</v>
       </c>
     </row>
     <row r="294">
@@ -15669,10 +15669,10 @@
         <v>0.253845550618136</v>
       </c>
       <c r="O294">
-        <v>0.620509258298769</v>
+        <v>0.620509258297808</v>
       </c>
       <c r="P294">
-        <v>0.428026219701275</v>
+        <v>0.428026219701282</v>
       </c>
     </row>
     <row r="295">
@@ -15721,10 +15721,10 @@
         <v>0.326879031476763</v>
       </c>
       <c r="O295">
-        <v>0.628659258284149</v>
+        <v>0.628659258283666</v>
       </c>
       <c r="P295">
-        <v>0.340629067645351</v>
+        <v>0.340629067645348</v>
       </c>
     </row>
     <row r="296">
@@ -15749,7 +15749,7 @@
         <v>0.160346241126739</v>
       </c>
       <c r="G296">
-        <v>0.0885936713031858</v>
+        <v>0.08859367130318579</v>
       </c>
       <c r="H296">
         <v>0.75873357166169</v>
@@ -15773,10 +15773,10 @@
         <v>0.497575171653647</v>
       </c>
       <c r="O296">
-        <v>0.607192991811499</v>
+        <v>0.607192991812451</v>
       </c>
       <c r="P296">
-        <v>0.469390522798672</v>
+        <v>0.469390522798666</v>
       </c>
     </row>
     <row r="297">
@@ -15825,10 +15825,10 @@
         <v>0.264606109200167</v>
       </c>
       <c r="O297">
-        <v>0.619658152056262</v>
+        <v>0.6196581520500341</v>
       </c>
       <c r="P297">
-        <v>0.37882589084612</v>
+        <v>0.378825890846116</v>
       </c>
     </row>
     <row r="298">
@@ -15877,10 +15877,10 @@
         <v>0.561413246918726</v>
       </c>
       <c r="O298">
-        <v>0.619388534801414</v>
+        <v>0.619388534801279</v>
       </c>
       <c r="P298">
-        <v>0.343395442305894</v>
+        <v>0.343395442305886</v>
       </c>
     </row>
     <row r="299">
@@ -15929,10 +15929,10 @@
         <v>0.384350024149567</v>
       </c>
       <c r="O299">
-        <v>0.634154662652046</v>
+        <v>0.634154662651891</v>
       </c>
       <c r="P299">
-        <v>0.655268168532909</v>
+        <v>0.655268168532908</v>
       </c>
     </row>
     <row r="300">
@@ -15981,7 +15981,7 @@
         <v>0.457240969127777</v>
       </c>
       <c r="O300">
-        <v>0.6178904403675261</v>
+        <v>0.617890440366859</v>
       </c>
       <c r="P300">
         <v>0.508982224159098</v>
@@ -16033,7 +16033,7 @@
         <v>0.8929863367446</v>
       </c>
       <c r="O301">
-        <v>0.607890385715271</v>
+        <v>0.607890385714063</v>
       </c>
       <c r="P301">
         <v>0.766378590650443</v>
@@ -16085,7 +16085,7 @@
         <v>0.575846023889855</v>
       </c>
       <c r="O302">
-        <v>0.606380361181813</v>
+        <v>0.606380361180399</v>
       </c>
       <c r="P302">
         <v>0.62060226689445</v>
@@ -16137,10 +16137,10 @@
         <v>1</v>
       </c>
       <c r="O303">
-        <v>0.614263160557357</v>
+        <v>0.614263160556378</v>
       </c>
       <c r="P303">
-        <v>0.434224002590672</v>
+        <v>0.434224002590676</v>
       </c>
     </row>
     <row r="304">
@@ -16189,10 +16189,10 @@
         <v>0.320811727235102</v>
       </c>
       <c r="O304">
-        <v>0.609739289001209</v>
+        <v>0.609739289001212</v>
       </c>
       <c r="P304">
-        <v>0.6003253879249551</v>
+        <v>0.6003253879249441</v>
       </c>
     </row>
     <row r="305">
@@ -16241,10 +16241,10 @@
         <v>0.340361445796656</v>
       </c>
       <c r="O305">
-        <v>0.607373188533017</v>
+        <v>0.607373188532115</v>
       </c>
       <c r="P305">
-        <v>0.453721111196454</v>
+        <v>0.453721111196452</v>
       </c>
     </row>
     <row r="306">
@@ -16290,13 +16290,13 @@
         <v>0.780863871415332</v>
       </c>
       <c r="N306">
-        <v>0.8918920210825611</v>
+        <v>0.891892021082561</v>
       </c>
       <c r="O306">
-        <v>0.620255268477634</v>
+        <v>0.620255268477659</v>
       </c>
       <c r="P306">
-        <v>0.366802940279041</v>
+        <v>0.366802940279038</v>
       </c>
     </row>
     <row r="307">
@@ -16342,13 +16342,13 @@
         <v>0.234903486842808</v>
       </c>
       <c r="N307">
-        <v>0.852075858133365</v>
+        <v>0.8520758581333649</v>
       </c>
       <c r="O307">
-        <v>0.596527624407699</v>
+        <v>0.596527624407707</v>
       </c>
       <c r="P307">
-        <v>0.487113806577657</v>
+        <v>0.487113806577655</v>
       </c>
     </row>
     <row r="308">
@@ -16397,10 +16397,10 @@
         <v>0.347916928511322</v>
       </c>
       <c r="O308">
-        <v>0.62436543547164</v>
+        <v>0.624365435471678</v>
       </c>
       <c r="P308">
-        <v>0.317340920716035</v>
+        <v>0.317340920716034</v>
       </c>
     </row>
     <row r="309">
@@ -16449,10 +16449,10 @@
         <v>0.387800882352145</v>
       </c>
       <c r="O309">
-        <v>0.599714823868452</v>
+        <v>0.599714823868284</v>
       </c>
       <c r="P309">
-        <v>0.498517594048391</v>
+        <v>0.498517594048389</v>
       </c>
     </row>
     <row r="310">
@@ -16501,10 +16501,10 @@
         <v>0.648796663218102</v>
       </c>
       <c r="O310">
-        <v>0.605426212599936</v>
+        <v>0.605426212599911</v>
       </c>
       <c r="P310">
-        <v>0.348638775129706</v>
+        <v>0.34863877512971</v>
       </c>
     </row>
     <row r="311">
@@ -16535,7 +16535,7 @@
         <v>0.425115065581789</v>
       </c>
       <c r="I311">
-        <v>0.573671911883531</v>
+        <v>0.5736719118835309</v>
       </c>
       <c r="J311">
         <v>0.602120696477327</v>
@@ -16553,10 +16553,10 @@
         <v>0.344888258937749</v>
       </c>
       <c r="O311">
-        <v>0.605712836697871</v>
+        <v>0.605712836702751</v>
       </c>
       <c r="P311">
-        <v>0.445318897902078</v>
+        <v>0.445318897902076</v>
       </c>
     </row>
     <row r="312">
@@ -16605,10 +16605,10 @@
         <v>0.34820601057709</v>
       </c>
       <c r="O312">
-        <v>0.6086477464464221</v>
+        <v>0.608647746446374</v>
       </c>
       <c r="P312">
-        <v>0.419038802214665</v>
+        <v>0.419038802214669</v>
       </c>
     </row>
     <row r="313">
@@ -17024,7 +17024,7 @@
         <v>0.659438130091463</v>
       </c>
       <c r="P320">
-        <v>0.5867665012103071</v>
+        <v>0.586766501210307</v>
       </c>
     </row>
     <row r="321">
@@ -17856,7 +17856,7 @@
         <v>0.589254172890925</v>
       </c>
       <c r="P336">
-        <v>0.671280806003617</v>
+        <v>0.6712808060036169</v>
       </c>
     </row>
     <row r="337">
@@ -18190,7 +18190,7 @@
         <v>0.346461852028744</v>
       </c>
       <c r="F343">
-        <v>0.530878471594944</v>
+        <v>0.5308784715949439</v>
       </c>
       <c r="G343">
         <v>0.346383262880335</v>
@@ -18581,10 +18581,10 @@
         <v>0.466202174136031</v>
       </c>
       <c r="O350">
-        <v>0.611518848270089</v>
+        <v>0.611518848276269</v>
       </c>
       <c r="P350">
-        <v>0.657617047822313</v>
+        <v>0.657617047822356</v>
       </c>
     </row>
     <row r="351">
@@ -18600,7 +18600,7 @@
         <v>0.33576517869342</v>
       </c>
       <c r="D351">
-        <v>0.8081228378434791</v>
+        <v>0.808122837843479</v>
       </c>
       <c r="E351">
         <v>0.350864698794512</v>
@@ -18633,10 +18633,10 @@
         <v>0.155743348699262</v>
       </c>
       <c r="O351">
-        <v>0.621693583273441</v>
+        <v>0.621693583273475</v>
       </c>
       <c r="P351">
-        <v>0.103388126398097</v>
+        <v>0.103388126398094</v>
       </c>
     </row>
     <row r="352">
@@ -18667,7 +18667,7 @@
         <v>0.244904379120783</v>
       </c>
       <c r="I352">
-        <v>0.755534481895413</v>
+        <v>0.7555344818954129</v>
       </c>
       <c r="J352">
         <v>0.329189781684569</v>
@@ -18682,13 +18682,13 @@
         <v>0.558186791057684</v>
       </c>
       <c r="N352">
-        <v>0.7098262699839451</v>
+        <v>0.709826269983945</v>
       </c>
       <c r="O352">
-        <v>0.610032953966845</v>
+        <v>0.610032953967389</v>
       </c>
       <c r="P352">
-        <v>0.646439258307595</v>
+        <v>0.646439258307582</v>
       </c>
     </row>
     <row r="353">
@@ -18737,10 +18737,10 @@
         <v>0.561342803902405</v>
       </c>
       <c r="O353">
-        <v>0.601026536399025</v>
+        <v>0.601026536398563</v>
       </c>
       <c r="P353">
-        <v>0.5909839151633201</v>
+        <v>0.59098391516336</v>
       </c>
     </row>
     <row r="354">
@@ -18789,10 +18789,10 @@
         <v>0.314704789751315</v>
       </c>
       <c r="O354">
-        <v>0.618569043005788</v>
+        <v>0.6185690430090079</v>
       </c>
       <c r="P354">
-        <v>0.678412401949107</v>
+        <v>0.678412401949081</v>
       </c>
     </row>
     <row r="355">
@@ -18841,10 +18841,10 @@
         <v>0.569261734480995</v>
       </c>
       <c r="O355">
-        <v>0.621424217578648</v>
+        <v>0.621424217579204</v>
       </c>
       <c r="P355">
-        <v>0.345149819876298</v>
+        <v>0.345149819876308</v>
       </c>
     </row>
     <row r="356">
@@ -18893,10 +18893,10 @@
         <v>0.435014539233967</v>
       </c>
       <c r="O356">
-        <v>0.61572162929552</v>
+        <v>0.615721629296283</v>
       </c>
       <c r="P356">
-        <v>0.5498018827919851</v>
+        <v>0.549801882792025</v>
       </c>
     </row>
     <row r="357">
@@ -18945,10 +18945,10 @@
         <v>0.83282138833468</v>
       </c>
       <c r="O357">
-        <v>0.631204930730304</v>
+        <v>0.63120493073051</v>
       </c>
       <c r="P357">
-        <v>0.471691138808044</v>
+        <v>0.471691138808108</v>
       </c>
     </row>
     <row r="358">
@@ -18997,10 +18997,10 @@
         <v>0.390998640984515</v>
       </c>
       <c r="O358">
-        <v>0.592534982983411</v>
+        <v>0.59253498298547</v>
       </c>
       <c r="P358">
-        <v>0.659390266473605</v>
+        <v>0.659390266473591</v>
       </c>
     </row>
     <row r="359">
@@ -19049,10 +19049,10 @@
         <v>0.279952756130706</v>
       </c>
       <c r="O359">
-        <v>0.619146981738517</v>
+        <v>0.619146981739593</v>
       </c>
       <c r="P359">
-        <v>0.545324347527447</v>
+        <v>0.5453243475274689</v>
       </c>
     </row>
     <row r="360">
@@ -19101,10 +19101,10 @@
         <v>0.286521269235516</v>
       </c>
       <c r="O360">
-        <v>0.599544672118879</v>
+        <v>0.599544672119513</v>
       </c>
       <c r="P360">
-        <v>0.552530277878119</v>
+        <v>0.552530277878146</v>
       </c>
     </row>
     <row r="361">
@@ -19153,10 +19153,10 @@
         <v>0.805192578720956</v>
       </c>
       <c r="O361">
-        <v>0.602079966992902</v>
+        <v>0.602079966992913</v>
       </c>
       <c r="P361">
-        <v>0.491985010038834</v>
+        <v>0.49198501003882</v>
       </c>
     </row>
     <row r="362">
@@ -19205,10 +19205,10 @@
         <v>0.508897569974192</v>
       </c>
       <c r="O362">
-        <v>0.610610068823028</v>
+        <v>0.6106100688239799</v>
       </c>
       <c r="P362">
-        <v>0.467517220476556</v>
+        <v>0.467517220476539</v>
       </c>
     </row>
     <row r="363">
@@ -19257,10 +19257,10 @@
         <v>0.974303490214117</v>
       </c>
       <c r="O363">
-        <v>0.607734300929894</v>
+        <v>0.607734300929994</v>
       </c>
       <c r="P363">
-        <v>0.512050532352313</v>
+        <v>0.512050532352383</v>
       </c>
     </row>
     <row r="364">
@@ -19309,10 +19309,10 @@
         <v>0.54839390814065</v>
       </c>
       <c r="O364">
-        <v>0.6125887122077071</v>
+        <v>0.612588712208233</v>
       </c>
       <c r="P364">
-        <v>0.415802334544805</v>
+        <v>0.415802334544825</v>
       </c>
     </row>
     <row r="365">
@@ -19361,10 +19361,10 @@
         <v>0.402553180996254</v>
       </c>
       <c r="O365">
-        <v>0.5994399524134</v>
+        <v>0.599439952413635</v>
       </c>
       <c r="P365">
-        <v>0.256290057482632</v>
+        <v>0.256290057482613</v>
       </c>
     </row>
     <row r="366">
@@ -19413,10 +19413,10 @@
         <v>0.416092124146348</v>
       </c>
       <c r="O366">
-        <v>0.610180321636593</v>
+        <v>0.610180321635825</v>
       </c>
       <c r="P366">
-        <v>0.605361712474741</v>
+        <v>0.605361712474683</v>
       </c>
     </row>
     <row r="367">
@@ -19465,10 +19465,10 @@
         <v>0.219257863791688</v>
       </c>
       <c r="O367">
-        <v>0.596559509119042</v>
+        <v>0.596559509119549</v>
       </c>
       <c r="P367">
-        <v>0.154892183692263</v>
+        <v>0.154892183692265</v>
       </c>
     </row>
     <row r="368">
@@ -19511,16 +19511,16 @@
         <v>0.28471777861139</v>
       </c>
       <c r="M368">
-        <v>0.5685567952831721</v>
+        <v>0.568556795283172</v>
       </c>
       <c r="N368">
         <v>0.291989346793458</v>
       </c>
       <c r="O368">
-        <v>0.591619921768987</v>
+        <v>0.591619921768995</v>
       </c>
       <c r="P368">
-        <v>0.624139303056815</v>
+        <v>0.62413930305679</v>
       </c>
     </row>
     <row r="369">
@@ -19536,7 +19536,7 @@
         <v>0.212344345669321</v>
       </c>
       <c r="D369">
-        <v>0.574410083355192</v>
+        <v>0.5744100833551919</v>
       </c>
       <c r="E369">
         <v>0.288064967078871</v>
@@ -19569,10 +19569,10 @@
         <v>0.351898281311524</v>
       </c>
       <c r="O369">
-        <v>0.617834236760462</v>
+        <v>0.617834236760885</v>
       </c>
       <c r="P369">
-        <v>0.488519920007339</v>
+        <v>0.488519920007344</v>
       </c>
     </row>
     <row r="370">
@@ -19621,10 +19621,10 @@
         <v>0.440134112487013</v>
       </c>
       <c r="O370">
-        <v>0.6247096311292341</v>
+        <v>0.624709631129495</v>
       </c>
       <c r="P370">
-        <v>0.595617628271676</v>
+        <v>0.595617628271662</v>
       </c>
     </row>
     <row r="371">
@@ -19673,10 +19673,10 @@
         <v>0.498579086034423</v>
       </c>
       <c r="O371">
-        <v>0.605671241884295</v>
+        <v>0.605671241884341</v>
       </c>
       <c r="P371">
-        <v>0.473069081947044</v>
+        <v>0.473069081947067</v>
       </c>
     </row>
     <row r="372">
@@ -19725,10 +19725,10 @@
         <v>0.565860458007451</v>
       </c>
       <c r="O372">
-        <v>0.614029715220629</v>
+        <v>0.6140297152201351</v>
       </c>
       <c r="P372">
-        <v>0.368164086068938</v>
+        <v>0.368164086069015</v>
       </c>
     </row>
     <row r="373">
@@ -19777,10 +19777,10 @@
         <v>0.659055645553248</v>
       </c>
       <c r="O373">
-        <v>0.585999893110207</v>
+        <v>0.5859998931095221</v>
       </c>
       <c r="P373">
-        <v>0.619087378043043</v>
+        <v>0.619087378042941</v>
       </c>
     </row>
     <row r="374">
@@ -19829,10 +19829,10 @@
         <v>0.466800298408614</v>
       </c>
       <c r="O374">
-        <v>0.617766090822215</v>
+        <v>0.6177660908229879</v>
       </c>
       <c r="P374">
-        <v>0.549513656614429</v>
+        <v>0.549513656614412</v>
       </c>
     </row>
     <row r="375">
@@ -19881,10 +19881,10 @@
         <v>0.507096069116122</v>
       </c>
       <c r="O375">
-        <v>0.616782042129689</v>
+        <v>0.616782042129852</v>
       </c>
       <c r="P375">
-        <v>0.465904575432679</v>
+        <v>0.465904575432663</v>
       </c>
     </row>
     <row r="376">
@@ -19933,10 +19933,10 @@
         <v>1</v>
       </c>
       <c r="O376">
-        <v>0.607323591008436</v>
+        <v>0.607323591008444</v>
       </c>
       <c r="P376">
-        <v>0.331017231980456</v>
+        <v>0.331017231980459</v>
       </c>
     </row>
     <row r="377">
@@ -19985,10 +19985,10 @@
         <v>1</v>
       </c>
       <c r="O377">
-        <v>0.603679679250231</v>
+        <v>0.603679679250517</v>
       </c>
       <c r="P377">
-        <v>0.40629312834763</v>
+        <v>0.406293128347653</v>
       </c>
     </row>
     <row r="378">
@@ -20037,10 +20037,10 @@
         <v>0.668088833589173</v>
       </c>
       <c r="O378">
-        <v>0.61020559258541</v>
+        <v>0.610205592584756</v>
       </c>
       <c r="P378">
-        <v>0.756463426567334</v>
+        <v>0.756463426567241</v>
       </c>
     </row>
     <row r="379">
@@ -20089,10 +20089,10 @@
         <v>0.381724827515174</v>
       </c>
       <c r="O379">
-        <v>0.601954191748744</v>
+        <v>0.601954191749241</v>
       </c>
       <c r="P379">
-        <v>0.539092772022584</v>
+        <v>0.5390927720226369</v>
       </c>
     </row>
     <row r="380">
@@ -20141,10 +20141,10 @@
         <v>0.846021970475533</v>
       </c>
       <c r="O380">
-        <v>0.604561474187318</v>
+        <v>0.60456147418689</v>
       </c>
       <c r="P380">
-        <v>0.567606300395229</v>
+        <v>0.567606300395215</v>
       </c>
     </row>
     <row r="381">
@@ -20193,10 +20193,10 @@
         <v>0.246294617737082</v>
       </c>
       <c r="O381">
-        <v>0.6111773670226101</v>
+        <v>0.611177367024947</v>
       </c>
       <c r="P381">
-        <v>0.472852732742304</v>
+        <v>0.472852732742336</v>
       </c>
     </row>
     <row r="382">
@@ -20245,10 +20245,10 @@
         <v>0.32319909977871</v>
       </c>
       <c r="O382">
-        <v>0.622694884099734</v>
+        <v>0.622694884100962</v>
       </c>
       <c r="P382">
-        <v>0.440931887807672</v>
+        <v>0.440931887807687</v>
       </c>
     </row>
     <row r="383">
@@ -20285,7 +20285,7 @@
         <v>0.233520660498834</v>
       </c>
       <c r="K383">
-        <v>0.7625397783856081</v>
+        <v>0.762539778385608</v>
       </c>
       <c r="L383">
         <v>0.342728355831242</v>
@@ -20297,10 +20297,10 @@
         <v>0.425412289976685</v>
       </c>
       <c r="O383">
-        <v>0.600299982844219</v>
+        <v>0.6002999828441899</v>
       </c>
       <c r="P383">
-        <v>0.354002898711887</v>
+        <v>0.354002898711902</v>
       </c>
     </row>
     <row r="384">
@@ -20316,7 +20316,7 @@
         <v>0.395420450845894</v>
       </c>
       <c r="D384">
-        <v>0.09737397610787101</v>
+        <v>0.097373976107871</v>
       </c>
       <c r="E384">
         <v>0.370844267955305</v>
@@ -20349,10 +20349,10 @@
         <v>0.272082799500668</v>
       </c>
       <c r="O384">
-        <v>0.611811431328364</v>
+        <v>0.611811431328659</v>
       </c>
       <c r="P384">
-        <v>0.486789651881348</v>
+        <v>0.486789651881336</v>
       </c>
     </row>
     <row r="385">
@@ -20368,10 +20368,10 @@
         <v>0.278763829658835</v>
       </c>
       <c r="D385">
-        <v>0.84091579559793</v>
+        <v>0.8409157955979299</v>
       </c>
       <c r="E385">
-        <v>0.568461897041521</v>
+        <v>0.5684618970415209</v>
       </c>
       <c r="F385">
         <v>1</v>
@@ -20401,10 +20401,10 @@
         <v>0.523508295078462</v>
       </c>
       <c r="O385">
-        <v>0.612734399471299</v>
+        <v>0.612734399471305</v>
       </c>
       <c r="P385">
-        <v>0.41675203433441</v>
+        <v>0.416752034334368</v>
       </c>
     </row>
     <row r="386">
@@ -20453,7 +20453,7 @@
         <v>0.38864610337124</v>
       </c>
       <c r="O386">
-        <v>0.627368702930566</v>
+        <v>0.627368702930608</v>
       </c>
       <c r="P386">
         <v>0.628941903770362</v>
@@ -20505,10 +20505,10 @@
         <v>0.446708853202188</v>
       </c>
       <c r="O387">
-        <v>0.610610562651066</v>
+        <v>0.610610562651391</v>
       </c>
       <c r="P387">
-        <v>0.559654009080476</v>
+        <v>0.559654009080482</v>
       </c>
     </row>
     <row r="388">
@@ -20524,7 +20524,7 @@
         <v>0.194938224058908</v>
       </c>
       <c r="D388">
-        <v>0.7798944556230421</v>
+        <v>0.779894455623042</v>
       </c>
       <c r="E388">
         <v>0.322616108239977</v>
@@ -20557,10 +20557,10 @@
         <v>1</v>
       </c>
       <c r="O388">
-        <v>0.6014395840979681</v>
+        <v>0.601439584098465</v>
       </c>
       <c r="P388">
-        <v>0.6697773346872961</v>
+        <v>0.66977733468737</v>
       </c>
     </row>
     <row r="389">
@@ -20609,10 +20609,10 @@
         <v>0.549202282371661</v>
       </c>
       <c r="O389">
-        <v>0.597980096708432</v>
+        <v>0.597980096707758</v>
       </c>
       <c r="P389">
-        <v>0.641709690563414</v>
+        <v>0.641709690563385</v>
       </c>
     </row>
     <row r="390">
@@ -20661,10 +20661,10 @@
         <v>1</v>
       </c>
       <c r="O390">
-        <v>0.606745631263255</v>
+        <v>0.606745631263402</v>
       </c>
       <c r="P390">
-        <v>0.515774054200893</v>
+        <v>0.5157740542009061</v>
       </c>
     </row>
     <row r="391">
@@ -20713,10 +20713,10 @@
         <v>0.298169512443556</v>
       </c>
       <c r="O391">
-        <v>0.60232469408983</v>
+        <v>0.602324694090548</v>
       </c>
       <c r="P391">
-        <v>0.477290649262427</v>
+        <v>0.477290649262421</v>
       </c>
     </row>
     <row r="392">
@@ -20765,10 +20765,10 @@
         <v>0.393554391126064</v>
       </c>
       <c r="O392">
-        <v>0.602176129145357</v>
+        <v>0.602176129146155</v>
       </c>
       <c r="P392">
-        <v>0.461166086410058</v>
+        <v>0.461166086410105</v>
       </c>
     </row>
     <row r="393">
@@ -20817,10 +20817,10 @@
         <v>0.912255337672528</v>
       </c>
       <c r="O393">
-        <v>0.612827195186524</v>
+        <v>0.612827195186921</v>
       </c>
       <c r="P393">
-        <v>0.411861141508846</v>
+        <v>0.411861141508814</v>
       </c>
     </row>
     <row r="394">
@@ -20851,13 +20851,13 @@
         <v>0.338515769310309</v>
       </c>
       <c r="I394">
-        <v>0.9417796936535841</v>
+        <v>0.941779693653584</v>
       </c>
       <c r="J394">
         <v>1</v>
       </c>
       <c r="K394">
-        <v>0.6102138202549911</v>
+        <v>0.610213820254991</v>
       </c>
       <c r="L394">
         <v>0.385679638162873</v>
@@ -20869,10 +20869,10 @@
         <v>0.762050512410096</v>
       </c>
       <c r="O394">
-        <v>0.589939621810285</v>
+        <v>0.589939621810662</v>
       </c>
       <c r="P394">
-        <v>0.558422930439883</v>
+        <v>0.558422930439924</v>
       </c>
     </row>
     <row r="395">
@@ -20921,10 +20921,10 @@
         <v>0.340384955104483</v>
       </c>
       <c r="O395">
-        <v>0.618391750568931</v>
+        <v>0.618391750569762</v>
       </c>
       <c r="P395">
-        <v>0.424306096064638</v>
+        <v>0.424306096064667</v>
       </c>
     </row>
     <row r="396">
@@ -20973,10 +20973,10 @@
         <v>0.365606149203894</v>
       </c>
       <c r="O396">
-        <v>0.590821562867194</v>
+        <v>0.590821562866683</v>
       </c>
       <c r="P396">
-        <v>0.451096414744486</v>
+        <v>0.451096414744478</v>
       </c>
     </row>
     <row r="397">
@@ -21025,10 +21025,10 @@
         <v>0.594475793575677</v>
       </c>
       <c r="O397">
-        <v>0.599754130983732</v>
+        <v>0.599754130983719</v>
       </c>
       <c r="P397">
-        <v>0.417832515574572</v>
+        <v>0.41783251557447</v>
       </c>
     </row>
     <row r="398">
@@ -21062,7 +21062,7 @@
         <v>0.55449834188694</v>
       </c>
       <c r="J398">
-        <v>0.5802960447689221</v>
+        <v>0.580296044768922</v>
       </c>
       <c r="K398">
         <v>0.5519968757140989</v>
@@ -21077,10 +21077,10 @@
         <v>0.338131086705509</v>
       </c>
       <c r="O398">
-        <v>0.600200908173301</v>
+        <v>0.6002009081719309</v>
       </c>
       <c r="P398">
-        <v>0.499597197200448</v>
+        <v>0.499597197200391</v>
       </c>
     </row>
     <row r="399">
@@ -21123,16 +21123,16 @@
         <v>0.198939246230288</v>
       </c>
       <c r="M399">
-        <v>0.08046647830884531</v>
+        <v>0.0804664783088453</v>
       </c>
       <c r="N399">
         <v>0.345951851764658</v>
       </c>
       <c r="O399">
-        <v>0.602903799537781</v>
+        <v>0.60290379953798</v>
       </c>
       <c r="P399">
-        <v>0.386224881416643</v>
+        <v>0.386224881416627</v>
       </c>
     </row>
     <row r="400">
@@ -21233,7 +21233,7 @@
         <v>0.432556750864495</v>
       </c>
       <c r="O401">
-        <v>0.6034849941423141</v>
+        <v>0.603484994142314</v>
       </c>
       <c r="P401">
         <v>0.524113028363371</v>
@@ -21392,7 +21392,7 @@
         <v>0.661461489493503</v>
       </c>
       <c r="P404">
-        <v>0.6090538271431411</v>
+        <v>0.609053827143141</v>
       </c>
     </row>
     <row r="405">
@@ -21943,7 +21943,7 @@
         <v>0.44581223697537</v>
       </c>
       <c r="I415">
-        <v>0.5193369993785481</v>
+        <v>0.519336999378548</v>
       </c>
       <c r="J415">
         <v>0.445531154514717</v>
@@ -22016,7 +22016,7 @@
         <v>0.668854753909732</v>
       </c>
       <c r="P416">
-        <v>0.6500488651419401</v>
+        <v>0.65004886514194</v>
       </c>
     </row>
     <row r="417">
@@ -22221,7 +22221,7 @@
         <v>0.285471187427668</v>
       </c>
       <c r="O420">
-        <v>0.5163251920443041</v>
+        <v>0.516325192044304</v>
       </c>
       <c r="P420">
         <v>0.480477566256655</v>
@@ -22328,7 +22328,7 @@
         <v>0.625763308165349</v>
       </c>
       <c r="P422">
-        <v>0.5439700835295031</v>
+        <v>0.543970083529503</v>
       </c>
     </row>
     <row r="423">
@@ -22429,7 +22429,7 @@
         <v>0.40350330513439</v>
       </c>
       <c r="O424">
-        <v>0.659322257174419</v>
+        <v>0.6593222571744189</v>
       </c>
       <c r="P424">
         <v>0.495376316390571</v>
@@ -22463,7 +22463,7 @@
         <v>0.363589643209059</v>
       </c>
       <c r="I425">
-        <v>0.571383823278863</v>
+        <v>0.5713838232788629</v>
       </c>
       <c r="J425">
         <v>0.401096558199467</v>
@@ -22640,7 +22640,7 @@
         <v>0.579352745226725</v>
       </c>
       <c r="P428">
-        <v>0.554801759043481</v>
+        <v>0.5548017590434809</v>
       </c>
     </row>
     <row r="429">
@@ -22714,7 +22714,7 @@
         <v>0.345128692172935</v>
       </c>
       <c r="F430">
-        <v>0.5483579785973211</v>
+        <v>0.548357978597321</v>
       </c>
       <c r="G430">
         <v>0.348622437914087</v>
@@ -23096,7 +23096,7 @@
         <v>0.241956515529207</v>
       </c>
       <c r="L437">
-        <v>0.6088666490618671</v>
+        <v>0.608866649061867</v>
       </c>
       <c r="M437">
         <v>0.250804495567193</v>
@@ -23105,7 +23105,7 @@
         <v>0.390773487576302</v>
       </c>
       <c r="O437">
-        <v>0.604215388241371</v>
+        <v>0.604215388233096</v>
       </c>
       <c r="P437">
         <v>0.656492973843803</v>
@@ -23124,7 +23124,7 @@
         <v>0.290906222980438</v>
       </c>
       <c r="D438">
-        <v>0.595421661993702</v>
+        <v>0.5954216619937019</v>
       </c>
       <c r="E438">
         <v>0.165219227317738</v>
@@ -23157,7 +23157,7 @@
         <v>0.317093322637951</v>
       </c>
       <c r="O438">
-        <v>0.617970188240247</v>
+        <v>0.6179701882408239</v>
       </c>
       <c r="P438">
         <v>0.0956716070986358</v>
@@ -23209,7 +23209,7 @@
         <v>0.414546215626777</v>
       </c>
       <c r="O439">
-        <v>0.607110989128259</v>
+        <v>0.607110989127794</v>
       </c>
       <c r="P439">
         <v>0.656103700213573</v>
@@ -23261,10 +23261,10 @@
         <v>0.517654014558817</v>
       </c>
       <c r="O440">
-        <v>0.592912209470402</v>
+        <v>0.592912209470303</v>
       </c>
       <c r="P440">
-        <v>0.439416346476204</v>
+        <v>0.439416346476205</v>
       </c>
     </row>
     <row r="441">
@@ -23313,10 +23313,10 @@
         <v>0.384323026299189</v>
       </c>
       <c r="O441">
-        <v>0.614006880964184</v>
+        <v>0.614006880956903</v>
       </c>
       <c r="P441">
-        <v>0.758281555015129</v>
+        <v>0.758281555015123</v>
       </c>
     </row>
     <row r="442">
@@ -23365,10 +23365,10 @@
         <v>0.543568576369711</v>
       </c>
       <c r="O442">
-        <v>0.6155735023940641</v>
+        <v>0.6155735023939271</v>
       </c>
       <c r="P442">
-        <v>0.400671705275602</v>
+        <v>0.400671705275601</v>
       </c>
     </row>
     <row r="443">
@@ -23405,7 +23405,7 @@
         <v>0.410176612381923</v>
       </c>
       <c r="K443">
-        <v>0.5356356978797841</v>
+        <v>0.535635697879784</v>
       </c>
       <c r="L443">
         <v>0.51119404043785</v>
@@ -23417,10 +23417,10 @@
         <v>0.391432641473404</v>
       </c>
       <c r="O443">
-        <v>0.610384493399953</v>
+        <v>0.610384493399314</v>
       </c>
       <c r="P443">
-        <v>0.651877096203205</v>
+        <v>0.651877096203207</v>
       </c>
     </row>
     <row r="444">
@@ -23469,7 +23469,7 @@
         <v>0.564498790748324</v>
       </c>
       <c r="O444">
-        <v>0.624081490786753</v>
+        <v>0.624081490786508</v>
       </c>
       <c r="P444">
         <v>0.432079825718631</v>
@@ -23521,10 +23521,10 @@
         <v>0.420425125551084</v>
       </c>
       <c r="O445">
-        <v>0.589345115212206</v>
+        <v>0.589345115209427</v>
       </c>
       <c r="P445">
-        <v>0.829004870939641</v>
+        <v>0.829004870939642</v>
       </c>
     </row>
     <row r="446">
@@ -23573,10 +23573,10 @@
         <v>0.316859864542767</v>
       </c>
       <c r="O446">
-        <v>0.612680902595414</v>
+        <v>0.612680902594628</v>
       </c>
       <c r="P446">
-        <v>0.570637729180402</v>
+        <v>0.570637729180405</v>
       </c>
     </row>
     <row r="447">
@@ -23625,10 +23625,10 @@
         <v>0.255345958814524</v>
       </c>
       <c r="O447">
-        <v>0.594282701980638</v>
+        <v>0.594282701980486</v>
       </c>
       <c r="P447">
-        <v>0.8275773930832751</v>
+        <v>0.8275773930832721</v>
       </c>
     </row>
     <row r="448">
@@ -23677,7 +23677,7 @@
         <v>0.648989048624248</v>
       </c>
       <c r="O448">
-        <v>0.600611393484824</v>
+        <v>0.6006113934846951</v>
       </c>
       <c r="P448">
         <v>0.445220235731507</v>
@@ -23723,16 +23723,16 @@
         <v>0.344251792275348</v>
       </c>
       <c r="M449">
-        <v>0.0948612347588628</v>
+        <v>0.09486123475886279</v>
       </c>
       <c r="N449">
         <v>0.370178327533355</v>
       </c>
       <c r="O449">
-        <v>0.603984431102236</v>
+        <v>0.603984431099551</v>
       </c>
       <c r="P449">
-        <v>0.193278214189849</v>
+        <v>0.193278214189851</v>
       </c>
     </row>
     <row r="450">
@@ -23781,7 +23781,7 @@
         <v>0.951606680193168</v>
       </c>
       <c r="O450">
-        <v>0.59469333132924</v>
+        <v>0.59469333132957</v>
       </c>
       <c r="P450">
         <v>0.283798409216236</v>
@@ -23833,10 +23833,10 @@
         <v>0.781565530698775</v>
       </c>
       <c r="O451">
-        <v>0.607491777454971</v>
+        <v>0.607491777454759</v>
       </c>
       <c r="P451">
-        <v>0.272382148770061</v>
+        <v>0.27238214877006</v>
       </c>
     </row>
     <row r="452">
@@ -23882,10 +23882,10 @@
         <v>0.333180046729632</v>
       </c>
       <c r="N452">
-        <v>0.583353939122564</v>
+        <v>0.5833539391225639</v>
       </c>
       <c r="O452">
-        <v>0.595953882473203</v>
+        <v>0.595953882471845</v>
       </c>
       <c r="P452">
         <v>0.250805055995185</v>
@@ -23937,10 +23937,10 @@
         <v>0.259149699982598</v>
       </c>
       <c r="O453">
-        <v>0.601855377960679</v>
+        <v>0.601855377959906</v>
       </c>
       <c r="P453">
-        <v>0.509447542247384</v>
+        <v>0.509447542247385</v>
       </c>
     </row>
     <row r="454">
@@ -23989,7 +23989,7 @@
         <v>0.267539926065666</v>
       </c>
       <c r="O454">
-        <v>0.591588709716766</v>
+        <v>0.591588709716625</v>
       </c>
       <c r="P454">
         <v>0.170529757542549</v>
@@ -24041,10 +24041,10 @@
         <v>0.289545713824183</v>
       </c>
       <c r="O455">
-        <v>0.585518433443725</v>
+        <v>0.585518433444654</v>
       </c>
       <c r="P455">
-        <v>0.668960437198019</v>
+        <v>0.668960437198025</v>
       </c>
     </row>
     <row r="456">
@@ -24093,10 +24093,10 @@
         <v>0.362370300496381</v>
       </c>
       <c r="O456">
-        <v>0.609150458279165</v>
+        <v>0.609150458278361</v>
       </c>
       <c r="P456">
-        <v>0.471705274946896</v>
+        <v>0.471705274946891</v>
       </c>
     </row>
     <row r="457">
@@ -24145,10 +24145,10 @@
         <v>0.476650788315219</v>
       </c>
       <c r="O457">
-        <v>0.619694505037549</v>
+        <v>0.619694505036567</v>
       </c>
       <c r="P457">
-        <v>0.6595826610310021</v>
+        <v>0.659582661031002</v>
       </c>
     </row>
     <row r="458">
@@ -24197,7 +24197,7 @@
         <v>0.565398335799199</v>
       </c>
       <c r="O458">
-        <v>0.597862212644835</v>
+        <v>0.597862212644381</v>
       </c>
       <c r="P458">
         <v>0.423869949515882</v>
@@ -24249,7 +24249,7 @@
         <v>0.5693169595134741</v>
       </c>
       <c r="O459">
-        <v>0.607917499171823</v>
+        <v>0.607917499171333</v>
       </c>
       <c r="P459">
         <v>0.359171222463876</v>
@@ -24301,10 +24301,10 @@
         <v>0.539997903836241</v>
       </c>
       <c r="O460">
-        <v>0.580714432260135</v>
+        <v>0.580714432260042</v>
       </c>
       <c r="P460">
-        <v>0.500184622155612</v>
+        <v>0.50018462215561</v>
       </c>
     </row>
     <row r="461">
@@ -24353,7 +24353,7 @@
         <v>0.428120649698994</v>
       </c>
       <c r="O461">
-        <v>0.610792354431238</v>
+        <v>0.610792354431253</v>
       </c>
       <c r="P461">
         <v>0.369124391344854</v>
@@ -24405,10 +24405,10 @@
         <v>0.495606389884669</v>
       </c>
       <c r="O462">
-        <v>0.614743421860888</v>
+        <v>0.614743421860896</v>
       </c>
       <c r="P462">
-        <v>0.466922536756603</v>
+        <v>0.4669225367566</v>
       </c>
     </row>
     <row r="463">
@@ -24448,7 +24448,7 @@
         <v>0.780903961447974</v>
       </c>
       <c r="L463">
-        <v>0.6104324047711131</v>
+        <v>0.610432404771113</v>
       </c>
       <c r="M463">
         <v>0.175976158297325</v>
@@ -24457,7 +24457,7 @@
         <v>1</v>
       </c>
       <c r="O463">
-        <v>0.602234143305711</v>
+        <v>0.602234143305566</v>
       </c>
       <c r="P463">
         <v>0.293898464334075</v>
@@ -24509,10 +24509,10 @@
         <v>1</v>
       </c>
       <c r="O464">
-        <v>0.596230509831152</v>
+        <v>0.596230509829853</v>
       </c>
       <c r="P464">
-        <v>0.546792590616324</v>
+        <v>0.546792590616323</v>
       </c>
     </row>
     <row r="465">
@@ -24561,10 +24561,10 @@
         <v>0.89492659131381</v>
       </c>
       <c r="O465">
-        <v>0.606061958954415</v>
+        <v>0.606061958954333</v>
       </c>
       <c r="P465">
-        <v>0.698846281879041</v>
+        <v>0.698846281879044</v>
       </c>
     </row>
     <row r="466">
@@ -24613,7 +24613,7 @@
         <v>0.334308512655523</v>
       </c>
       <c r="O466">
-        <v>0.596602424739384</v>
+        <v>0.596602424737113</v>
       </c>
       <c r="P466">
         <v>0.575905539763613</v>
@@ -24647,7 +24647,7 @@
         <v>0.189214675637579</v>
       </c>
       <c r="I467">
-        <v>0.589898446181013</v>
+        <v>0.5898984461810129</v>
       </c>
       <c r="J467">
         <v>0.292554979789394</v>
@@ -24665,10 +24665,10 @@
         <v>0.519550352406238</v>
       </c>
       <c r="O467">
-        <v>0.60635923975117</v>
+        <v>0.606359239752192</v>
       </c>
       <c r="P467">
-        <v>0.658713993715233</v>
+        <v>0.658713993715229</v>
       </c>
     </row>
     <row r="468">
@@ -24717,10 +24717,10 @@
         <v>0.18464751215322</v>
       </c>
       <c r="O468">
-        <v>0.603997923249896</v>
+        <v>0.6039979232484251</v>
       </c>
       <c r="P468">
-        <v>0.497980730761433</v>
+        <v>0.497980730761434</v>
       </c>
     </row>
     <row r="469">
@@ -24769,10 +24769,10 @@
         <v>0.395144308235682</v>
       </c>
       <c r="O469">
-        <v>0.616147994432509</v>
+        <v>0.616147994432098</v>
       </c>
       <c r="P469">
-        <v>0.444222272297835</v>
+        <v>0.444222272297836</v>
       </c>
     </row>
     <row r="470">
@@ -24821,7 +24821,7 @@
         <v>0.391904771126563</v>
       </c>
       <c r="O470">
-        <v>0.594486395954921</v>
+        <v>0.594486395955876</v>
       </c>
       <c r="P470">
         <v>0.262718606677673</v>
@@ -24855,7 +24855,7 @@
         <v>0.433201463188032</v>
       </c>
       <c r="I471">
-        <v>0.5054562666904851</v>
+        <v>0.505456266690485</v>
       </c>
       <c r="J471">
         <v>0.476233652742182</v>
@@ -24873,7 +24873,7 @@
         <v>0.334153299489545</v>
       </c>
       <c r="O471">
-        <v>0.604989156117665</v>
+        <v>0.604989156116453</v>
       </c>
       <c r="P471">
         <v>0.351716395539127</v>
@@ -24904,7 +24904,7 @@
         <v>0.09324086756465071</v>
       </c>
       <c r="H472">
-        <v>0.5621674773827901</v>
+        <v>0.56216747738279</v>
       </c>
       <c r="I472">
         <v>0.506266967900581</v>
@@ -24925,7 +24925,7 @@
         <v>0.360199426182398</v>
       </c>
       <c r="O472">
-        <v>0.60794222412207</v>
+        <v>0.607942224121878</v>
       </c>
       <c r="P472">
         <v>0.462631057135932</v>
@@ -24977,7 +24977,7 @@
         <v>0.302001432660511</v>
       </c>
       <c r="O473">
-        <v>0.622750982885577</v>
+        <v>0.622750982885429</v>
       </c>
       <c r="P473">
         <v>0.657068355711271</v>
@@ -25029,7 +25029,7 @@
         <v>0.41508912408235</v>
       </c>
       <c r="O474">
-        <v>0.602788967519947</v>
+        <v>0.6027889675192259</v>
       </c>
       <c r="P474">
         <v>0.578507380333986</v>
@@ -25081,7 +25081,7 @@
         <v>1</v>
       </c>
       <c r="O475">
-        <v>0.5968530678516391</v>
+        <v>0.596853067851735</v>
       </c>
       <c r="P475">
         <v>0.707981356267309</v>
@@ -25133,7 +25133,7 @@
         <v>0.474966593979601</v>
       </c>
       <c r="O476">
-        <v>0.592862103320284</v>
+        <v>0.592862103320581</v>
       </c>
       <c r="P476">
         <v>0.527138632701585</v>
@@ -25185,7 +25185,7 @@
         <v>1</v>
       </c>
       <c r="O477">
-        <v>0.600524943931099</v>
+        <v>0.600524943930425</v>
       </c>
       <c r="P477">
         <v>0.329747916996411</v>
@@ -25237,10 +25237,10 @@
         <v>0.35210061971183</v>
       </c>
       <c r="O478">
-        <v>0.59553044055349</v>
+        <v>0.595530440552248</v>
       </c>
       <c r="P478">
-        <v>0.498896308967188</v>
+        <v>0.498896308967189</v>
       </c>
     </row>
     <row r="479">
@@ -25289,7 +25289,7 @@
         <v>0.22251640637843</v>
       </c>
       <c r="O479">
-        <v>0.598157251672874</v>
+        <v>0.598157251671245</v>
       </c>
       <c r="P479">
         <v>0.404325878038258</v>
@@ -25341,7 +25341,7 @@
         <v>0.756108557106178</v>
       </c>
       <c r="O480">
-        <v>0.6096232544761771</v>
+        <v>0.609623254475858</v>
       </c>
       <c r="P480">
         <v>0.454568252937123</v>
@@ -25378,7 +25378,7 @@
         <v>0.8276523881951811</v>
       </c>
       <c r="J481">
-        <v>0.557083726903497</v>
+        <v>0.5570837269034969</v>
       </c>
       <c r="K481">
         <v>0.625212097891202</v>
@@ -25393,10 +25393,10 @@
         <v>1</v>
       </c>
       <c r="O481">
-        <v>0.579992375750888</v>
+        <v>0.579992375750952</v>
       </c>
       <c r="P481">
-        <v>0.603298369153694</v>
+        <v>0.6032983691536929</v>
       </c>
     </row>
     <row r="482">
@@ -25445,10 +25445,10 @@
         <v>0.361732355965645</v>
       </c>
       <c r="O482">
-        <v>0.6120252304717551</v>
+        <v>0.612025230470043</v>
       </c>
       <c r="P482">
-        <v>0.481827326497155</v>
+        <v>0.481827326497152</v>
       </c>
     </row>
     <row r="483">
@@ -25491,13 +25491,13 @@
         <v>0.440691651799394</v>
       </c>
       <c r="M483">
-        <v>0.550995298544872</v>
+        <v>0.5509952985448719</v>
       </c>
       <c r="N483">
         <v>0.28426210483376</v>
       </c>
       <c r="O483">
-        <v>0.584295601252806</v>
+        <v>0.584295601251908</v>
       </c>
       <c r="P483">
         <v>0.476706970977296</v>
@@ -25549,10 +25549,10 @@
         <v>0.402903026224435</v>
       </c>
       <c r="O484">
-        <v>0.593609521384617</v>
+        <v>0.593609521384585</v>
       </c>
       <c r="P484">
-        <v>0.497685952857162</v>
+        <v>0.497685952857163</v>
       </c>
     </row>
     <row r="485">
@@ -25601,10 +25601,10 @@
         <v>0.390334708402126</v>
       </c>
       <c r="O485">
-        <v>0.595944378249145</v>
+        <v>0.595944378248888</v>
       </c>
       <c r="P485">
-        <v>0.415244387422766</v>
+        <v>0.415244387422764</v>
       </c>
     </row>
     <row r="486">
@@ -25653,7 +25653,7 @@
         <v>0.186625757419929</v>
       </c>
       <c r="O486">
-        <v>0.5950461255656621</v>
+        <v>0.5950461255662191</v>
       </c>
       <c r="P486">
         <v>0.414216067943672</v>
@@ -26381,7 +26381,7 @@
         <v>0.3955687698759</v>
       </c>
       <c r="O500">
-        <v>0.5832755931952151</v>
+        <v>0.583275593195215</v>
       </c>
       <c r="P500">
         <v>0.516244014728518</v>
@@ -26614,7 +26614,7 @@
         <v>0.360644610290824</v>
       </c>
       <c r="F505">
-        <v>0.7305483292867731</v>
+        <v>0.730548329286773</v>
       </c>
       <c r="G505">
         <v>0.298716560344997</v>
@@ -26693,7 +26693,7 @@
         <v>0.243457580944985</v>
       </c>
       <c r="O506">
-        <v>0.630020125260979</v>
+        <v>0.6300201252609789</v>
       </c>
       <c r="P506">
         <v>0.767537548508288</v>
@@ -26852,7 +26852,7 @@
         <v>0.623028952675159</v>
       </c>
       <c r="P509">
-        <v>0.530738168461166</v>
+        <v>0.5307381684611659</v>
       </c>
     </row>
     <row r="510">
@@ -27008,7 +27008,7 @@
         <v>0.721109666414359</v>
       </c>
       <c r="P512">
-        <v>0.605128647738776</v>
+        <v>0.6051286477387759</v>
       </c>
     </row>
     <row r="513">
@@ -27216,7 +27216,7 @@
         <v>0.587303611887809</v>
       </c>
       <c r="P516">
-        <v>0.5327455759858371</v>
+        <v>0.532745575985837</v>
       </c>
     </row>
     <row r="517">
@@ -27629,10 +27629,10 @@
         <v>0.456283506062668</v>
       </c>
       <c r="O524">
-        <v>0.601504114863213</v>
+        <v>0.601504114604961</v>
       </c>
       <c r="P524">
-        <v>0.503298931400484</v>
+        <v>0.503298931400482</v>
       </c>
     </row>
     <row r="525">
@@ -27681,7 +27681,7 @@
         <v>0.345591633398385</v>
       </c>
       <c r="O525">
-        <v>0.61562981392314</v>
+        <v>0.615629813925876</v>
       </c>
       <c r="P525">
         <v>0.10771333849509</v>
@@ -27733,10 +27733,10 @@
         <v>0.496721852302111</v>
       </c>
       <c r="O526">
-        <v>0.604676968162934</v>
+        <v>0.604676968162972</v>
       </c>
       <c r="P526">
-        <v>0.586575733752578</v>
+        <v>0.586575733752575</v>
       </c>
     </row>
     <row r="527">
@@ -27785,10 +27785,10 @@
         <v>0.537712128609824</v>
       </c>
       <c r="O527">
-        <v>0.590072248440179</v>
+        <v>0.590072248444007</v>
       </c>
       <c r="P527">
-        <v>0.417040408290412</v>
+        <v>0.417040408290411</v>
       </c>
     </row>
     <row r="528">
@@ -27837,10 +27837,10 @@
         <v>0.415628776636416</v>
       </c>
       <c r="O528">
-        <v>0.609655596382565</v>
+        <v>0.609655596368971</v>
       </c>
       <c r="P528">
-        <v>0.726118785548073</v>
+        <v>0.726118785548071</v>
       </c>
     </row>
     <row r="529">
@@ -27886,13 +27886,13 @@
         <v>0.561897473167929</v>
       </c>
       <c r="N529">
-        <v>0.6196787984814151</v>
+        <v>0.619678798481415</v>
       </c>
       <c r="O529">
-        <v>0.612671290783155</v>
+        <v>0.612671290787038</v>
       </c>
       <c r="P529">
-        <v>0.369755926173187</v>
+        <v>0.369755926173188</v>
       </c>
     </row>
     <row r="530">
@@ -27941,10 +27941,10 @@
         <v>0.43299455998158</v>
       </c>
       <c r="O530">
-        <v>0.609643686524437</v>
+        <v>0.60964368652565</v>
       </c>
       <c r="P530">
-        <v>0.603619315396533</v>
+        <v>0.60361931539653</v>
       </c>
     </row>
     <row r="531">
@@ -27960,7 +27960,7 @@
         <v>0.36302019806398</v>
       </c>
       <c r="D531">
-        <v>0.7455408038502041</v>
+        <v>0.745540803850204</v>
       </c>
       <c r="E531">
         <v>0.609702205380981</v>
@@ -27993,7 +27993,7 @@
         <v>0.519815351890499</v>
       </c>
       <c r="O531">
-        <v>0.622313072809896</v>
+        <v>0.622313072809386</v>
       </c>
       <c r="P531">
         <v>0.341140676493036</v>
@@ -28045,10 +28045,10 @@
         <v>0.454648745336145</v>
       </c>
       <c r="O532">
-        <v>0.586301325761055</v>
+        <v>0.586301325748677</v>
       </c>
       <c r="P532">
-        <v>0.852309682010163</v>
+        <v>0.852309682010161</v>
       </c>
     </row>
     <row r="533">
@@ -28097,10 +28097,10 @@
         <v>0.31542177584447</v>
       </c>
       <c r="O533">
-        <v>0.607938194648486</v>
+        <v>0.607938194636265</v>
       </c>
       <c r="P533">
-        <v>0.488319409563218</v>
+        <v>0.488319409563217</v>
       </c>
     </row>
     <row r="534">
@@ -28149,10 +28149,10 @@
         <v>0.258688075459667</v>
       </c>
       <c r="O534">
-        <v>0.5897600262646831</v>
+        <v>0.589760026265608</v>
       </c>
       <c r="P534">
-        <v>0.853585586419004</v>
+        <v>0.853585586418999</v>
       </c>
     </row>
     <row r="535">
@@ -28201,10 +28201,10 @@
         <v>0.691686162792327</v>
       </c>
       <c r="O535">
-        <v>0.603060169507362</v>
+        <v>0.603060169510226</v>
       </c>
       <c r="P535">
-        <v>0.458429389726533</v>
+        <v>0.458429389726536</v>
       </c>
     </row>
     <row r="536">
@@ -28253,10 +28253,10 @@
         <v>0.417820254352725</v>
       </c>
       <c r="O536">
-        <v>0.60171843428155</v>
+        <v>0.601718434283721</v>
       </c>
       <c r="P536">
-        <v>0.280550456325547</v>
+        <v>0.280550456325549</v>
       </c>
     </row>
     <row r="537">
@@ -28305,7 +28305,7 @@
         <v>0.881636784824819</v>
       </c>
       <c r="O537">
-        <v>0.593689182835825</v>
+        <v>0.593689182847509</v>
       </c>
       <c r="P537">
         <v>0.322398172801201</v>
@@ -28357,7 +28357,7 @@
         <v>0.821129163526261</v>
       </c>
       <c r="O538">
-        <v>0.604302264546323</v>
+        <v>0.604302264551165</v>
       </c>
       <c r="P538">
         <v>0.266603947088855</v>
@@ -28409,10 +28409,10 @@
         <v>0.732204974758342</v>
       </c>
       <c r="O539">
-        <v>0.5954625044334651</v>
+        <v>0.595462504438395</v>
       </c>
       <c r="P539">
-        <v>0.196363563006236</v>
+        <v>0.196363563006234</v>
       </c>
     </row>
     <row r="540">
@@ -28461,10 +28461,10 @@
         <v>0.25411402916142</v>
       </c>
       <c r="O540">
-        <v>0.599285521201763</v>
+        <v>0.59928552120915</v>
       </c>
       <c r="P540">
-        <v>0.543442700256178</v>
+        <v>0.543442700256179</v>
       </c>
     </row>
     <row r="541">
@@ -28513,7 +28513,7 @@
         <v>0.254991697029274</v>
       </c>
       <c r="O541">
-        <v>0.5863202475134181</v>
+        <v>0.586320247520247</v>
       </c>
       <c r="P541">
         <v>0.168460842504001</v>
@@ -28565,7 +28565,7 @@
         <v>0.306209949984372</v>
       </c>
       <c r="O542">
-        <v>0.581878093225205</v>
+        <v>0.581878093228784</v>
       </c>
       <c r="P542">
         <v>0.748386556823384</v>
@@ -28617,10 +28617,10 @@
         <v>0.423947575900195</v>
       </c>
       <c r="O543">
-        <v>0.606830598940769</v>
+        <v>0.60683059894778</v>
       </c>
       <c r="P543">
-        <v>0.461209303797032</v>
+        <v>0.461209303797029</v>
       </c>
     </row>
     <row r="544">
@@ -28669,10 +28669,10 @@
         <v>0.549760851282986</v>
       </c>
       <c r="O544">
-        <v>0.6175984843396321</v>
+        <v>0.617598484355</v>
       </c>
       <c r="P544">
-        <v>0.796445845220786</v>
+        <v>0.796445845220793</v>
       </c>
     </row>
     <row r="545">
@@ -28718,13 +28718,13 @@
         <v>0.305861091127858</v>
       </c>
       <c r="N545">
-        <v>0.5240626136778031</v>
+        <v>0.524062613677803</v>
       </c>
       <c r="O545">
-        <v>0.59559376992807</v>
+        <v>0.595593769949032</v>
       </c>
       <c r="P545">
-        <v>0.487842412965837</v>
+        <v>0.487842412965835</v>
       </c>
     </row>
     <row r="546">
@@ -28743,7 +28743,7 @@
         <v>0.246261807705429</v>
       </c>
       <c r="E546">
-        <v>0.555783887846166</v>
+        <v>0.5557838878461659</v>
       </c>
       <c r="F546">
         <v>0.217551594462186</v>
@@ -28761,7 +28761,7 @@
         <v>0.439306961252816</v>
       </c>
       <c r="K546">
-        <v>0.5025502485890681</v>
+        <v>0.502550248589068</v>
       </c>
       <c r="L546">
         <v>0.46086933426735</v>
@@ -28773,7 +28773,7 @@
         <v>0.521062389689904</v>
       </c>
       <c r="O546">
-        <v>0.604799463429614</v>
+        <v>0.604799463440954</v>
       </c>
       <c r="P546">
         <v>0.383816553003806</v>
@@ -28825,10 +28825,10 @@
         <v>0.519353814714959</v>
       </c>
       <c r="O547">
-        <v>0.578254234008647</v>
+        <v>0.578254234011934</v>
       </c>
       <c r="P547">
-        <v>0.336489603084158</v>
+        <v>0.336489603084159</v>
       </c>
     </row>
     <row r="548">
@@ -28877,10 +28877,10 @@
         <v>0.417050234663134</v>
       </c>
       <c r="O548">
-        <v>0.609726115085596</v>
+        <v>0.609726115093662</v>
       </c>
       <c r="P548">
-        <v>0.397026743937837</v>
+        <v>0.397026743937839</v>
       </c>
     </row>
     <row r="549">
@@ -28923,16 +28923,16 @@
         <v>0.239064618370128</v>
       </c>
       <c r="M549">
-        <v>0.0952809371115444</v>
+        <v>0.09528093711154439</v>
       </c>
       <c r="N549">
         <v>0.602198964290569</v>
       </c>
       <c r="O549">
-        <v>0.614123531773614</v>
+        <v>0.614123531775976</v>
       </c>
       <c r="P549">
-        <v>0.344114489707927</v>
+        <v>0.344114489707926</v>
       </c>
     </row>
     <row r="550">
@@ -28981,7 +28981,7 @@
         <v>1</v>
       </c>
       <c r="O550">
-        <v>0.603130299825023</v>
+        <v>0.603130299827045</v>
       </c>
       <c r="P550">
         <v>0.229564275534475</v>
@@ -29033,7 +29033,7 @@
         <v>1</v>
       </c>
       <c r="O551">
-        <v>0.5958475477299851</v>
+        <v>0.5958475477294291</v>
       </c>
       <c r="P551">
         <v>0.570440041076723</v>
@@ -29064,13 +29064,13 @@
         <v>0.161744067107888</v>
       </c>
       <c r="H552">
-        <v>0.7133516896562711</v>
+        <v>0.713351689656271</v>
       </c>
       <c r="I552">
         <v>0.691981840169989</v>
       </c>
       <c r="J552">
-        <v>0.6827717400510081</v>
+        <v>0.682771740051008</v>
       </c>
       <c r="K552">
         <v>0.5162898664236441</v>
@@ -29079,16 +29079,16 @@
         <v>0.943186551933663</v>
       </c>
       <c r="M552">
-        <v>0.0986117737509972</v>
+        <v>0.09861177375099719</v>
       </c>
       <c r="N552">
         <v>0.965606787904728</v>
       </c>
       <c r="O552">
-        <v>0.605508402641694</v>
+        <v>0.605508402645589</v>
       </c>
       <c r="P552">
-        <v>0.7323174694635311</v>
+        <v>0.732317469463528</v>
       </c>
     </row>
     <row r="553">
@@ -29137,7 +29137,7 @@
         <v>0.375417914641544</v>
       </c>
       <c r="O553">
-        <v>0.592702472045466</v>
+        <v>0.592702472056754</v>
       </c>
       <c r="P553">
         <v>0.655644284102858</v>
@@ -29189,10 +29189,10 @@
         <v>0.529299332158547</v>
       </c>
       <c r="O554">
-        <v>0.599798856775312</v>
+        <v>0.59979885677911</v>
       </c>
       <c r="P554">
-        <v>0.544967945371141</v>
+        <v>0.544967945371139</v>
       </c>
     </row>
     <row r="555">
@@ -29241,10 +29241,10 @@
         <v>0.178033881033843</v>
       </c>
       <c r="O555">
-        <v>0.60125057658784</v>
+        <v>0.601250576583872</v>
       </c>
       <c r="P555">
-        <v>0.488841180569974</v>
+        <v>0.488841180569976</v>
       </c>
     </row>
     <row r="556">
@@ -29293,10 +29293,10 @@
         <v>0.427030352539176</v>
       </c>
       <c r="O556">
-        <v>0.613463038604917</v>
+        <v>0.61346303860411</v>
       </c>
       <c r="P556">
-        <v>0.422797341567989</v>
+        <v>0.422797341567992</v>
       </c>
     </row>
     <row r="557">
@@ -29345,10 +29345,10 @@
         <v>0.431382356430956</v>
       </c>
       <c r="O557">
-        <v>0.596034511133286</v>
+        <v>0.596034511134662</v>
       </c>
       <c r="P557">
-        <v>0.277457946770785</v>
+        <v>0.277457946770784</v>
       </c>
     </row>
     <row r="558">
@@ -29397,10 +29397,10 @@
         <v>0.337233877182467</v>
       </c>
       <c r="O558">
-        <v>0.6032928885871101</v>
+        <v>0.603292888609711</v>
       </c>
       <c r="P558">
-        <v>0.36941333482626</v>
+        <v>0.369413334826259</v>
       </c>
     </row>
     <row r="559">
@@ -29449,10 +29449,10 @@
         <v>0.38284920731377</v>
       </c>
       <c r="O559">
-        <v>0.60575803679034</v>
+        <v>0.605758036795509</v>
       </c>
       <c r="P559">
-        <v>0.358450180492698</v>
+        <v>0.358450180492699</v>
       </c>
     </row>
     <row r="560">
@@ -29501,7 +29501,7 @@
         <v>0.312581431451494</v>
       </c>
       <c r="O560">
-        <v>0.621480333974865</v>
+        <v>0.621480333983248</v>
       </c>
       <c r="P560">
         <v>0.754207927048789</v>
@@ -29553,10 +29553,10 @@
         <v>0.436644578621879</v>
       </c>
       <c r="O561">
-        <v>0.600191427696788</v>
+        <v>0.600191427728564</v>
       </c>
       <c r="P561">
-        <v>0.562176916867579</v>
+        <v>0.56217691686758</v>
       </c>
     </row>
     <row r="562">
@@ -29572,7 +29572,7 @@
         <v>0.28981964919207</v>
       </c>
       <c r="D562">
-        <v>0.8865064869823131</v>
+        <v>0.886506486982313</v>
       </c>
       <c r="E562">
         <v>0.395428609233767</v>
@@ -29605,7 +29605,7 @@
         <v>1</v>
       </c>
       <c r="O562">
-        <v>0.596036334935468</v>
+        <v>0.59603633493734</v>
       </c>
       <c r="P562">
         <v>0.759764814662094</v>
@@ -29657,7 +29657,7 @@
         <v>0.526049404566733</v>
       </c>
       <c r="O563">
-        <v>0.590712241343089</v>
+        <v>0.590712241348149</v>
       </c>
       <c r="P563">
         <v>0.515898031760285</v>
@@ -29709,10 +29709,10 @@
         <v>1</v>
       </c>
       <c r="O564">
-        <v>0.59937851801455</v>
+        <v>0.599378518015751</v>
       </c>
       <c r="P564">
-        <v>0.239607059139627</v>
+        <v>0.239607059139626</v>
       </c>
     </row>
     <row r="565">
@@ -29761,7 +29761,7 @@
         <v>0.343986521990156</v>
       </c>
       <c r="O565">
-        <v>0.593935683097183</v>
+        <v>0.593935683097962</v>
       </c>
       <c r="P565">
         <v>0.631540108683703</v>
@@ -29813,7 +29813,7 @@
         <v>0.233078298526424</v>
       </c>
       <c r="O566">
-        <v>0.596728031474006</v>
+        <v>0.596728031483554</v>
       </c>
       <c r="P566">
         <v>0.344407291014232</v>
@@ -29862,10 +29862,10 @@
         <v>0.49218929689752</v>
       </c>
       <c r="N567">
-        <v>0.7985791840245931</v>
+        <v>0.798579184024593</v>
       </c>
       <c r="O567">
-        <v>0.610109766068911</v>
+        <v>0.610109766068427</v>
       </c>
       <c r="P567">
         <v>0.369602564740731</v>
@@ -29905,7 +29905,7 @@
         <v>0.7567458099372411</v>
       </c>
       <c r="K568">
-        <v>0.6453037567305771</v>
+        <v>0.645303756730577</v>
       </c>
       <c r="L568">
         <v>0.334054537797063</v>
@@ -29917,10 +29917,10 @@
         <v>1</v>
       </c>
       <c r="O568">
-        <v>0.5774097870074481</v>
+        <v>0.577409787009563</v>
       </c>
       <c r="P568">
-        <v>0.502085879776761</v>
+        <v>0.502085879776763</v>
       </c>
     </row>
     <row r="569">
@@ -29969,10 +29969,10 @@
         <v>0.386733883848951</v>
       </c>
       <c r="O569">
-        <v>0.609978900791449</v>
+        <v>0.609978900795171</v>
       </c>
       <c r="P569">
-        <v>0.429191977815648</v>
+        <v>0.42919197781565</v>
       </c>
     </row>
     <row r="570">
@@ -30021,7 +30021,7 @@
         <v>0.325935334183106</v>
       </c>
       <c r="O570">
-        <v>0.582130681314477</v>
+        <v>0.582130681323092</v>
       </c>
       <c r="P570">
         <v>0.521715931750409</v>
@@ -30073,10 +30073,10 @@
         <v>0.569239949576446</v>
       </c>
       <c r="O571">
-        <v>0.5944945495952521</v>
+        <v>0.594494549598547</v>
       </c>
       <c r="P571">
-        <v>0.47122587290386</v>
+        <v>0.471225872903859</v>
       </c>
     </row>
     <row r="572">
@@ -30104,7 +30104,7 @@
         <v>0.332508500655533</v>
       </c>
       <c r="H572">
-        <v>0.594669750116049</v>
+        <v>0.5946697501160489</v>
       </c>
       <c r="I572">
         <v>0.641178116918702</v>
@@ -30125,10 +30125,10 @@
         <v>0.401436196219653</v>
       </c>
       <c r="O572">
-        <v>0.592966909409389</v>
+        <v>0.592966909423616</v>
       </c>
       <c r="P572">
-        <v>0.40739102177738</v>
+        <v>0.407391021777377</v>
       </c>
     </row>
     <row r="573">
@@ -30177,7 +30177,7 @@
         <v>0.196687424431517</v>
       </c>
       <c r="O573">
-        <v>0.595345443789701</v>
+        <v>0.595345443790913</v>
       </c>
       <c r="P573">
         <v>0.403886353449624</v>
@@ -30202,7 +30202,7 @@
         <v>0.442286356971706</v>
       </c>
       <c r="F574">
-        <v>0.517722559628425</v>
+        <v>0.5177225596284249</v>
       </c>
       <c r="G574">
         <v>0.343878684162927</v>
@@ -30908,7 +30908,7 @@
         <v>0.568848670933057</v>
       </c>
       <c r="P587">
-        <v>0.5075133767337891</v>
+        <v>0.507513376733789</v>
       </c>
     </row>
     <row r="588">
@@ -30957,7 +30957,7 @@
         <v>0.359557637859874</v>
       </c>
       <c r="O588">
-        <v>0.601728765688955</v>
+        <v>0.6017287656889549</v>
       </c>
       <c r="P588">
         <v>0.481943235156592</v>
@@ -31376,7 +31376,7 @@
         <v>0.621384603797649</v>
       </c>
       <c r="P596">
-        <v>0.527912814513462</v>
+        <v>0.5279128145134619</v>
       </c>
     </row>
     <row r="597">
@@ -31948,7 +31948,7 @@
         <v>0.543774445152037</v>
       </c>
       <c r="P607">
-        <v>0.5159431590371481</v>
+        <v>0.515943159037148</v>
       </c>
     </row>
     <row r="608">
@@ -32000,7 +32000,7 @@
         <v>0.583315779579492</v>
       </c>
       <c r="P608">
-        <v>0.59170584041571</v>
+        <v>0.5917058404157099</v>
       </c>
     </row>
     <row r="609">
@@ -32049,7 +32049,7 @@
         <v>0.274383241772262</v>
       </c>
       <c r="O609">
-        <v>0.6361088718724201</v>
+        <v>0.63610887187242</v>
       </c>
       <c r="P609">
         <v>0.680235244508125</v>
@@ -32153,10 +32153,10 @@
         <v>0.431569107039864</v>
       </c>
       <c r="O611">
-        <v>0.602294719417887</v>
+        <v>0.602294719417909</v>
       </c>
       <c r="P611">
-        <v>0.41645474743064</v>
+        <v>0.416454747430652</v>
       </c>
     </row>
     <row r="612">
@@ -32205,10 +32205,10 @@
         <v>0.35712310857972</v>
       </c>
       <c r="O612">
-        <v>0.61475298129464</v>
+        <v>0.61475298129463</v>
       </c>
       <c r="P612">
-        <v>0.0851865758794319</v>
+        <v>0.0851865758794372</v>
       </c>
     </row>
     <row r="613">
@@ -32251,16 +32251,16 @@
         <v>0.515533056081378</v>
       </c>
       <c r="M613">
-        <v>0.5469947628938841</v>
+        <v>0.546994762893884</v>
       </c>
       <c r="N613">
         <v>0.545047831283513</v>
       </c>
       <c r="O613">
-        <v>0.602510538000112</v>
+        <v>0.6025105380001819</v>
       </c>
       <c r="P613">
-        <v>0.602874494445678</v>
+        <v>0.602874494445636</v>
       </c>
     </row>
     <row r="614">
@@ -32309,10 +32309,10 @@
         <v>0.51323674895767</v>
       </c>
       <c r="O614">
-        <v>0.5943911642961091</v>
+        <v>0.594391164296126</v>
       </c>
       <c r="P614">
-        <v>0.414522926142534</v>
+        <v>0.414522926142523</v>
       </c>
     </row>
     <row r="615">
@@ -32361,10 +32361,10 @@
         <v>0.3924133451981</v>
       </c>
       <c r="O615">
-        <v>0.609622147325018</v>
+        <v>0.609622147325404</v>
       </c>
       <c r="P615">
-        <v>0.769220888357942</v>
+        <v>0.769220888358041</v>
       </c>
     </row>
     <row r="616">
@@ -32413,10 +32413,10 @@
         <v>0.683716275873926</v>
       </c>
       <c r="O616">
-        <v>0.613273001178872</v>
+        <v>0.613273001178913</v>
       </c>
       <c r="P616">
-        <v>0.414869567203935</v>
+        <v>0.414869567203907</v>
       </c>
     </row>
     <row r="617">
@@ -32465,10 +32465,10 @@
         <v>0.493332378750777</v>
       </c>
       <c r="O617">
-        <v>0.61063692107871</v>
+        <v>0.610636921078762</v>
       </c>
       <c r="P617">
-        <v>0.546256695506618</v>
+        <v>0.546256695506658</v>
       </c>
     </row>
     <row r="618">
@@ -32517,10 +32517,10 @@
         <v>0.535772938591816</v>
       </c>
       <c r="O618">
-        <v>0.622023088860939</v>
+        <v>0.622023088860954</v>
       </c>
       <c r="P618">
-        <v>0.315083949625325</v>
+        <v>0.315083949625338</v>
       </c>
     </row>
     <row r="619">
@@ -32569,10 +32569,10 @@
         <v>0.450379398021964</v>
       </c>
       <c r="O619">
-        <v>0.585188973775163</v>
+        <v>0.585188973775315</v>
       </c>
       <c r="P619">
-        <v>0.7631769619096021</v>
+        <v>0.763176961909717</v>
       </c>
     </row>
     <row r="620">
@@ -32621,10 +32621,10 @@
         <v>0.315184450248173</v>
       </c>
       <c r="O620">
-        <v>0.608574943423878</v>
+        <v>0.608574943423957</v>
       </c>
       <c r="P620">
-        <v>0.479807984288167</v>
+        <v>0.479807984288046</v>
       </c>
     </row>
     <row r="621">
@@ -32673,10 +32673,10 @@
         <v>0.236279701000431</v>
       </c>
       <c r="O621">
-        <v>0.5893005833410761</v>
+        <v>0.589300583341092</v>
       </c>
       <c r="P621">
-        <v>0.724754718804081</v>
+        <v>0.724754718804043</v>
       </c>
     </row>
     <row r="622">
@@ -32725,10 +32725,10 @@
         <v>0.649272418297914</v>
       </c>
       <c r="O622">
-        <v>0.604877321603174</v>
+        <v>0.604877321603194</v>
       </c>
       <c r="P622">
-        <v>0.52370324205585</v>
+        <v>0.523703242055874</v>
       </c>
     </row>
     <row r="623">
@@ -32771,16 +32771,16 @@
         <v>0.353589072034357</v>
       </c>
       <c r="M623">
-        <v>0.0779665755964943</v>
+        <v>0.07796657559649429</v>
       </c>
       <c r="N623">
         <v>0.429820877456611</v>
       </c>
       <c r="O623">
-        <v>0.602173508880517</v>
+        <v>0.60217350888064</v>
       </c>
       <c r="P623">
-        <v>0.348898811337727</v>
+        <v>0.348898811337729</v>
       </c>
     </row>
     <row r="624">
@@ -32829,10 +32829,10 @@
         <v>0.8864550551859171</v>
       </c>
       <c r="O624">
-        <v>0.602235871439663</v>
+        <v>0.602235871439781</v>
       </c>
       <c r="P624">
-        <v>0.375469083356408</v>
+        <v>0.375469083356414</v>
       </c>
     </row>
     <row r="625">
@@ -32851,7 +32851,7 @@
         <v>0.610299976903129</v>
       </c>
       <c r="E625">
-        <v>0.5382753495484201</v>
+        <v>0.53827534954842</v>
       </c>
       <c r="F625">
         <v>0.0755626307900225</v>
@@ -32881,10 +32881,10 @@
         <v>0.865035158424349</v>
       </c>
       <c r="O625">
-        <v>0.607462502532173</v>
+        <v>0.607462502532195</v>
       </c>
       <c r="P625">
-        <v>0.319208661028883</v>
+        <v>0.319208661028889</v>
       </c>
     </row>
     <row r="626">
@@ -32936,7 +32936,7 @@
         <v>0.599256334659882</v>
       </c>
       <c r="P626">
-        <v>0.226020567835916</v>
+        <v>0.226020567835939</v>
       </c>
     </row>
     <row r="627">
@@ -32958,7 +32958,7 @@
         <v>0.385832772538104</v>
       </c>
       <c r="F627">
-        <v>0.521177549898376</v>
+        <v>0.5211775498983759</v>
       </c>
       <c r="G627">
         <v>0.170653858844167</v>
@@ -32985,10 +32985,10 @@
         <v>0.284866297519505</v>
       </c>
       <c r="O627">
-        <v>0.602723147920835</v>
+        <v>0.60272314792086</v>
       </c>
       <c r="P627">
-        <v>0.429322325397811</v>
+        <v>0.429322325397815</v>
       </c>
     </row>
     <row r="628">
@@ -33037,10 +33037,10 @@
         <v>0.244992598883184</v>
       </c>
       <c r="O628">
-        <v>0.592786031126384</v>
+        <v>0.59278603112641</v>
       </c>
       <c r="P628">
-        <v>0.136615278557014</v>
+        <v>0.136615278557013</v>
       </c>
     </row>
     <row r="629">
@@ -33056,7 +33056,7 @@
         <v>0.319778058684779</v>
       </c>
       <c r="D629">
-        <v>0.891186352465899</v>
+        <v>0.8911863524658989</v>
       </c>
       <c r="E629">
         <v>0.366345632508388</v>
@@ -33089,7 +33089,7 @@
         <v>0.326808905590794</v>
       </c>
       <c r="O629">
-        <v>0.587981687236471</v>
+        <v>0.587981687236478</v>
       </c>
       <c r="P629">
         <v>0.677265269649969</v>
@@ -33141,10 +33141,10 @@
         <v>0.43153617108907</v>
       </c>
       <c r="O630">
-        <v>0.607615941336914</v>
+        <v>0.607615941336962</v>
       </c>
       <c r="P630">
-        <v>0.412095210402068</v>
+        <v>0.412095210402072</v>
       </c>
     </row>
     <row r="631">
@@ -33193,10 +33193,10 @@
         <v>0.5382495770153271</v>
       </c>
       <c r="O631">
-        <v>0.6193695941059461</v>
+        <v>0.619369594106021</v>
       </c>
       <c r="P631">
-        <v>0.6915363397133411</v>
+        <v>0.691536339713352</v>
       </c>
     </row>
     <row r="632">
@@ -33245,10 +33245,10 @@
         <v>0.610541219766166</v>
       </c>
       <c r="O632">
-        <v>0.595045821387272</v>
+        <v>0.595045821387489</v>
       </c>
       <c r="P632">
-        <v>0.459218268955206</v>
+        <v>0.459218268955192</v>
       </c>
     </row>
     <row r="633">
@@ -33297,10 +33297,10 @@
         <v>0.477706462340453</v>
       </c>
       <c r="O633">
-        <v>0.607744391795108</v>
+        <v>0.607744391795157</v>
       </c>
       <c r="P633">
-        <v>0.356668722571407</v>
+        <v>0.35666872257141</v>
       </c>
     </row>
     <row r="634">
@@ -33349,10 +33349,10 @@
         <v>0.551648219436269</v>
       </c>
       <c r="O634">
-        <v>0.585214591839847</v>
+        <v>0.585214591839837</v>
       </c>
       <c r="P634">
-        <v>0.357326912364464</v>
+        <v>0.357326912364427</v>
       </c>
     </row>
     <row r="635">
@@ -33401,10 +33401,10 @@
         <v>0.405122825435604</v>
       </c>
       <c r="O635">
-        <v>0.610147411111808</v>
+        <v>0.610147411111874</v>
       </c>
       <c r="P635">
-        <v>0.369702779244472</v>
+        <v>0.36970277924448</v>
       </c>
     </row>
     <row r="636">
@@ -33453,10 +33453,10 @@
         <v>0.700385734910317</v>
       </c>
       <c r="O636">
-        <v>0.615509418808856</v>
+        <v>0.615509418808861</v>
       </c>
       <c r="P636">
-        <v>0.427924355585654</v>
+        <v>0.427924355585592</v>
       </c>
     </row>
     <row r="637">
@@ -33505,10 +33505,10 @@
         <v>1</v>
       </c>
       <c r="O637">
-        <v>0.604220824401898</v>
+        <v>0.604220824401912</v>
       </c>
       <c r="P637">
-        <v>0.309597463402174</v>
+        <v>0.309597463402096</v>
       </c>
     </row>
     <row r="638">
@@ -33557,10 +33557,10 @@
         <v>1</v>
       </c>
       <c r="O638">
-        <v>0.594775533919479</v>
+        <v>0.594775533919507</v>
       </c>
       <c r="P638">
-        <v>0.425778377429149</v>
+        <v>0.425778377429102</v>
       </c>
     </row>
     <row r="639">
@@ -33600,7 +33600,7 @@
         <v>0.6180985900085471</v>
       </c>
       <c r="L639">
-        <v>0.867675959368365</v>
+        <v>0.8676759593683649</v>
       </c>
       <c r="M639">
         <v>0.0921307438552518</v>
@@ -33609,10 +33609,10 @@
         <v>0.799486384433312</v>
       </c>
       <c r="O639">
-        <v>0.605908096848236</v>
+        <v>0.605908096848244</v>
       </c>
       <c r="P639">
-        <v>0.636837964026948</v>
+        <v>0.6368379640269231</v>
       </c>
     </row>
     <row r="640">
@@ -33661,10 +33661,10 @@
         <v>0.37629486979911</v>
       </c>
       <c r="O640">
-        <v>0.591269762383428</v>
+        <v>0.591269762383523</v>
       </c>
       <c r="P640">
-        <v>0.6069535254973371</v>
+        <v>0.6069535254973411</v>
       </c>
     </row>
     <row r="641">
@@ -33713,10 +33713,10 @@
         <v>0.666989506614134</v>
       </c>
       <c r="O641">
-        <v>0.600721566368528</v>
+        <v>0.600721566368561</v>
       </c>
       <c r="P641">
-        <v>0.6252346574136201</v>
+        <v>0.6252346574136221</v>
       </c>
     </row>
     <row r="642">
@@ -33765,10 +33765,10 @@
         <v>0.188679591085444</v>
       </c>
       <c r="O642">
-        <v>0.601707953088049</v>
+        <v>0.6017079530882961</v>
       </c>
       <c r="P642">
-        <v>0.51821907688864</v>
+        <v>0.51821907688865</v>
       </c>
     </row>
     <row r="643">
@@ -33781,7 +33781,7 @@
         </is>
       </c>
       <c r="C643">
-        <v>0.5181219470573431</v>
+        <v>0.518121947057343</v>
       </c>
       <c r="D643">
         <v>0.454642533467706</v>
@@ -33817,10 +33817,10 @@
         <v>0.424967972362404</v>
       </c>
       <c r="O643">
-        <v>0.613835034795944</v>
+        <v>0.613835034796046</v>
       </c>
       <c r="P643">
-        <v>0.366652683453027</v>
+        <v>0.366652683453073</v>
       </c>
     </row>
     <row r="644">
@@ -33869,10 +33869,10 @@
         <v>0.470241775997599</v>
       </c>
       <c r="O644">
-        <v>0.5999253907237589</v>
+        <v>0.5999253907237611</v>
       </c>
       <c r="P644">
-        <v>0.406193372155537</v>
+        <v>0.406193372155591</v>
       </c>
     </row>
     <row r="645">
@@ -33921,10 +33921,10 @@
         <v>0.343198547462936</v>
       </c>
       <c r="O645">
-        <v>0.602654717292895</v>
+        <v>0.602654717293083</v>
       </c>
       <c r="P645">
-        <v>0.378956693612832</v>
+        <v>0.378956693612846</v>
       </c>
     </row>
     <row r="646">
@@ -33973,10 +33973,10 @@
         <v>0.466306627721993</v>
       </c>
       <c r="O646">
-        <v>0.605512508198665</v>
+        <v>0.605512508198685</v>
       </c>
       <c r="P646">
-        <v>0.324733758095354</v>
+        <v>0.324733758095335</v>
       </c>
     </row>
     <row r="647">
@@ -34025,10 +34025,10 @@
         <v>0.330123728569709</v>
       </c>
       <c r="O647">
-        <v>0.62196255370058</v>
+        <v>0.621962553700569</v>
       </c>
       <c r="P647">
-        <v>0.589627356169956</v>
+        <v>0.589627356169968</v>
       </c>
     </row>
     <row r="648">
@@ -34077,10 +34077,10 @@
         <v>0.453023094516862</v>
       </c>
       <c r="O648">
-        <v>0.601150018395579</v>
+        <v>0.601150018395699</v>
       </c>
       <c r="P648">
-        <v>0.535455339639524</v>
+        <v>0.535455339639593</v>
       </c>
     </row>
     <row r="649">
@@ -34129,10 +34129,10 @@
         <v>1</v>
       </c>
       <c r="O649">
-        <v>0.5972379929530111</v>
+        <v>0.597237992952999</v>
       </c>
       <c r="P649">
-        <v>0.616245988720957</v>
+        <v>0.616245988720916</v>
       </c>
     </row>
     <row r="650">
@@ -34181,10 +34181,10 @@
         <v>0.606829755903057</v>
       </c>
       <c r="O650">
-        <v>0.592978076907052</v>
+        <v>0.5929780769070701</v>
       </c>
       <c r="P650">
-        <v>0.417424992146986</v>
+        <v>0.417424992146976</v>
       </c>
     </row>
     <row r="651">
@@ -34233,10 +34233,10 @@
         <v>1</v>
       </c>
       <c r="O651">
-        <v>0.599264212923347</v>
+        <v>0.599264212923367</v>
       </c>
       <c r="P651">
-        <v>0.411382206232516</v>
+        <v>0.411382206232512</v>
       </c>
     </row>
     <row r="652">
@@ -34285,10 +34285,10 @@
         <v>0.373323433008553</v>
       </c>
       <c r="O652">
-        <v>0.5937240069215241</v>
+        <v>0.593724006921559</v>
       </c>
       <c r="P652">
-        <v>0.550611951758879</v>
+        <v>0.550611951758886</v>
       </c>
     </row>
     <row r="653">
@@ -34337,10 +34337,10 @@
         <v>0.263916274896176</v>
       </c>
       <c r="O653">
-        <v>0.594744116260544</v>
+        <v>0.59474411626073</v>
       </c>
       <c r="P653">
-        <v>0.336618696280257</v>
+        <v>0.336618696280248</v>
       </c>
     </row>
     <row r="654">
@@ -34389,7 +34389,7 @@
         <v>0.844933859338766</v>
       </c>
       <c r="O654">
-        <v>0.612097032933477</v>
+        <v>0.6120970329334871</v>
       </c>
       <c r="P654">
         <v>0.377151402627856</v>
@@ -34423,7 +34423,7 @@
         <v>0.44479039334372</v>
       </c>
       <c r="I655">
-        <v>0.5752969780937211</v>
+        <v>0.575296978093721</v>
       </c>
       <c r="J655">
         <v>0.763111344029246</v>
@@ -34441,10 +34441,10 @@
         <v>1</v>
       </c>
       <c r="O655">
-        <v>0.576966057129875</v>
+        <v>0.576966057129885</v>
       </c>
       <c r="P655">
-        <v>0.607691423103949</v>
+        <v>0.60769142310396</v>
       </c>
     </row>
     <row r="656">
@@ -34493,10 +34493,10 @@
         <v>0.376766690107671</v>
       </c>
       <c r="O656">
-        <v>0.610384445778216</v>
+        <v>0.610384445778293</v>
       </c>
       <c r="P656">
-        <v>0.367366510188857</v>
+        <v>0.367366510188913</v>
       </c>
     </row>
     <row r="657">
@@ -34545,10 +34545,10 @@
         <v>0.311863087821414</v>
       </c>
       <c r="O657">
-        <v>0.586307198097745</v>
+        <v>0.586307198097799</v>
       </c>
       <c r="P657">
-        <v>0.508429181797372</v>
+        <v>0.508429181797303</v>
       </c>
     </row>
     <row r="658">
@@ -34597,10 +34597,10 @@
         <v>0.740970323974519</v>
       </c>
       <c r="O658">
-        <v>0.5955191779557</v>
+        <v>0.5955191779557359</v>
       </c>
       <c r="P658">
-        <v>0.341291355899226</v>
+        <v>0.341291355899254</v>
       </c>
     </row>
     <row r="659">
@@ -34628,7 +34628,7 @@
         <v>0.28152013486461</v>
       </c>
       <c r="H659">
-        <v>0.6474773623001841</v>
+        <v>0.647477362300184</v>
       </c>
       <c r="I659">
         <v>0.558140455609402</v>
@@ -34649,10 +34649,10 @@
         <v>0.426083101753805</v>
       </c>
       <c r="O659">
-        <v>0.595333876885197</v>
+        <v>0.595333876885237</v>
       </c>
       <c r="P659">
-        <v>0.468525481052102</v>
+        <v>0.468525481052085</v>
       </c>
     </row>
     <row r="660">
@@ -34701,10 +34701,10 @@
         <v>0.206339529906258</v>
       </c>
       <c r="O660">
-        <v>0.593057436518672</v>
+        <v>0.593057436518675</v>
       </c>
       <c r="P660">
-        <v>0.287238062614179</v>
+        <v>0.287238062614135</v>
       </c>
     </row>
     <row r="661">
@@ -35221,7 +35221,7 @@
         <v>0.395493565632498</v>
       </c>
       <c r="O670">
-        <v>0.6180265448287891</v>
+        <v>0.618026544828789</v>
       </c>
       <c r="P670">
         <v>0.47247761318585</v>
@@ -35377,7 +35377,7 @@
         <v>0.284338033047417</v>
       </c>
       <c r="O673">
-        <v>0.508224293819937</v>
+        <v>0.5082242938199369</v>
       </c>
       <c r="P673">
         <v>0.464986751625714</v>
@@ -35662,7 +35662,7 @@
         <v>0.363082572536532</v>
       </c>
       <c r="F679">
-        <v>0.733690315543504</v>
+        <v>0.7336903155435039</v>
       </c>
       <c r="G679">
         <v>0.293691843012431</v>
@@ -36264,7 +36264,7 @@
         <v>0.580684577318453</v>
       </c>
       <c r="P690">
-        <v>0.504946243619875</v>
+        <v>0.5049462436198749</v>
       </c>
     </row>
     <row r="691">
@@ -36417,7 +36417,7 @@
         <v>0.268417095581931</v>
       </c>
       <c r="O693">
-        <v>0.548892534741449</v>
+        <v>0.5488925347414489</v>
       </c>
       <c r="P693">
         <v>0.526753257847881</v>

--- a/1-Data-Codes/2-Final_Data/va_shares_allyears.xlsx
+++ b/1-Data-Codes/2-Final_Data/va_shares_allyears.xlsx
@@ -485,10 +485,10 @@
         <v>0.534980054393872</v>
       </c>
       <c r="O2">
-        <v>0.605369766074688</v>
+        <v>0.605369766213876</v>
       </c>
       <c r="P2">
-        <v>0.481719747590906</v>
+        <v>0.481719747598585</v>
       </c>
     </row>
     <row r="3">
@@ -510,7 +510,7 @@
         <v>0.437347318805592</v>
       </c>
       <c r="F3">
-        <v>0.565312783055206</v>
+        <v>0.5653127830552061</v>
       </c>
       <c r="G3">
         <v>0.0687487828526368</v>
@@ -537,10 +537,10 @@
         <v>0.134025736710726</v>
       </c>
       <c r="O3">
-        <v>0.613506521928486</v>
+        <v>0.613506521926854</v>
       </c>
       <c r="P3">
-        <v>0.167677207635435</v>
+        <v>0.167677207635436</v>
       </c>
     </row>
     <row r="4">
@@ -589,10 +589,10 @@
         <v>0.771737691139749</v>
       </c>
       <c r="O4">
-        <v>0.608269789704335</v>
+        <v>0.608269789698984</v>
       </c>
       <c r="P4">
-        <v>0.602160926177555</v>
+        <v>0.602160926177595</v>
       </c>
     </row>
     <row r="5">
@@ -641,10 +641,10 @@
         <v>0.869289585153724</v>
       </c>
       <c r="O5">
-        <v>0.601043364558273</v>
+        <v>0.601043364555842</v>
       </c>
       <c r="P5">
-        <v>0.417106692634897</v>
+        <v>0.417106692635191</v>
       </c>
     </row>
     <row r="6">
@@ -693,10 +693,10 @@
         <v>0.365241302006003</v>
       </c>
       <c r="O6">
-        <v>0.616803160616001</v>
+        <v>0.616803160622512</v>
       </c>
       <c r="P6">
-        <v>0.624367123566971</v>
+        <v>0.62436712356631</v>
       </c>
     </row>
     <row r="7">
@@ -745,10 +745,10 @@
         <v>0.58442751476607</v>
       </c>
       <c r="O7">
-        <v>0.6227873835757211</v>
+        <v>0.6227873835766931</v>
       </c>
       <c r="P7">
-        <v>0.325393976176781</v>
+        <v>0.325393976176374</v>
       </c>
     </row>
     <row r="8">
@@ -797,10 +797,10 @@
         <v>0.642744868107093</v>
       </c>
       <c r="O8">
-        <v>0.613331709575999</v>
+        <v>0.6133317095762521</v>
       </c>
       <c r="P8">
-        <v>0.7051099545360811</v>
+        <v>0.705109954536067</v>
       </c>
     </row>
     <row r="9">
@@ -846,13 +846,13 @@
         <v>0.401034343420393</v>
       </c>
       <c r="N9">
-        <v>0.885125077427049</v>
+        <v>0.8851250774270491</v>
       </c>
       <c r="O9">
-        <v>0.63517655629243</v>
+        <v>0.635176556293066</v>
       </c>
       <c r="P9">
-        <v>0.348831042232224</v>
+        <v>0.348831042232223</v>
       </c>
     </row>
     <row r="10">
@@ -901,10 +901,10 @@
         <v>0.315261717526881</v>
       </c>
       <c r="O10">
-        <v>0.594619089121347</v>
+        <v>0.594619089102454</v>
       </c>
       <c r="P10">
-        <v>0.813151892215768</v>
+        <v>0.813151892216136</v>
       </c>
     </row>
     <row r="11">
@@ -953,10 +953,10 @@
         <v>0.33049583240109</v>
       </c>
       <c r="O11">
-        <v>0.616620232998799</v>
+        <v>0.616620233007999</v>
       </c>
       <c r="P11">
-        <v>0.568343763255315</v>
+        <v>0.568343763255882</v>
       </c>
     </row>
     <row r="12">
@@ -1005,10 +1005,10 @@
         <v>0.278728100194584</v>
       </c>
       <c r="O12">
-        <v>0.594655557724845</v>
+        <v>0.594655557723341</v>
       </c>
       <c r="P12">
-        <v>0.598542279988577</v>
+        <v>0.59854227998857</v>
       </c>
     </row>
     <row r="13">
@@ -1057,10 +1057,10 @@
         <v>0.625593878350872</v>
       </c>
       <c r="O13">
-        <v>0.605225205476801</v>
+        <v>0.60522520547518</v>
       </c>
       <c r="P13">
-        <v>0.452558479577352</v>
+        <v>0.452558479577167</v>
       </c>
     </row>
     <row r="14">
@@ -1109,10 +1109,10 @@
         <v>0.555162067254994</v>
       </c>
       <c r="O14">
-        <v>0.612290490055501</v>
+        <v>0.612290490056246</v>
       </c>
       <c r="P14">
-        <v>0.249362251812395</v>
+        <v>0.249362251812315</v>
       </c>
     </row>
     <row r="15">
@@ -1134,7 +1134,7 @@
         <v>0.512396023388446</v>
       </c>
       <c r="F15">
-        <v>0.0843287961397343</v>
+        <v>0.08432879613973431</v>
       </c>
       <c r="G15">
         <v>1</v>
@@ -1161,10 +1161,10 @@
         <v>0.838025814714475</v>
       </c>
       <c r="O15">
-        <v>0.6093786282446479</v>
+        <v>0.6093786282370161</v>
       </c>
       <c r="P15">
-        <v>0.35556699417836</v>
+        <v>0.355566994178361</v>
       </c>
     </row>
     <row r="16">
@@ -1213,10 +1213,10 @@
         <v>0.62948018828644</v>
       </c>
       <c r="O16">
-        <v>0.606615627408957</v>
+        <v>0.606615627405237</v>
       </c>
       <c r="P16">
-        <v>0.228151544298503</v>
+        <v>0.228151544298425</v>
       </c>
     </row>
     <row r="17">
@@ -1265,10 +1265,10 @@
         <v>0.658621823089703</v>
       </c>
       <c r="O17">
-        <v>0.604467125493327</v>
+        <v>0.604467125490865</v>
       </c>
       <c r="P17">
-        <v>0.188419197813051</v>
+        <v>0.188419197813049</v>
       </c>
     </row>
     <row r="18">
@@ -1317,10 +1317,10 @@
         <v>0.525379930431303</v>
       </c>
       <c r="O18">
-        <v>0.60676459570179</v>
+        <v>0.606764595696993</v>
       </c>
       <c r="P18">
-        <v>0.684332858385808</v>
+        <v>0.684332858385927</v>
       </c>
     </row>
     <row r="19">
@@ -1369,10 +1369,10 @@
         <v>0.20219723004868</v>
       </c>
       <c r="O19">
-        <v>0.595973009879165</v>
+        <v>0.595973009874428</v>
       </c>
       <c r="P19">
-        <v>0.134177166275888</v>
+        <v>0.134177166275894</v>
       </c>
     </row>
     <row r="20">
@@ -1403,10 +1403,10 @@
         <v>0.9958155499929811</v>
       </c>
       <c r="I20">
-        <v>0.562679358280412</v>
+        <v>0.5626793582804121</v>
       </c>
       <c r="J20">
-        <v>0.7007447690019249</v>
+        <v>0.700744769001925</v>
       </c>
       <c r="K20">
         <v>0.195551330139385</v>
@@ -1421,10 +1421,10 @@
         <v>0.386621975063619</v>
       </c>
       <c r="O20">
-        <v>0.589488592110094</v>
+        <v>0.589488592108057</v>
       </c>
       <c r="P20">
-        <v>0.851930445846488</v>
+        <v>0.8519304458464631</v>
       </c>
     </row>
     <row r="21">
@@ -1473,10 +1473,10 @@
         <v>0.347609659729063</v>
       </c>
       <c r="O21">
-        <v>0.614395127602266</v>
+        <v>0.614395127595714</v>
       </c>
       <c r="P21">
-        <v>0.499545438151511</v>
+        <v>0.499545438151491</v>
       </c>
     </row>
     <row r="22">
@@ -1525,10 +1525,10 @@
         <v>0.601428126404944</v>
       </c>
       <c r="O22">
-        <v>0.627364032857634</v>
+        <v>0.627364032855388</v>
       </c>
       <c r="P22">
-        <v>0.665733039833897</v>
+        <v>0.665733039833892</v>
       </c>
     </row>
     <row r="23">
@@ -1577,10 +1577,10 @@
         <v>0.587416435220941</v>
       </c>
       <c r="O23">
-        <v>0.606239372945711</v>
+        <v>0.606239372930601</v>
       </c>
       <c r="P23">
-        <v>0.37677207151309</v>
+        <v>0.376772071513036</v>
       </c>
     </row>
     <row r="24">
@@ -1629,10 +1629,10 @@
         <v>0.476018106363763</v>
       </c>
       <c r="O24">
-        <v>0.609346287438611</v>
+        <v>0.6093462874307311</v>
       </c>
       <c r="P24">
-        <v>0.247402197365415</v>
+        <v>0.247402197365034</v>
       </c>
     </row>
     <row r="25">
@@ -1681,10 +1681,10 @@
         <v>0.725676689416906</v>
       </c>
       <c r="O25">
-        <v>0.582535896573229</v>
+        <v>0.582535896570954</v>
       </c>
       <c r="P25">
-        <v>0.423535497064153</v>
+        <v>0.423535497064612</v>
       </c>
     </row>
     <row r="26">
@@ -1733,10 +1733,10 @@
         <v>0.473159564654425</v>
       </c>
       <c r="O26">
-        <v>0.61672891816733</v>
+        <v>0.616728918164612</v>
       </c>
       <c r="P26">
-        <v>0.307489139240351</v>
+        <v>0.307489139240429</v>
       </c>
     </row>
     <row r="27">
@@ -1785,10 +1785,10 @@
         <v>0.59169255139545</v>
       </c>
       <c r="O27">
-        <v>0.614077881036499</v>
+        <v>0.614077881034939</v>
       </c>
       <c r="P27">
-        <v>0.309118574532096</v>
+        <v>0.309118574532087</v>
       </c>
     </row>
     <row r="28">
@@ -1837,10 +1837,10 @@
         <v>1</v>
       </c>
       <c r="O28">
-        <v>0.611145144486117</v>
+        <v>0.611145144485121</v>
       </c>
       <c r="P28">
-        <v>0.20155363209536</v>
+        <v>0.201553632094861</v>
       </c>
     </row>
     <row r="29">
@@ -1889,10 +1889,10 @@
         <v>0.513652014171554</v>
       </c>
       <c r="O29">
-        <v>0.605115828222498</v>
+        <v>0.605115828222736</v>
       </c>
       <c r="P29">
-        <v>0.455478589049018</v>
+        <v>0.455478589049022</v>
       </c>
     </row>
     <row r="30">
@@ -1941,10 +1941,10 @@
         <v>0.577988428900246</v>
       </c>
       <c r="O30">
-        <v>0.611194951993554</v>
+        <v>0.61119495199146</v>
       </c>
       <c r="P30">
-        <v>0.738721543098379</v>
+        <v>0.738721543098375</v>
       </c>
     </row>
     <row r="31">
@@ -1993,10 +1993,10 @@
         <v>0.390852192349629</v>
       </c>
       <c r="O31">
-        <v>0.602325519069666</v>
+        <v>0.6023255190686701</v>
       </c>
       <c r="P31">
-        <v>0.640770562813377</v>
+        <v>0.640770562813365</v>
       </c>
     </row>
     <row r="32">
@@ -2045,10 +2045,10 @@
         <v>1</v>
       </c>
       <c r="O32">
-        <v>0.599235693776989</v>
+        <v>0.599235693774523</v>
       </c>
       <c r="P32">
-        <v>0.498180096655032</v>
+        <v>0.498180096655072</v>
       </c>
     </row>
     <row r="33">
@@ -2097,10 +2097,10 @@
         <v>0.344816659507192</v>
       </c>
       <c r="O33">
-        <v>0.6171083410232689</v>
+        <v>0.617108341028181</v>
       </c>
       <c r="P33">
-        <v>0.463395507120181</v>
+        <v>0.463395507120129</v>
       </c>
     </row>
     <row r="34">
@@ -2140,7 +2140,7 @@
         <v>0.356517592689773</v>
       </c>
       <c r="L34">
-        <v>0.513364360683438</v>
+        <v>0.5133643606834381</v>
       </c>
       <c r="M34">
         <v>0.184172188559245</v>
@@ -2149,10 +2149,10 @@
         <v>0.394167088969556</v>
       </c>
       <c r="O34">
-        <v>0.618509912830712</v>
+        <v>0.618509912828036</v>
       </c>
       <c r="P34">
-        <v>0.534055890608219</v>
+        <v>0.534055890608296</v>
       </c>
     </row>
     <row r="35">
@@ -2201,10 +2201,10 @@
         <v>0.391154395484287</v>
       </c>
       <c r="O35">
-        <v>0.595979127624694</v>
+        <v>0.595979127624431</v>
       </c>
       <c r="P35">
-        <v>0.290436203345192</v>
+        <v>0.290436203345168</v>
       </c>
     </row>
     <row r="36">
@@ -2253,10 +2253,10 @@
         <v>0.289404552278184</v>
       </c>
       <c r="O36">
-        <v>0.610592385906338</v>
+        <v>0.6105923858911541</v>
       </c>
       <c r="P36">
-        <v>0.455173116353104</v>
+        <v>0.455173116353061</v>
       </c>
     </row>
     <row r="37">
@@ -2287,7 +2287,7 @@
         <v>0.559915480845639</v>
       </c>
       <c r="I37">
-        <v>0.7011912363335659</v>
+        <v>0.701191236333566</v>
       </c>
       <c r="J37">
         <v>0.463032960311028</v>
@@ -2305,10 +2305,10 @@
         <v>0.45472821092914</v>
       </c>
       <c r="O37">
-        <v>0.6072322850055309</v>
+        <v>0.6072322850016551</v>
       </c>
       <c r="P37">
-        <v>0.346956974291291</v>
+        <v>0.346956974291369</v>
       </c>
     </row>
     <row r="38">
@@ -2342,7 +2342,7 @@
         <v>0.277392517407419</v>
       </c>
       <c r="J38">
-        <v>0.607218403968185</v>
+        <v>0.6072184039681851</v>
       </c>
       <c r="K38">
         <v>0.37641378961051</v>
@@ -2357,10 +2357,10 @@
         <v>0.374812342218374</v>
       </c>
       <c r="O38">
-        <v>0.627040699815028</v>
+        <v>0.627040699808721</v>
       </c>
       <c r="P38">
-        <v>0.6104962265926011</v>
+        <v>0.610496226592406</v>
       </c>
     </row>
     <row r="39">
@@ -2388,7 +2388,7 @@
         <v>0.721766025320665</v>
       </c>
       <c r="H39">
-        <v>0.5533755903556939</v>
+        <v>0.553375590355694</v>
       </c>
       <c r="I39">
         <v>0.544294020027024</v>
@@ -2409,10 +2409,10 @@
         <v>0.437396072564056</v>
       </c>
       <c r="O39">
-        <v>0.611478735844367</v>
+        <v>0.611478735826133</v>
       </c>
       <c r="P39">
-        <v>0.558718869205978</v>
+        <v>0.558718869205918</v>
       </c>
     </row>
     <row r="40">
@@ -2461,7 +2461,7 @@
         <v>1</v>
       </c>
       <c r="O40">
-        <v>0.599551001396619</v>
+        <v>0.599551001394971</v>
       </c>
       <c r="P40">
         <v>0.920123190316149</v>
@@ -2513,10 +2513,10 @@
         <v>0.427457013877955</v>
       </c>
       <c r="O41">
-        <v>0.6001049024428921</v>
+        <v>0.600104902439204</v>
       </c>
       <c r="P41">
-        <v>0.623021651864623</v>
+        <v>0.6230216518646861</v>
       </c>
     </row>
     <row r="42">
@@ -2565,10 +2565,10 @@
         <v>1</v>
       </c>
       <c r="O42">
-        <v>0.591819013044828</v>
+        <v>0.591819013043581</v>
       </c>
       <c r="P42">
-        <v>0.410990024777769</v>
+        <v>0.410990024777749</v>
       </c>
     </row>
     <row r="43">
@@ -2617,10 +2617,10 @@
         <v>0.381908662978635</v>
       </c>
       <c r="O43">
-        <v>0.603237241347554</v>
+        <v>0.603237241348966</v>
       </c>
       <c r="P43">
-        <v>0.83923659657619</v>
+        <v>0.839236596576356</v>
       </c>
     </row>
     <row r="44">
@@ -2669,10 +2669,10 @@
         <v>0.376692467535891</v>
       </c>
       <c r="O44">
-        <v>0.601437728913766</v>
+        <v>0.601437728910848</v>
       </c>
       <c r="P44">
-        <v>0.391859335828014</v>
+        <v>0.39185933582827</v>
       </c>
     </row>
     <row r="45">
@@ -2721,10 +2721,10 @@
         <v>0.799305356943392</v>
       </c>
       <c r="O45">
-        <v>0.611072563566193</v>
+        <v>0.6110725635655611</v>
       </c>
       <c r="P45">
-        <v>0.434865478584407</v>
+        <v>0.434865478584375</v>
       </c>
     </row>
     <row r="46">
@@ -2773,10 +2773,10 @@
         <v>0.629623197993482</v>
       </c>
       <c r="O46">
-        <v>0.593694891326943</v>
+        <v>0.593694891325932</v>
       </c>
       <c r="P46">
-        <v>0.583914725846731</v>
+        <v>0.583914725846722</v>
       </c>
     </row>
     <row r="47">
@@ -2825,10 +2825,10 @@
         <v>0.426137116814854</v>
       </c>
       <c r="O47">
-        <v>0.618747607350368</v>
+        <v>0.618747607348183</v>
       </c>
       <c r="P47">
-        <v>0.455400188546466</v>
+        <v>0.455400188546447</v>
       </c>
     </row>
     <row r="48">
@@ -2877,10 +2877,10 @@
         <v>0.417353531932591</v>
       </c>
       <c r="O48">
-        <v>0.592246510403812</v>
+        <v>0.592246510400828</v>
       </c>
       <c r="P48">
-        <v>0.464847279919656</v>
+        <v>0.464847279919142</v>
       </c>
     </row>
     <row r="49">
@@ -2929,10 +2929,10 @@
         <v>0.864808509921236</v>
       </c>
       <c r="O49">
-        <v>0.599917556080711</v>
+        <v>0.599917556078602</v>
       </c>
       <c r="P49">
-        <v>0.427590132636544</v>
+        <v>0.427590132636547</v>
       </c>
     </row>
     <row r="50">
@@ -2981,10 +2981,10 @@
         <v>0.330216008397684</v>
       </c>
       <c r="O50">
-        <v>0.597263835076363</v>
+        <v>0.597263835068174</v>
       </c>
       <c r="P50">
-        <v>0.373545712177535</v>
+        <v>0.373545712177405</v>
       </c>
     </row>
     <row r="51">
@@ -3033,10 +3033,10 @@
         <v>0.357032552807856</v>
       </c>
       <c r="O51">
-        <v>0.595264103453657</v>
+        <v>0.595264103453048</v>
       </c>
       <c r="P51">
-        <v>0.406740186740889</v>
+        <v>0.406740186740909</v>
       </c>
     </row>
     <row r="52">
@@ -3134,7 +3134,7 @@
         <v>0.328836814777376</v>
       </c>
       <c r="N53">
-        <v>0.504819476998779</v>
+        <v>0.5048194769987791</v>
       </c>
       <c r="O53">
         <v>0.613790129928712</v>
@@ -3208,7 +3208,7 @@
         <v>0.338957614145039</v>
       </c>
       <c r="D55">
-        <v>0.527389600915191</v>
+        <v>0.5273896009151911</v>
       </c>
       <c r="E55">
         <v>0.290778653051441</v>
@@ -3296,7 +3296,7 @@
         <v>0.661247552110216</v>
       </c>
       <c r="P56">
-        <v>0.6388433161068729</v>
+        <v>0.638843316106873</v>
       </c>
     </row>
     <row r="57">
@@ -3452,7 +3452,7 @@
         <v>0.684948723545649</v>
       </c>
       <c r="P59">
-        <v>0.57534477022782</v>
+        <v>0.5753447702278201</v>
       </c>
     </row>
     <row r="60">
@@ -3816,7 +3816,7 @@
         <v>0.608906795776773</v>
       </c>
       <c r="P66">
-        <v>0.5029807142584169</v>
+        <v>0.502980714258417</v>
       </c>
     </row>
     <row r="67">
@@ -3920,7 +3920,7 @@
         <v>0.655298272682122</v>
       </c>
       <c r="P68">
-        <v>0.6416535591814559</v>
+        <v>0.641653559181456</v>
       </c>
     </row>
     <row r="69">
@@ -4076,7 +4076,7 @@
         <v>0.649451307174201</v>
       </c>
       <c r="P71">
-        <v>0.772756748031396</v>
+        <v>0.7727567480313961</v>
       </c>
     </row>
     <row r="72">
@@ -4125,7 +4125,7 @@
         <v>0.320365100958219</v>
       </c>
       <c r="O72">
-        <v>0.517338202854919</v>
+        <v>0.5173382028549191</v>
       </c>
       <c r="P72">
         <v>0.516611871344735</v>
@@ -4177,7 +4177,7 @@
         <v>0.311889303229288</v>
       </c>
       <c r="O73">
-        <v>0.5674224949636389</v>
+        <v>0.567422494963639</v>
       </c>
       <c r="P73">
         <v>0.664459618763692</v>
@@ -5009,10 +5009,10 @@
         <v>0.489947353125278</v>
       </c>
       <c r="O89">
-        <v>0.618478585922131</v>
+        <v>0.618478585922752</v>
       </c>
       <c r="P89">
-        <v>0.558310112970022</v>
+        <v>0.558310112970013</v>
       </c>
     </row>
     <row r="90">
@@ -5061,10 +5061,10 @@
         <v>0.127864107977362</v>
       </c>
       <c r="O90">
-        <v>0.634570328703766</v>
+        <v>0.634570328703849</v>
       </c>
       <c r="P90">
-        <v>0.148265832805534</v>
+        <v>0.148265832805535</v>
       </c>
     </row>
     <row r="91">
@@ -5113,10 +5113,10 @@
         <v>0.816074603530215</v>
       </c>
       <c r="O91">
-        <v>0.619648729370891</v>
+        <v>0.619648729370648</v>
       </c>
       <c r="P91">
-        <v>0.5670871370928779</v>
+        <v>0.5670871370928911</v>
       </c>
     </row>
     <row r="92">
@@ -5165,10 +5165,10 @@
         <v>0.786609447331813</v>
       </c>
       <c r="O92">
-        <v>0.611042848941125</v>
+        <v>0.611042848941173</v>
       </c>
       <c r="P92">
-        <v>0.460221906300406</v>
+        <v>0.460221906300415</v>
       </c>
     </row>
     <row r="93">
@@ -5217,10 +5217,10 @@
         <v>0.347903249614106</v>
       </c>
       <c r="O93">
-        <v>0.627558622368026</v>
+        <v>0.627558622368157</v>
       </c>
       <c r="P93">
-        <v>0.609929436853303</v>
+        <v>0.60992943685332</v>
       </c>
     </row>
     <row r="94">
@@ -5269,10 +5269,10 @@
         <v>0.595813108259288</v>
       </c>
       <c r="O94">
-        <v>0.634656267941233</v>
+        <v>0.634656267941293</v>
       </c>
       <c r="P94">
-        <v>0.404567022058719</v>
+        <v>0.404567022058721</v>
       </c>
     </row>
     <row r="95">
@@ -5315,16 +5315,16 @@
         <v>0.440265591117492</v>
       </c>
       <c r="M95">
-        <v>0.5580985533203729</v>
+        <v>0.558098553320373</v>
       </c>
       <c r="N95">
         <v>0.642178660117157</v>
       </c>
       <c r="O95">
-        <v>0.626660152934667</v>
+        <v>0.626660152934742</v>
       </c>
       <c r="P95">
-        <v>0.64573050189595</v>
+        <v>0.645730501895958</v>
       </c>
     </row>
     <row r="96">
@@ -5373,10 +5373,10 @@
         <v>0.814753450788438</v>
       </c>
       <c r="O96">
-        <v>0.65175311569911</v>
+        <v>0.651753115698821</v>
       </c>
       <c r="P96">
-        <v>0.445363917967963</v>
+        <v>0.445363917967957</v>
       </c>
     </row>
     <row r="97">
@@ -5425,10 +5425,10 @@
         <v>0.332854555232669</v>
       </c>
       <c r="O97">
-        <v>0.609444881275179</v>
+        <v>0.609444881275173</v>
       </c>
       <c r="P97">
-        <v>0.783305693426844</v>
+        <v>0.783305693426833</v>
       </c>
     </row>
     <row r="98">
@@ -5477,10 +5477,10 @@
         <v>0.324846061385334</v>
       </c>
       <c r="O98">
-        <v>0.627664483084421</v>
+        <v>0.627664483084614</v>
       </c>
       <c r="P98">
-        <v>0.616950909237676</v>
+        <v>0.616950909237691</v>
       </c>
     </row>
     <row r="99">
@@ -5529,10 +5529,10 @@
         <v>0.292313308120993</v>
       </c>
       <c r="O99">
-        <v>0.610350207491147</v>
+        <v>0.610350207491167</v>
       </c>
       <c r="P99">
-        <v>0.591466329476653</v>
+        <v>0.591466329476637</v>
       </c>
     </row>
     <row r="100">
@@ -5548,7 +5548,7 @@
         <v>0.275966540827351</v>
       </c>
       <c r="D100">
-        <v>0.5502148835430239</v>
+        <v>0.550214883543024</v>
       </c>
       <c r="E100">
         <v>0.241403464346077</v>
@@ -5578,13 +5578,13 @@
         <v>0.155093219119452</v>
       </c>
       <c r="N100">
-        <v>0.5992851762606169</v>
+        <v>0.599285176260617</v>
       </c>
       <c r="O100">
-        <v>0.619137737315855</v>
+        <v>0.619137737315704</v>
       </c>
       <c r="P100">
-        <v>0.480179897460237</v>
+        <v>0.480179897460235</v>
       </c>
     </row>
     <row r="101">
@@ -5633,10 +5633,10 @@
         <v>0.560741392355107</v>
       </c>
       <c r="O101">
-        <v>0.623726635255881</v>
+        <v>0.62372663525596</v>
       </c>
       <c r="P101">
-        <v>0.238386612763041</v>
+        <v>0.238386612763036</v>
       </c>
     </row>
     <row r="102">
@@ -5652,7 +5652,7 @@
         <v>0.31257975355423</v>
       </c>
       <c r="D102">
-        <v>0.0674448374065701</v>
+        <v>0.06744483740657011</v>
       </c>
       <c r="E102">
         <v>0.519941292905629</v>
@@ -5688,7 +5688,7 @@
         <v>0.62009389542294</v>
       </c>
       <c r="P102">
-        <v>0.391758913864068</v>
+        <v>0.391758913864064</v>
       </c>
     </row>
     <row r="103">
@@ -5737,10 +5737,10 @@
         <v>0.589844008861354</v>
       </c>
       <c r="O103">
-        <v>0.617602931641382</v>
+        <v>0.617602931641745</v>
       </c>
       <c r="P103">
-        <v>0.22603717956547</v>
+        <v>0.226037179565462</v>
       </c>
     </row>
     <row r="104">
@@ -5783,13 +5783,13 @@
         <v>0.315050716676944</v>
       </c>
       <c r="M104">
-        <v>0.5485175301031729</v>
+        <v>0.548517530103173</v>
       </c>
       <c r="N104">
         <v>0.657349241221371</v>
       </c>
       <c r="O104">
-        <v>0.614794556665022</v>
+        <v>0.61479455666476</v>
       </c>
       <c r="P104">
         <v>0.217833334127774</v>
@@ -5841,10 +5841,10 @@
         <v>0.501843045930553</v>
       </c>
       <c r="O105">
-        <v>0.617957260944524</v>
+        <v>0.6179572609440091</v>
       </c>
       <c r="P105">
-        <v>0.5859144356974</v>
+        <v>0.585914435697422</v>
       </c>
     </row>
     <row r="106">
@@ -5945,10 +5945,10 @@
         <v>0.413088681829481</v>
       </c>
       <c r="O107">
-        <v>0.601457153243545</v>
+        <v>0.60145715324354</v>
       </c>
       <c r="P107">
-        <v>0.81435755240285</v>
+        <v>0.814357552402834</v>
       </c>
     </row>
     <row r="108">
@@ -5997,10 +5997,10 @@
         <v>0.304099284148025</v>
       </c>
       <c r="O108">
-        <v>0.625454670781143</v>
+        <v>0.625454670780818</v>
       </c>
       <c r="P108">
-        <v>0.511972165147544</v>
+        <v>0.511972165147541</v>
       </c>
     </row>
     <row r="109">
@@ -6049,10 +6049,10 @@
         <v>0.652827001865208</v>
       </c>
       <c r="O109">
-        <v>0.6380828974689799</v>
+        <v>0.638082897469237</v>
       </c>
       <c r="P109">
-        <v>0.658777200665864</v>
+        <v>0.658777200665877</v>
       </c>
     </row>
     <row r="110">
@@ -6101,10 +6101,10 @@
         <v>0.536676555260223</v>
       </c>
       <c r="O110">
-        <v>0.617219656417465</v>
+        <v>0.617219656417448</v>
       </c>
       <c r="P110">
-        <v>0.380167742925295</v>
+        <v>0.380167742925285</v>
       </c>
     </row>
     <row r="111">
@@ -6153,10 +6153,10 @@
         <v>0.479440937233241</v>
       </c>
       <c r="O111">
-        <v>0.621778766233773</v>
+        <v>0.621778766234284</v>
       </c>
       <c r="P111">
-        <v>0.228354604434668</v>
+        <v>0.22835460443467</v>
       </c>
     </row>
     <row r="112">
@@ -6205,10 +6205,10 @@
         <v>0.720607369454474</v>
       </c>
       <c r="O112">
-        <v>0.59376865653426</v>
+        <v>0.593768656534255</v>
       </c>
       <c r="P112">
-        <v>0.498849297419137</v>
+        <v>0.49884929741913</v>
       </c>
     </row>
     <row r="113">
@@ -6236,7 +6236,7 @@
         <v>0.396124772769873</v>
       </c>
       <c r="H113">
-        <v>0.5625908061968899</v>
+        <v>0.56259080619689</v>
       </c>
       <c r="I113">
         <v>0.887371102685131</v>
@@ -6257,10 +6257,10 @@
         <v>0.493167846320286</v>
       </c>
       <c r="O113">
-        <v>0.627997897453123</v>
+        <v>0.627997897453126</v>
       </c>
       <c r="P113">
-        <v>0.314327824175531</v>
+        <v>0.314327824175533</v>
       </c>
     </row>
     <row r="114">
@@ -6309,10 +6309,10 @@
         <v>0.52734541373767</v>
       </c>
       <c r="O114">
-        <v>0.627681804646143</v>
+        <v>0.62768180464613</v>
       </c>
       <c r="P114">
-        <v>0.334358612104768</v>
+        <v>0.334358612104759</v>
       </c>
     </row>
     <row r="115">
@@ -6361,10 +6361,10 @@
         <v>1</v>
       </c>
       <c r="O115">
-        <v>0.620480951871808</v>
+        <v>0.620480951871882</v>
       </c>
       <c r="P115">
-        <v>0.241000568746556</v>
+        <v>0.241000568746552</v>
       </c>
     </row>
     <row r="116">
@@ -6413,10 +6413,10 @@
         <v>0.533499550563735</v>
       </c>
       <c r="O116">
-        <v>0.617315602609785</v>
+        <v>0.617315602609779</v>
       </c>
       <c r="P116">
-        <v>0.457474085524607</v>
+        <v>0.457474085524613</v>
       </c>
     </row>
     <row r="117">
@@ -6465,10 +6465,10 @@
         <v>0.603197958847829</v>
       </c>
       <c r="O117">
-        <v>0.624167160942001</v>
+        <v>0.624167160941781</v>
       </c>
       <c r="P117">
-        <v>0.714987318677635</v>
+        <v>0.714987318677629</v>
       </c>
     </row>
     <row r="118">
@@ -6517,7 +6517,7 @@
         <v>0.4015276839221</v>
       </c>
       <c r="O118">
-        <v>0.613734284978336</v>
+        <v>0.613734284978294</v>
       </c>
       <c r="P118">
         <v>0.557872505255788</v>
@@ -6569,10 +6569,10 @@
         <v>1</v>
       </c>
       <c r="O119">
-        <v>0.61440302820735</v>
+        <v>0.6144030282073441</v>
       </c>
       <c r="P119">
-        <v>0.611084058673701</v>
+        <v>0.611084058673685</v>
       </c>
     </row>
     <row r="120">
@@ -6621,10 +6621,10 @@
         <v>0.309997187200844</v>
       </c>
       <c r="O120">
-        <v>0.629670261253466</v>
+        <v>0.629670261253599</v>
       </c>
       <c r="P120">
-        <v>0.510628908816414</v>
+        <v>0.510628908816417</v>
       </c>
     </row>
     <row r="121">
@@ -6673,10 +6673,10 @@
         <v>0.375988922087931</v>
       </c>
       <c r="O121">
-        <v>0.633057060066528</v>
+        <v>0.633057060066557</v>
       </c>
       <c r="P121">
-        <v>0.553736250549118</v>
+        <v>0.553736250549144</v>
       </c>
     </row>
     <row r="122">
@@ -6725,10 +6725,10 @@
         <v>0.475277362604142</v>
       </c>
       <c r="O122">
-        <v>0.61152659907395</v>
+        <v>0.611526599073969</v>
       </c>
       <c r="P122">
-        <v>0.261304592985068</v>
+        <v>0.261304592985069</v>
       </c>
     </row>
     <row r="123">
@@ -6777,10 +6777,10 @@
         <v>0.287437719048495</v>
       </c>
       <c r="O123">
-        <v>0.623323911223571</v>
+        <v>0.623323911223537</v>
       </c>
       <c r="P123">
-        <v>0.424711431820226</v>
+        <v>0.424711431820229</v>
       </c>
     </row>
     <row r="124">
@@ -6829,10 +6829,10 @@
         <v>0.510447284149441</v>
       </c>
       <c r="O124">
-        <v>0.620951660893593</v>
+        <v>0.620951660894017</v>
       </c>
       <c r="P124">
-        <v>0.318921626487039</v>
+        <v>0.318921626487047</v>
       </c>
     </row>
     <row r="125">
@@ -6881,10 +6881,10 @@
         <v>0.37378892858984</v>
       </c>
       <c r="O125">
-        <v>0.636993439882796</v>
+        <v>0.636993439882791</v>
       </c>
       <c r="P125">
-        <v>0.600236814593746</v>
+        <v>0.600236814593733</v>
       </c>
     </row>
     <row r="126">
@@ -6933,10 +6933,10 @@
         <v>0.474379729085526</v>
       </c>
       <c r="O126">
-        <v>0.622548842405815</v>
+        <v>0.622548842405798</v>
       </c>
       <c r="P126">
-        <v>0.542481696675711</v>
+        <v>0.542481696675707</v>
       </c>
     </row>
     <row r="127">
@@ -6976,7 +6976,7 @@
         <v>0.531988644609055</v>
       </c>
       <c r="L127">
-        <v>0.674854348629716</v>
+        <v>0.6748543486297161</v>
       </c>
       <c r="M127">
         <v>0.526378991550144</v>
@@ -6985,10 +6985,10 @@
         <v>1</v>
       </c>
       <c r="O127">
-        <v>0.610721329758696</v>
+        <v>0.610721329758827</v>
       </c>
       <c r="P127">
-        <v>0.855040828922434</v>
+        <v>0.855040828922458</v>
       </c>
     </row>
     <row r="128">
@@ -7037,10 +7037,10 @@
         <v>0.571380339115883</v>
       </c>
       <c r="O128">
-        <v>0.611142105249378</v>
+        <v>0.611142105249373</v>
       </c>
       <c r="P128">
-        <v>0.6962952515281891</v>
+        <v>0.696295251528157</v>
       </c>
     </row>
     <row r="129">
@@ -7089,10 +7089,10 @@
         <v>1</v>
       </c>
       <c r="O129">
-        <v>0.6100028977988839</v>
+        <v>0.610002897798871</v>
       </c>
       <c r="P129">
-        <v>0.368599779944187</v>
+        <v>0.368599779944158</v>
       </c>
     </row>
     <row r="130">
@@ -7141,7 +7141,7 @@
         <v>0.363175758049949</v>
       </c>
       <c r="O130">
-        <v>0.615171326487669</v>
+        <v>0.6151713264876461</v>
       </c>
       <c r="P130">
         <v>0.844001875828278</v>
@@ -7193,10 +7193,10 @@
         <v>0.355202105074889</v>
       </c>
       <c r="O131">
-        <v>0.612837827060547</v>
+        <v>0.6128378270600781</v>
       </c>
       <c r="P131">
-        <v>0.382189725486962</v>
+        <v>0.382189725486947</v>
       </c>
     </row>
     <row r="132">
@@ -7245,10 +7245,10 @@
         <v>0.777543454956961</v>
       </c>
       <c r="O132">
-        <v>0.622983694685202</v>
+        <v>0.622983694684886</v>
       </c>
       <c r="P132">
-        <v>0.5149156323035849</v>
+        <v>0.514915632303585</v>
       </c>
     </row>
     <row r="133">
@@ -7297,10 +7297,10 @@
         <v>0.696423132998821</v>
       </c>
       <c r="O133">
-        <v>0.605448582845497</v>
+        <v>0.605448582845491</v>
       </c>
       <c r="P133">
-        <v>0.615011947546665</v>
+        <v>0.615011947546642</v>
       </c>
     </row>
     <row r="134">
@@ -7349,10 +7349,10 @@
         <v>0.444317846092377</v>
       </c>
       <c r="O134">
-        <v>0.629042723396155</v>
+        <v>0.629042723396169</v>
       </c>
       <c r="P134">
-        <v>0.422783912922762</v>
+        <v>0.422783912922756</v>
       </c>
     </row>
     <row r="135">
@@ -7380,7 +7380,7 @@
         <v>0.197551081132222</v>
       </c>
       <c r="H135">
-        <v>0.5403496370831909</v>
+        <v>0.540349637083191</v>
       </c>
       <c r="I135">
         <v>1</v>
@@ -7401,10 +7401,10 @@
         <v>0.415929727333706</v>
       </c>
       <c r="O135">
-        <v>0.602916495697848</v>
+        <v>0.602916495697853</v>
       </c>
       <c r="P135">
-        <v>0.436544169696231</v>
+        <v>0.43654416969623</v>
       </c>
     </row>
     <row r="136">
@@ -7453,10 +7453,10 @@
         <v>0.713047723822171</v>
       </c>
       <c r="O136">
-        <v>0.609015846425767</v>
+        <v>0.609015846425763</v>
       </c>
       <c r="P136">
-        <v>0.455946696355144</v>
+        <v>0.45594669635515</v>
       </c>
     </row>
     <row r="137">
@@ -7487,7 +7487,7 @@
         <v>0.532996964138495</v>
       </c>
       <c r="I137">
-        <v>0.5520348538188909</v>
+        <v>0.552034853818891</v>
       </c>
       <c r="J137">
         <v>0.5902730464463261</v>
@@ -7505,10 +7505,10 @@
         <v>0.361730173630665</v>
       </c>
       <c r="O137">
-        <v>0.607753623021325</v>
+        <v>0.607753623021335</v>
       </c>
       <c r="P137">
-        <v>0.46758148081626</v>
+        <v>0.467581480816267</v>
       </c>
     </row>
     <row r="138">
@@ -7557,10 +7557,10 @@
         <v>0.394130868610557</v>
       </c>
       <c r="O138">
-        <v>0.612679258806669</v>
+        <v>0.612679258806661</v>
       </c>
       <c r="P138">
-        <v>0.462803077209241</v>
+        <v>0.462803077209202</v>
       </c>
     </row>
     <row r="139">
@@ -7713,7 +7713,7 @@
         <v>0.285877455196624</v>
       </c>
       <c r="O141">
-        <v>0.5171690689491349</v>
+        <v>0.517169068949135</v>
       </c>
       <c r="P141">
         <v>0.45708366932315</v>
@@ -8129,7 +8129,7 @@
         <v>0.418349925926201</v>
       </c>
       <c r="O149">
-        <v>0.58063288449001</v>
+        <v>0.5806328844900101</v>
       </c>
       <c r="P149">
         <v>0.516706221003625</v>
@@ -8444,7 +8444,7 @@
         <v>0.656579212223289</v>
       </c>
       <c r="P155">
-        <v>0.6742796949934839</v>
+        <v>0.674279694993484</v>
       </c>
     </row>
     <row r="156">
@@ -9068,7 +9068,7 @@
         <v>0.569377882089227</v>
       </c>
       <c r="P167">
-        <v>0.564833792309765</v>
+        <v>0.5648337923097651</v>
       </c>
     </row>
     <row r="168">
@@ -9114,7 +9114,7 @@
         <v>0.456703559973229</v>
       </c>
       <c r="N168">
-        <v>0.5230916974848659</v>
+        <v>0.523091697484866</v>
       </c>
       <c r="O168">
         <v>0.587071744027575</v>
@@ -9169,7 +9169,7 @@
         <v>0.330313782660558</v>
       </c>
       <c r="O169">
-        <v>0.5784716245135419</v>
+        <v>0.578471624513542</v>
       </c>
       <c r="P169">
         <v>0.643295791955662</v>
@@ -9533,7 +9533,7 @@
         <v>0.464162548288665</v>
       </c>
       <c r="O176">
-        <v>0.621986046553119</v>
+        <v>0.621986046553611</v>
       </c>
       <c r="P176">
         <v>0.453076816865182</v>
@@ -9585,10 +9585,10 @@
         <v>0.125244555601437</v>
       </c>
       <c r="O177">
-        <v>0.6325139564309</v>
+        <v>0.632513956430927</v>
       </c>
       <c r="P177">
-        <v>0.14767494386128</v>
+        <v>0.147674943861279</v>
       </c>
     </row>
     <row r="178">
@@ -9637,10 +9637,10 @@
         <v>0.737376132420409</v>
       </c>
       <c r="O178">
-        <v>0.619315410480423</v>
+        <v>0.619315410480426</v>
       </c>
       <c r="P178">
-        <v>0.614855086586868</v>
+        <v>0.6148550865868661</v>
       </c>
     </row>
     <row r="179">
@@ -9689,10 +9689,10 @@
         <v>0.80441478989174</v>
       </c>
       <c r="O179">
-        <v>0.612887394021713</v>
+        <v>0.612887394021751</v>
       </c>
       <c r="P179">
-        <v>0.386872893102324</v>
+        <v>0.386872893102323</v>
       </c>
     </row>
     <row r="180">
@@ -9741,10 +9741,10 @@
         <v>0.319929160052106</v>
       </c>
       <c r="O180">
-        <v>0.627134394780012</v>
+        <v>0.627134394779714</v>
       </c>
       <c r="P180">
-        <v>0.657853970148037</v>
+        <v>0.657853970148035</v>
       </c>
     </row>
     <row r="181">
@@ -9793,10 +9793,10 @@
         <v>0.602229423403864</v>
       </c>
       <c r="O181">
-        <v>0.632938263068806</v>
+        <v>0.632938263068646</v>
       </c>
       <c r="P181">
-        <v>0.333579350720815</v>
+        <v>0.333579350720817</v>
       </c>
     </row>
     <row r="182">
@@ -9845,10 +9845,10 @@
         <v>0.435907628958442</v>
       </c>
       <c r="O182">
-        <v>0.626476716665481</v>
+        <v>0.626476716665396</v>
       </c>
       <c r="P182">
-        <v>0.588965442839995</v>
+        <v>0.588965442839994</v>
       </c>
     </row>
     <row r="183">
@@ -9897,7 +9897,7 @@
         <v>0.764212013246918</v>
       </c>
       <c r="O183">
-        <v>0.651313581626526</v>
+        <v>0.65131358162653</v>
       </c>
       <c r="P183">
         <v>0.256932680763196</v>
@@ -9949,7 +9949,7 @@
         <v>0.315360968761598</v>
       </c>
       <c r="O184">
-        <v>0.608469128237876</v>
+        <v>0.608469128237665</v>
       </c>
       <c r="P184">
         <v>0.787723088662718</v>
@@ -10001,10 +10001,10 @@
         <v>0.305828275767393</v>
       </c>
       <c r="O185">
-        <v>0.628654098891558</v>
+        <v>0.628654098891505</v>
       </c>
       <c r="P185">
-        <v>0.473650233516352</v>
+        <v>0.473650233516349</v>
       </c>
     </row>
     <row r="186">
@@ -10026,7 +10026,7 @@
         <v>0.164986366117826</v>
       </c>
       <c r="F186">
-        <v>0.07568165169908909</v>
+        <v>0.0756816516990891</v>
       </c>
       <c r="G186">
         <v>0.06710165536564811</v>
@@ -10053,7 +10053,7 @@
         <v>0.298497491615177</v>
       </c>
       <c r="O186">
-        <v>0.610307100964698</v>
+        <v>0.61030710096467</v>
       </c>
       <c r="P186">
         <v>0.65185003836366</v>
@@ -10105,7 +10105,7 @@
         <v>0.550138345691502</v>
       </c>
       <c r="O187">
-        <v>0.617463119815489</v>
+        <v>0.617463119815543</v>
       </c>
       <c r="P187">
         <v>0.498146809149807</v>
@@ -10157,10 +10157,10 @@
         <v>0.533234658807078</v>
       </c>
       <c r="O188">
-        <v>0.623529150769932</v>
+        <v>0.62352915076981</v>
       </c>
       <c r="P188">
-        <v>0.287298999534727</v>
+        <v>0.287298999534725</v>
       </c>
     </row>
     <row r="189">
@@ -10209,10 +10209,10 @@
         <v>0.936771965250389</v>
       </c>
       <c r="O189">
-        <v>0.6208984804626489</v>
+        <v>0.62089848046258</v>
       </c>
       <c r="P189">
-        <v>0.362596664942005</v>
+        <v>0.362596664942004</v>
       </c>
     </row>
     <row r="190">
@@ -10261,10 +10261,10 @@
         <v>0.590610640681373</v>
       </c>
       <c r="O190">
-        <v>0.6190388785312529</v>
+        <v>0.61903887853122</v>
       </c>
       <c r="P190">
-        <v>0.2958120143762</v>
+        <v>0.295812014376198</v>
       </c>
     </row>
     <row r="191">
@@ -10313,7 +10313,7 @@
         <v>0.59718918824625</v>
       </c>
       <c r="O191">
-        <v>0.615854082482025</v>
+        <v>0.615854082481997</v>
       </c>
       <c r="P191">
         <v>0.180297912096657</v>
@@ -10365,10 +10365,10 @@
         <v>0.451527492352328</v>
       </c>
       <c r="O192">
-        <v>0.618566489214803</v>
+        <v>0.618566489214782</v>
       </c>
       <c r="P192">
-        <v>0.5253264498449171</v>
+        <v>0.5253264498449151</v>
       </c>
     </row>
     <row r="193">
@@ -10417,7 +10417,7 @@
         <v>0.191930708458236</v>
       </c>
       <c r="O193">
-        <v>0.606034716011283</v>
+        <v>0.606034716011145</v>
       </c>
       <c r="P193">
         <v>0.127939219625821</v>
@@ -10469,7 +10469,7 @@
         <v>0.389990534005698</v>
       </c>
       <c r="O194">
-        <v>0.602279093721683</v>
+        <v>0.602279093721665</v>
       </c>
       <c r="P194">
         <v>0.780244724409016</v>
@@ -10521,7 +10521,7 @@
         <v>0.351768316348489</v>
       </c>
       <c r="O195">
-        <v>0.626440812876651</v>
+        <v>0.6264408128765671</v>
       </c>
       <c r="P195">
         <v>0.388922357211108</v>
@@ -10567,13 +10567,13 @@
         <v>0.799419944615765</v>
       </c>
       <c r="M196">
-        <v>0.595653994210888</v>
+        <v>0.5956539942108881</v>
       </c>
       <c r="N196">
         <v>0.5986397888431499</v>
       </c>
       <c r="O196">
-        <v>0.637812302479544</v>
+        <v>0.637812302479391</v>
       </c>
       <c r="P196">
         <v>0.7112826089451521</v>
@@ -10625,10 +10625,10 @@
         <v>0.478658582311208</v>
       </c>
       <c r="O197">
-        <v>0.6195150316697809</v>
+        <v>0.619515031669662</v>
       </c>
       <c r="P197">
-        <v>0.406292814376977</v>
+        <v>0.406292814376975</v>
       </c>
     </row>
     <row r="198">
@@ -10677,10 +10677,10 @@
         <v>0.414985899325756</v>
       </c>
       <c r="O198">
-        <v>0.6233660582482879</v>
+        <v>0.623366058248212</v>
       </c>
       <c r="P198">
-        <v>0.282153317178703</v>
+        <v>0.282153317178704</v>
       </c>
     </row>
     <row r="199">
@@ -10708,7 +10708,7 @@
         <v>0.228985492419309</v>
       </c>
       <c r="H199">
-        <v>0.537052892972614</v>
+        <v>0.5370528929726141</v>
       </c>
       <c r="I199">
         <v>1</v>
@@ -10729,7 +10729,7 @@
         <v>0.642004238143874</v>
       </c>
       <c r="O199">
-        <v>0.598111806719422</v>
+        <v>0.598111806719396</v>
       </c>
       <c r="P199">
         <v>0.381846153684017</v>
@@ -10781,7 +10781,7 @@
         <v>0.483338333489423</v>
       </c>
       <c r="O200">
-        <v>0.628334295704037</v>
+        <v>0.628334295703987</v>
       </c>
       <c r="P200">
         <v>0.303222465512177</v>
@@ -10833,7 +10833,7 @@
         <v>0.591042421378565</v>
       </c>
       <c r="O201">
-        <v>0.629146123476192</v>
+        <v>0.629146123476126</v>
       </c>
       <c r="P201">
         <v>0.364383326000141</v>
@@ -10885,7 +10885,7 @@
         <v>1</v>
       </c>
       <c r="O202">
-        <v>0.621932120956694</v>
+        <v>0.621932120956707</v>
       </c>
       <c r="P202">
         <v>0.213529130165398</v>
@@ -10937,7 +10937,7 @@
         <v>0.769669627717009</v>
       </c>
       <c r="O203">
-        <v>0.616746884792108</v>
+        <v>0.616746884792224</v>
       </c>
       <c r="P203">
         <v>0.389520993373633</v>
@@ -10980,7 +10980,7 @@
         <v>0.549366608790578</v>
       </c>
       <c r="L204">
-        <v>0.5226218799889339</v>
+        <v>0.522621879988934</v>
       </c>
       <c r="M204">
         <v>0.158417666405995</v>
@@ -10989,10 +10989,10 @@
         <v>0.5538801364352119</v>
       </c>
       <c r="O204">
-        <v>0.624173948432452</v>
+        <v>0.624173948432439</v>
       </c>
       <c r="P204">
-        <v>0.721790603966371</v>
+        <v>0.721790603966374</v>
       </c>
     </row>
     <row r="205">
@@ -11041,7 +11041,7 @@
         <v>0.3931994191603</v>
       </c>
       <c r="O205">
-        <v>0.615214226740077</v>
+        <v>0.615214226740029</v>
       </c>
       <c r="P205">
         <v>0.595810091008351</v>
@@ -11093,10 +11093,10 @@
         <v>0.966367203420501</v>
       </c>
       <c r="O206">
-        <v>0.617410403435823</v>
+        <v>0.6174104034357401</v>
       </c>
       <c r="P206">
-        <v>0.489234257499929</v>
+        <v>0.489234257499927</v>
       </c>
     </row>
     <row r="207">
@@ -11145,10 +11145,10 @@
         <v>0.290782001955544</v>
       </c>
       <c r="O207">
-        <v>0.6288992052344829</v>
+        <v>0.62889920523414</v>
       </c>
       <c r="P207">
-        <v>0.431741011685145</v>
+        <v>0.431741011685144</v>
       </c>
     </row>
     <row r="208">
@@ -11197,10 +11197,10 @@
         <v>0.340015690225009</v>
       </c>
       <c r="O208">
-        <v>0.633408302402839</v>
+        <v>0.633408302402805</v>
       </c>
       <c r="P208">
-        <v>0.342763649583148</v>
+        <v>0.34276364958315</v>
       </c>
     </row>
     <row r="209">
@@ -11237,7 +11237,7 @@
         <v>0.22797469085547</v>
       </c>
       <c r="K209">
-        <v>0.635676603681339</v>
+        <v>0.6356766036813391</v>
       </c>
       <c r="L209">
         <v>0.313835280753007</v>
@@ -11246,13 +11246,13 @@
         <v>0.202037929596221</v>
       </c>
       <c r="N209">
-        <v>0.522465649961472</v>
+        <v>0.5224656499614721</v>
       </c>
       <c r="O209">
-        <v>0.6140367263632061</v>
+        <v>0.6140367263632</v>
       </c>
       <c r="P209">
-        <v>0.33859781962113</v>
+        <v>0.338597819621131</v>
       </c>
     </row>
     <row r="210">
@@ -11301,10 +11301,10 @@
         <v>0.285829751870982</v>
       </c>
       <c r="O210">
-        <v>0.624274450333381</v>
+        <v>0.6242744503334921</v>
       </c>
       <c r="P210">
-        <v>0.390872258761389</v>
+        <v>0.39087225876139</v>
       </c>
     </row>
     <row r="211">
@@ -11341,7 +11341,7 @@
         <v>0.521445246321549</v>
       </c>
       <c r="K211">
-        <v>0.529595580456739</v>
+        <v>0.5295955804567391</v>
       </c>
       <c r="L211">
         <v>0.250805103229732</v>
@@ -11353,10 +11353,10 @@
         <v>0.5457309568386171</v>
       </c>
       <c r="O211">
-        <v>0.622956930780366</v>
+        <v>0.622956930780318</v>
       </c>
       <c r="P211">
-        <v>0.378633555858671</v>
+        <v>0.37863355585867</v>
       </c>
     </row>
     <row r="212">
@@ -11405,10 +11405,10 @@
         <v>0.407337405300057</v>
       </c>
       <c r="O212">
-        <v>0.637242014000048</v>
+        <v>0.637242014000075</v>
       </c>
       <c r="P212">
-        <v>0.653090371583891</v>
+        <v>0.6530903715838931</v>
       </c>
     </row>
     <row r="213">
@@ -11457,10 +11457,10 @@
         <v>0.448671148851241</v>
       </c>
       <c r="O213">
-        <v>0.623033732065789</v>
+        <v>0.623033732065616</v>
       </c>
       <c r="P213">
-        <v>0.455231861138</v>
+        <v>0.455231861138001</v>
       </c>
     </row>
     <row r="214">
@@ -11509,10 +11509,10 @@
         <v>1</v>
       </c>
       <c r="O214">
-        <v>0.612530432255231</v>
+        <v>0.612530432255223</v>
       </c>
       <c r="P214">
-        <v>0.903108855620379</v>
+        <v>0.903108855620386</v>
       </c>
     </row>
     <row r="215">
@@ -11546,7 +11546,7 @@
         <v>0.384409754597982</v>
       </c>
       <c r="J215">
-        <v>0.6157656454917479</v>
+        <v>0.615765645491748</v>
       </c>
       <c r="K215">
         <v>1</v>
@@ -11558,10 +11558,10 @@
         <v>0.264218231932092</v>
       </c>
       <c r="N215">
-        <v>0.610283391047385</v>
+        <v>0.6102833910473851</v>
       </c>
       <c r="O215">
-        <v>0.613358699224704</v>
+        <v>0.613358699224667</v>
       </c>
       <c r="P215">
         <v>0.474050460322005</v>
@@ -11580,7 +11580,7 @@
         <v>0.447820028144984</v>
       </c>
       <c r="D216">
-        <v>0.550256786997333</v>
+        <v>0.5502567869973331</v>
       </c>
       <c r="E216">
         <v>0.391311512722622</v>
@@ -11601,7 +11601,7 @@
         <v>0.609695219728205</v>
       </c>
       <c r="K216">
-        <v>0.5602518973470429</v>
+        <v>0.560251897347043</v>
       </c>
       <c r="L216">
         <v>1</v>
@@ -11613,10 +11613,10 @@
         <v>1</v>
       </c>
       <c r="O216">
-        <v>0.616448076750169</v>
+        <v>0.616448076750144</v>
       </c>
       <c r="P216">
-        <v>0.278779314251203</v>
+        <v>0.278779314251204</v>
       </c>
     </row>
     <row r="217">
@@ -11665,7 +11665,7 @@
         <v>0.332932265823715</v>
       </c>
       <c r="O217">
-        <v>0.6157888488839059</v>
+        <v>0.615788848883863</v>
       </c>
       <c r="P217">
         <v>0.762834239330226</v>
@@ -11717,7 +11717,7 @@
         <v>0.355698859797973</v>
       </c>
       <c r="O218">
-        <v>0.611273573875506</v>
+        <v>0.611273573875288</v>
       </c>
       <c r="P218">
         <v>0.429297803627561</v>
@@ -11769,10 +11769,10 @@
         <v>0.77245362887976</v>
       </c>
       <c r="O219">
-        <v>0.625233794919574</v>
+        <v>0.625233794919561</v>
       </c>
       <c r="P219">
-        <v>0.40159434647874</v>
+        <v>0.401594346478743</v>
       </c>
     </row>
     <row r="220">
@@ -11821,10 +11821,10 @@
         <v>1</v>
       </c>
       <c r="O220">
-        <v>0.605350651737216</v>
+        <v>0.605350651737213</v>
       </c>
       <c r="P220">
-        <v>0.500397622799447</v>
+        <v>0.50039762279945</v>
       </c>
     </row>
     <row r="221">
@@ -11873,7 +11873,7 @@
         <v>0.374354264203206</v>
       </c>
       <c r="O221">
-        <v>0.629210862840458</v>
+        <v>0.6292108628405541</v>
       </c>
       <c r="P221">
         <v>0.368732661162695</v>
@@ -11919,13 +11919,13 @@
         <v>0.279222220549824</v>
       </c>
       <c r="M222">
-        <v>0.5145730411508</v>
+        <v>0.5145730411508001</v>
       </c>
       <c r="N222">
         <v>0.4067618330914</v>
       </c>
       <c r="O222">
-        <v>0.604629346420765</v>
+        <v>0.604629346420694</v>
       </c>
       <c r="P222">
         <v>0.485606796370064</v>
@@ -11977,10 +11977,10 @@
         <v>0.554329950429769</v>
       </c>
       <c r="O223">
-        <v>0.611033901386677</v>
+        <v>0.611033901386667</v>
       </c>
       <c r="P223">
-        <v>0.35493041871834</v>
+        <v>0.354930418718341</v>
       </c>
     </row>
     <row r="224">
@@ -12029,10 +12029,10 @@
         <v>0.35136857767257</v>
       </c>
       <c r="O224">
-        <v>0.609278304949277</v>
+        <v>0.609278304949002</v>
       </c>
       <c r="P224">
-        <v>0.438787497075606</v>
+        <v>0.438787497075605</v>
       </c>
     </row>
     <row r="225">
@@ -12081,7 +12081,7 @@
         <v>0.36525426140215</v>
       </c>
       <c r="O225">
-        <v>0.611081692776137</v>
+        <v>0.611081692776129</v>
       </c>
       <c r="P225">
         <v>0.339642569188909</v>
@@ -12133,7 +12133,7 @@
         <v>0.358468056277523</v>
       </c>
       <c r="O226">
-        <v>0.531006120951874</v>
+        <v>0.5310061209518741</v>
       </c>
       <c r="P226">
         <v>0.565912914024544</v>
@@ -12708,7 +12708,7 @@
         <v>0.574650416761718</v>
       </c>
       <c r="P237">
-        <v>0.6318034253917409</v>
+        <v>0.631803425391741</v>
       </c>
     </row>
     <row r="238">
@@ -12809,7 +12809,7 @@
         <v>0.406627089030579</v>
       </c>
       <c r="O239">
-        <v>0.6012004275705169</v>
+        <v>0.601200427570517</v>
       </c>
       <c r="P239">
         <v>0.557935225832994</v>
@@ -13173,7 +13173,7 @@
         <v>0.306268928542117</v>
       </c>
       <c r="O246">
-        <v>0.5153362683606439</v>
+        <v>0.515336268360644</v>
       </c>
       <c r="P246">
         <v>0.4731229313344</v>
@@ -13280,7 +13280,7 @@
         <v>0.622408262919311</v>
       </c>
       <c r="P248">
-        <v>0.560447036454719</v>
+        <v>0.5604470364547191</v>
       </c>
     </row>
     <row r="249">
@@ -13800,7 +13800,7 @@
         <v>0.49435502552873</v>
       </c>
       <c r="P258">
-        <v>0.508644497097767</v>
+        <v>0.5086444970977671</v>
       </c>
     </row>
     <row r="259">
@@ -14057,10 +14057,10 @@
         <v>0.407990922872873</v>
       </c>
       <c r="O263">
-        <v>0.617690500183255</v>
+        <v>0.61769050018145</v>
       </c>
       <c r="P263">
-        <v>0.5502438094454341</v>
+        <v>0.5502438094454351</v>
       </c>
     </row>
     <row r="264">
@@ -14109,7 +14109,7 @@
         <v>0.13641713294605</v>
       </c>
       <c r="O264">
-        <v>0.630516931641514</v>
+        <v>0.630516931641036</v>
       </c>
       <c r="P264">
         <v>0.131469757581328</v>
@@ -14161,10 +14161,10 @@
         <v>0.709999160234549</v>
       </c>
       <c r="O265">
-        <v>0.6151656268919919</v>
+        <v>0.615165626889906</v>
       </c>
       <c r="P265">
-        <v>0.531784214979565</v>
+        <v>0.531784214979562</v>
       </c>
     </row>
     <row r="266">
@@ -14180,7 +14180,7 @@
         <v>0.51252585634355</v>
       </c>
       <c r="D266">
-        <v>0.876035272643727</v>
+        <v>0.8760352726437271</v>
       </c>
       <c r="E266">
         <v>0.373069600582495</v>
@@ -14213,10 +14213,10 @@
         <v>0.686701034617754</v>
       </c>
       <c r="O266">
-        <v>0.6092378538658531</v>
+        <v>0.609237853864714</v>
       </c>
       <c r="P266">
-        <v>0.472795619272138</v>
+        <v>0.472795619272134</v>
       </c>
     </row>
     <row r="267">
@@ -14265,10 +14265,10 @@
         <v>0.321083674048803</v>
       </c>
       <c r="O267">
-        <v>0.625361610787745</v>
+        <v>0.6253616107792051</v>
       </c>
       <c r="P267">
-        <v>0.644079829227767</v>
+        <v>0.644079829227763</v>
       </c>
     </row>
     <row r="268">
@@ -14317,10 +14317,10 @@
         <v>0.561716451441549</v>
       </c>
       <c r="O268">
-        <v>0.6300968832242</v>
+        <v>0.6300968832232941</v>
       </c>
       <c r="P268">
-        <v>0.302201238678994</v>
+        <v>0.302201238678995</v>
       </c>
     </row>
     <row r="269">
@@ -14369,10 +14369,10 @@
         <v>0.422986203795138</v>
       </c>
       <c r="O269">
-        <v>0.620323502416727</v>
+        <v>0.620323502415716</v>
       </c>
       <c r="P269">
-        <v>0.544849813570113</v>
+        <v>0.544849813570115</v>
       </c>
     </row>
     <row r="270">
@@ -14421,10 +14421,10 @@
         <v>0.816412436632277</v>
       </c>
       <c r="O270">
-        <v>0.6456121020201741</v>
+        <v>0.645612102020005</v>
       </c>
       <c r="P270">
-        <v>0.364630978853141</v>
+        <v>0.364630978853139</v>
       </c>
     </row>
     <row r="271">
@@ -14473,10 +14473,10 @@
         <v>0.342510239648775</v>
       </c>
       <c r="O271">
-        <v>0.6026568152794231</v>
+        <v>0.602656815276418</v>
       </c>
       <c r="P271">
-        <v>0.712562007313481</v>
+        <v>0.712562007313492</v>
       </c>
     </row>
     <row r="272">
@@ -14525,7 +14525,7 @@
         <v>0.29314711727461</v>
       </c>
       <c r="O272">
-        <v>0.6253418095804451</v>
+        <v>0.62534180957842</v>
       </c>
       <c r="P272">
         <v>0.530757029264413</v>
@@ -14577,10 +14577,10 @@
         <v>0.27231068141896</v>
       </c>
       <c r="O273">
-        <v>0.606965666604651</v>
+        <v>0.606965666604956</v>
       </c>
       <c r="P273">
-        <v>0.615720874644559</v>
+        <v>0.615720874644561</v>
       </c>
     </row>
     <row r="274">
@@ -14629,10 +14629,10 @@
         <v>0.522883043709801</v>
       </c>
       <c r="O274">
-        <v>0.6107681192791879</v>
+        <v>0.610768119279132</v>
       </c>
       <c r="P274">
-        <v>0.39699922444635</v>
+        <v>0.396999224446344</v>
       </c>
     </row>
     <row r="275">
@@ -14681,10 +14681,10 @@
         <v>0.500940050548633</v>
       </c>
       <c r="O275">
-        <v>0.618154523386839</v>
+        <v>0.618154523384625</v>
       </c>
       <c r="P275">
-        <v>0.350715821207814</v>
+        <v>0.350715821207815</v>
       </c>
     </row>
     <row r="276">
@@ -14709,7 +14709,7 @@
         <v>0.144871508920258</v>
       </c>
       <c r="G276">
-        <v>0.939799437205256</v>
+        <v>0.9397994372052561</v>
       </c>
       <c r="H276">
         <v>0.437696486072415</v>
@@ -14733,10 +14733,10 @@
         <v>0.938486079378139</v>
       </c>
       <c r="O276">
-        <v>0.613585749448744</v>
+        <v>0.6135857494428451</v>
       </c>
       <c r="P276">
-        <v>0.441605945215623</v>
+        <v>0.441605945215618</v>
       </c>
     </row>
     <row r="277">
@@ -14785,10 +14785,10 @@
         <v>0.522882527056324</v>
       </c>
       <c r="O277">
-        <v>0.617105723382866</v>
+        <v>0.617105723382448</v>
       </c>
       <c r="P277">
-        <v>0.270240901144232</v>
+        <v>0.270240901144234</v>
       </c>
     </row>
     <row r="278">
@@ -14837,10 +14837,10 @@
         <v>0.446198338951764</v>
       </c>
       <c r="O278">
-        <v>0.609007557508119</v>
+        <v>0.609007557509144</v>
       </c>
       <c r="P278">
-        <v>0.269404080287287</v>
+        <v>0.269404080287284</v>
       </c>
     </row>
     <row r="279">
@@ -14889,10 +14889,10 @@
         <v>0.361141256544866</v>
       </c>
       <c r="O279">
-        <v>0.6162385049603269</v>
+        <v>0.61623850495983</v>
       </c>
       <c r="P279">
-        <v>0.485647899977425</v>
+        <v>0.485647899977423</v>
       </c>
     </row>
     <row r="280">
@@ -14941,7 +14941,7 @@
         <v>0.172853944169995</v>
       </c>
       <c r="O280">
-        <v>0.602602860624287</v>
+        <v>0.602602860623734</v>
       </c>
       <c r="P280">
         <v>0.148714629668468</v>
@@ -14993,7 +14993,7 @@
         <v>0.336565108153657</v>
       </c>
       <c r="O281">
-        <v>0.596557554374915</v>
+        <v>0.596557554373462</v>
       </c>
       <c r="P281">
         <v>0.68117416734753</v>
@@ -15045,10 +15045,10 @@
         <v>0.389858366705706</v>
       </c>
       <c r="O282">
-        <v>0.623010975283653</v>
+        <v>0.6230109752823571</v>
       </c>
       <c r="P282">
-        <v>0.39299240386832</v>
+        <v>0.392992403868318</v>
       </c>
     </row>
     <row r="283">
@@ -15097,10 +15097,10 @@
         <v>0.549639942649313</v>
       </c>
       <c r="O283">
-        <v>0.632067075127108</v>
+        <v>0.632067075124092</v>
       </c>
       <c r="P283">
-        <v>0.624372926125118</v>
+        <v>0.624372926125123</v>
       </c>
     </row>
     <row r="284">
@@ -15149,10 +15149,10 @@
         <v>0.440941094396085</v>
       </c>
       <c r="O284">
-        <v>0.612486790432174</v>
+        <v>0.612486790430361</v>
       </c>
       <c r="P284">
-        <v>0.377152993136092</v>
+        <v>0.377152993136088</v>
       </c>
     </row>
     <row r="285">
@@ -15189,7 +15189,7 @@
         <v>0.475093286800529</v>
       </c>
       <c r="K285">
-        <v>0.531253587964659</v>
+        <v>0.5312535879646591</v>
       </c>
       <c r="L285">
         <v>0.459323113945173</v>
@@ -15201,10 +15201,10 @@
         <v>0.479090304732797</v>
       </c>
       <c r="O285">
-        <v>0.620767830609361</v>
+        <v>0.620767830610947</v>
       </c>
       <c r="P285">
-        <v>0.318567357107846</v>
+        <v>0.318567357107843</v>
       </c>
     </row>
     <row r="286">
@@ -15253,10 +15253,10 @@
         <v>0.622048130370731</v>
       </c>
       <c r="O286">
-        <v>0.593439270581483</v>
+        <v>0.593439270581115</v>
       </c>
       <c r="P286">
-        <v>0.489960326351338</v>
+        <v>0.489960326351345</v>
       </c>
     </row>
     <row r="287">
@@ -15284,7 +15284,7 @@
         <v>0.382101467275613</v>
       </c>
       <c r="H287">
-        <v>0.5699993594173099</v>
+        <v>0.56999935941731</v>
       </c>
       <c r="I287">
         <v>0.917267772536647</v>
@@ -15305,10 +15305,10 @@
         <v>0.439652307141949</v>
       </c>
       <c r="O287">
-        <v>0.6250374761846</v>
+        <v>0.625037476183558</v>
       </c>
       <c r="P287">
-        <v>0.367595640793932</v>
+        <v>0.36759564079393</v>
       </c>
     </row>
     <row r="288">
@@ -15357,7 +15357,7 @@
         <v>0.562680742470279</v>
       </c>
       <c r="O288">
-        <v>0.624168034051845</v>
+        <v>0.624168034052406</v>
       </c>
       <c r="P288">
         <v>0.376868380528691</v>
@@ -15409,10 +15409,10 @@
         <v>1</v>
       </c>
       <c r="O289">
-        <v>0.614482595436316</v>
+        <v>0.614482595435724</v>
       </c>
       <c r="P289">
-        <v>0.351787462716159</v>
+        <v>0.351787462716162</v>
       </c>
     </row>
     <row r="290">
@@ -15449,7 +15449,7 @@
         <v>0.28127596000688</v>
       </c>
       <c r="K290">
-        <v>0.09135568175534819</v>
+        <v>0.0913556817553482</v>
       </c>
       <c r="L290">
         <v>0.165842338931087</v>
@@ -15461,10 +15461,10 @@
         <v>0.892308270181148</v>
       </c>
       <c r="O290">
-        <v>0.616162226992463</v>
+        <v>0.6161622269913361</v>
       </c>
       <c r="P290">
-        <v>0.362745836207552</v>
+        <v>0.36274583620755</v>
       </c>
     </row>
     <row r="291">
@@ -15513,7 +15513,7 @@
         <v>0.568176175646722</v>
       </c>
       <c r="O291">
-        <v>0.616708796206645</v>
+        <v>0.6167087962071111</v>
       </c>
       <c r="P291">
         <v>0.748432533755885</v>
@@ -15541,7 +15541,7 @@
         <v>0.196381278842018</v>
       </c>
       <c r="G292">
-        <v>0.705442094008439</v>
+        <v>0.7054420940084391</v>
       </c>
       <c r="H292">
         <v>0.242089595260775</v>
@@ -15565,10 +15565,10 @@
         <v>0.408055140209943</v>
       </c>
       <c r="O292">
-        <v>0.609240777874118</v>
+        <v>0.609240777872502</v>
       </c>
       <c r="P292">
-        <v>0.560872524026053</v>
+        <v>0.560872524026048</v>
       </c>
     </row>
     <row r="293">
@@ -15617,10 +15617,10 @@
         <v>0.906044595126733</v>
       </c>
       <c r="O293">
-        <v>0.614900157375197</v>
+        <v>0.614900157375487</v>
       </c>
       <c r="P293">
-        <v>0.450002738594773</v>
+        <v>0.45000273859477</v>
       </c>
     </row>
     <row r="294">
@@ -15669,10 +15669,10 @@
         <v>0.253845550618136</v>
       </c>
       <c r="O294">
-        <v>0.620509258297808</v>
+        <v>0.62050925829354</v>
       </c>
       <c r="P294">
-        <v>0.428026219701282</v>
+        <v>0.428026219701275</v>
       </c>
     </row>
     <row r="295">
@@ -15721,10 +15721,10 @@
         <v>0.326879031476763</v>
       </c>
       <c r="O295">
-        <v>0.628659258283666</v>
+        <v>0.628659258282804</v>
       </c>
       <c r="P295">
-        <v>0.340629067645348</v>
+        <v>0.340629067645351</v>
       </c>
     </row>
     <row r="296">
@@ -15749,7 +15749,7 @@
         <v>0.160346241126739</v>
       </c>
       <c r="G296">
-        <v>0.08859367130318579</v>
+        <v>0.0885936713031858</v>
       </c>
       <c r="H296">
         <v>0.75873357166169</v>
@@ -15773,10 +15773,10 @@
         <v>0.497575171653647</v>
       </c>
       <c r="O296">
-        <v>0.607192991812451</v>
+        <v>0.607192991812972</v>
       </c>
       <c r="P296">
-        <v>0.469390522798666</v>
+        <v>0.469390522798672</v>
       </c>
     </row>
     <row r="297">
@@ -15825,10 +15825,10 @@
         <v>0.264606109200167</v>
       </c>
       <c r="O297">
-        <v>0.6196581520500341</v>
+        <v>0.619658152053754</v>
       </c>
       <c r="P297">
-        <v>0.378825890846116</v>
+        <v>0.37882589084612</v>
       </c>
     </row>
     <row r="298">
@@ -15877,10 +15877,10 @@
         <v>0.561413246918726</v>
       </c>
       <c r="O298">
-        <v>0.619388534801279</v>
+        <v>0.619388534798167</v>
       </c>
       <c r="P298">
-        <v>0.343395442305886</v>
+        <v>0.343395442305894</v>
       </c>
     </row>
     <row r="299">
@@ -15929,10 +15929,10 @@
         <v>0.384350024149567</v>
       </c>
       <c r="O299">
-        <v>0.634154662651891</v>
+        <v>0.634154662651196</v>
       </c>
       <c r="P299">
-        <v>0.655268168532908</v>
+        <v>0.655268168532909</v>
       </c>
     </row>
     <row r="300">
@@ -15981,7 +15981,7 @@
         <v>0.457240969127777</v>
       </c>
       <c r="O300">
-        <v>0.617890440366859</v>
+        <v>0.617890440364655</v>
       </c>
       <c r="P300">
         <v>0.508982224159098</v>
@@ -16033,7 +16033,7 @@
         <v>0.8929863367446</v>
       </c>
       <c r="O301">
-        <v>0.607890385714063</v>
+        <v>0.607890385715025</v>
       </c>
       <c r="P301">
         <v>0.766378590650443</v>
@@ -16085,7 +16085,7 @@
         <v>0.575846023889855</v>
       </c>
       <c r="O302">
-        <v>0.606380361180399</v>
+        <v>0.6063803611811091</v>
       </c>
       <c r="P302">
         <v>0.62060226689445</v>
@@ -16137,10 +16137,10 @@
         <v>1</v>
       </c>
       <c r="O303">
-        <v>0.614263160556378</v>
+        <v>0.614263160556624</v>
       </c>
       <c r="P303">
-        <v>0.434224002590676</v>
+        <v>0.434224002590672</v>
       </c>
     </row>
     <row r="304">
@@ -16189,10 +16189,10 @@
         <v>0.320811727235102</v>
       </c>
       <c r="O304">
-        <v>0.609739289001212</v>
+        <v>0.609739288998944</v>
       </c>
       <c r="P304">
-        <v>0.6003253879249441</v>
+        <v>0.6003253879249551</v>
       </c>
     </row>
     <row r="305">
@@ -16241,10 +16241,10 @@
         <v>0.340361445796656</v>
       </c>
       <c r="O305">
-        <v>0.607373188532115</v>
+        <v>0.607373188532884</v>
       </c>
       <c r="P305">
-        <v>0.453721111196452</v>
+        <v>0.453721111196454</v>
       </c>
     </row>
     <row r="306">
@@ -16290,13 +16290,13 @@
         <v>0.780863871415332</v>
       </c>
       <c r="N306">
-        <v>0.891892021082561</v>
+        <v>0.8918920210825611</v>
       </c>
       <c r="O306">
-        <v>0.620255268477659</v>
+        <v>0.620255268477189</v>
       </c>
       <c r="P306">
-        <v>0.366802940279038</v>
+        <v>0.366802940279041</v>
       </c>
     </row>
     <row r="307">
@@ -16342,13 +16342,13 @@
         <v>0.234903486842808</v>
       </c>
       <c r="N307">
-        <v>0.8520758581333649</v>
+        <v>0.852075858133365</v>
       </c>
       <c r="O307">
-        <v>0.596527624407707</v>
+        <v>0.596527624407617</v>
       </c>
       <c r="P307">
-        <v>0.487113806577655</v>
+        <v>0.487113806577657</v>
       </c>
     </row>
     <row r="308">
@@ -16397,10 +16397,10 @@
         <v>0.347916928511322</v>
       </c>
       <c r="O308">
-        <v>0.624365435471678</v>
+        <v>0.624365435470053</v>
       </c>
       <c r="P308">
-        <v>0.317340920716034</v>
+        <v>0.317340920716035</v>
       </c>
     </row>
     <row r="309">
@@ -16449,10 +16449,10 @@
         <v>0.387800882352145</v>
       </c>
       <c r="O309">
-        <v>0.599714823868284</v>
+        <v>0.599714823868159</v>
       </c>
       <c r="P309">
-        <v>0.498517594048389</v>
+        <v>0.498517594048391</v>
       </c>
     </row>
     <row r="310">
@@ -16501,10 +16501,10 @@
         <v>0.648796663218102</v>
       </c>
       <c r="O310">
-        <v>0.605426212599911</v>
+        <v>0.605426212599673</v>
       </c>
       <c r="P310">
-        <v>0.34863877512971</v>
+        <v>0.348638775129706</v>
       </c>
     </row>
     <row r="311">
@@ -16535,7 +16535,7 @@
         <v>0.425115065581789</v>
       </c>
       <c r="I311">
-        <v>0.5736719118835309</v>
+        <v>0.573671911883531</v>
       </c>
       <c r="J311">
         <v>0.602120696477327</v>
@@ -16553,10 +16553,10 @@
         <v>0.344888258937749</v>
       </c>
       <c r="O311">
-        <v>0.605712836702751</v>
+        <v>0.605712836696618</v>
       </c>
       <c r="P311">
-        <v>0.445318897902076</v>
+        <v>0.445318897902078</v>
       </c>
     </row>
     <row r="312">
@@ -16605,10 +16605,10 @@
         <v>0.34820601057709</v>
       </c>
       <c r="O312">
-        <v>0.608647746446374</v>
+        <v>0.608647746445649</v>
       </c>
       <c r="P312">
-        <v>0.419038802214669</v>
+        <v>0.419038802214665</v>
       </c>
     </row>
     <row r="313">
@@ -17024,7 +17024,7 @@
         <v>0.659438130091463</v>
       </c>
       <c r="P320">
-        <v>0.586766501210307</v>
+        <v>0.5867665012103071</v>
       </c>
     </row>
     <row r="321">
@@ -17856,7 +17856,7 @@
         <v>0.589254172890925</v>
       </c>
       <c r="P336">
-        <v>0.6712808060036169</v>
+        <v>0.671280806003617</v>
       </c>
     </row>
     <row r="337">
@@ -18190,7 +18190,7 @@
         <v>0.346461852028744</v>
       </c>
       <c r="F343">
-        <v>0.5308784715949439</v>
+        <v>0.530878471594944</v>
       </c>
       <c r="G343">
         <v>0.346383262880335</v>
@@ -18581,10 +18581,10 @@
         <v>0.466202174136031</v>
       </c>
       <c r="O350">
-        <v>0.611518848276269</v>
+        <v>0.611518848275561</v>
       </c>
       <c r="P350">
-        <v>0.657617047822356</v>
+        <v>0.657617047822313</v>
       </c>
     </row>
     <row r="351">
@@ -18600,7 +18600,7 @@
         <v>0.33576517869342</v>
       </c>
       <c r="D351">
-        <v>0.808122837843479</v>
+        <v>0.8081228378434791</v>
       </c>
       <c r="E351">
         <v>0.350864698794512</v>
@@ -18633,10 +18633,10 @@
         <v>0.155743348699262</v>
       </c>
       <c r="O351">
-        <v>0.621693583273475</v>
+        <v>0.62169358327376</v>
       </c>
       <c r="P351">
-        <v>0.103388126398094</v>
+        <v>0.103388126398097</v>
       </c>
     </row>
     <row r="352">
@@ -18667,7 +18667,7 @@
         <v>0.244904379120783</v>
       </c>
       <c r="I352">
-        <v>0.7555344818954129</v>
+        <v>0.755534481895413</v>
       </c>
       <c r="J352">
         <v>0.329189781684569</v>
@@ -18682,13 +18682,13 @@
         <v>0.558186791057684</v>
       </c>
       <c r="N352">
-        <v>0.709826269983945</v>
+        <v>0.7098262699839451</v>
       </c>
       <c r="O352">
-        <v>0.610032953967389</v>
+        <v>0.610032953967545</v>
       </c>
       <c r="P352">
-        <v>0.646439258307582</v>
+        <v>0.646439258307595</v>
       </c>
     </row>
     <row r="353">
@@ -18737,10 +18737,10 @@
         <v>0.561342803902405</v>
       </c>
       <c r="O353">
-        <v>0.601026536398563</v>
+        <v>0.601026536398932</v>
       </c>
       <c r="P353">
-        <v>0.59098391516336</v>
+        <v>0.5909839151633201</v>
       </c>
     </row>
     <row r="354">
@@ -18789,10 +18789,10 @@
         <v>0.314704789751315</v>
       </c>
       <c r="O354">
-        <v>0.6185690430090079</v>
+        <v>0.618569043011886</v>
       </c>
       <c r="P354">
-        <v>0.678412401949081</v>
+        <v>0.678412401949107</v>
       </c>
     </row>
     <row r="355">
@@ -18841,10 +18841,10 @@
         <v>0.569261734480995</v>
       </c>
       <c r="O355">
-        <v>0.621424217579204</v>
+        <v>0.62142421757962</v>
       </c>
       <c r="P355">
-        <v>0.345149819876308</v>
+        <v>0.345149819876298</v>
       </c>
     </row>
     <row r="356">
@@ -18893,10 +18893,10 @@
         <v>0.435014539233967</v>
       </c>
       <c r="O356">
-        <v>0.615721629296283</v>
+        <v>0.615721629296523</v>
       </c>
       <c r="P356">
-        <v>0.549801882792025</v>
+        <v>0.5498018827919851</v>
       </c>
     </row>
     <row r="357">
@@ -18945,10 +18945,10 @@
         <v>0.83282138833468</v>
       </c>
       <c r="O357">
-        <v>0.63120493073051</v>
+        <v>0.631204930730628</v>
       </c>
       <c r="P357">
-        <v>0.471691138808108</v>
+        <v>0.471691138808044</v>
       </c>
     </row>
     <row r="358">
@@ -18997,10 +18997,10 @@
         <v>0.390998640984515</v>
       </c>
       <c r="O358">
-        <v>0.59253498298547</v>
+        <v>0.592534982986122</v>
       </c>
       <c r="P358">
-        <v>0.659390266473591</v>
+        <v>0.659390266473605</v>
       </c>
     </row>
     <row r="359">
@@ -19049,10 +19049,10 @@
         <v>0.279952756130706</v>
       </c>
       <c r="O359">
-        <v>0.619146981739593</v>
+        <v>0.619146981740595</v>
       </c>
       <c r="P359">
-        <v>0.5453243475274689</v>
+        <v>0.545324347527447</v>
       </c>
     </row>
     <row r="360">
@@ -19101,10 +19101,10 @@
         <v>0.286521269235516</v>
       </c>
       <c r="O360">
-        <v>0.599544672119513</v>
+        <v>0.599544672119287</v>
       </c>
       <c r="P360">
-        <v>0.552530277878146</v>
+        <v>0.552530277878119</v>
       </c>
     </row>
     <row r="361">
@@ -19153,10 +19153,10 @@
         <v>0.805192578720956</v>
       </c>
       <c r="O361">
-        <v>0.602079966992913</v>
+        <v>0.602079966992902</v>
       </c>
       <c r="P361">
-        <v>0.49198501003882</v>
+        <v>0.491985010038834</v>
       </c>
     </row>
     <row r="362">
@@ -19205,10 +19205,10 @@
         <v>0.508897569974192</v>
       </c>
       <c r="O362">
-        <v>0.6106100688239799</v>
+        <v>0.610610068824613</v>
       </c>
       <c r="P362">
-        <v>0.467517220476539</v>
+        <v>0.467517220476556</v>
       </c>
     </row>
     <row r="363">
@@ -19257,10 +19257,10 @@
         <v>0.974303490214117</v>
       </c>
       <c r="O363">
-        <v>0.607734300929994</v>
+        <v>0.607734300930328</v>
       </c>
       <c r="P363">
-        <v>0.512050532352383</v>
+        <v>0.512050532352313</v>
       </c>
     </row>
     <row r="364">
@@ -19309,10 +19309,10 @@
         <v>0.54839390814065</v>
       </c>
       <c r="O364">
-        <v>0.612588712208233</v>
+        <v>0.612588712208597</v>
       </c>
       <c r="P364">
-        <v>0.415802334544825</v>
+        <v>0.415802334544805</v>
       </c>
     </row>
     <row r="365">
@@ -19361,10 +19361,10 @@
         <v>0.402553180996254</v>
       </c>
       <c r="O365">
-        <v>0.599439952413635</v>
+        <v>0.59943995241416</v>
       </c>
       <c r="P365">
-        <v>0.256290057482613</v>
+        <v>0.256290057482632</v>
       </c>
     </row>
     <row r="366">
@@ -19413,10 +19413,10 @@
         <v>0.416092124146348</v>
       </c>
       <c r="O366">
-        <v>0.610180321635825</v>
+        <v>0.610180321636291</v>
       </c>
       <c r="P366">
-        <v>0.605361712474683</v>
+        <v>0.605361712474741</v>
       </c>
     </row>
     <row r="367">
@@ -19465,10 +19465,10 @@
         <v>0.219257863791688</v>
       </c>
       <c r="O367">
-        <v>0.596559509119549</v>
+        <v>0.596559509119396</v>
       </c>
       <c r="P367">
-        <v>0.154892183692265</v>
+        <v>0.154892183692263</v>
       </c>
     </row>
     <row r="368">
@@ -19511,16 +19511,16 @@
         <v>0.28471777861139</v>
       </c>
       <c r="M368">
-        <v>0.568556795283172</v>
+        <v>0.5685567952831721</v>
       </c>
       <c r="N368">
         <v>0.291989346793458</v>
       </c>
       <c r="O368">
-        <v>0.591619921768995</v>
+        <v>0.5916199217691081</v>
       </c>
       <c r="P368">
-        <v>0.62413930305679</v>
+        <v>0.624139303056815</v>
       </c>
     </row>
     <row r="369">
@@ -19536,7 +19536,7 @@
         <v>0.212344345669321</v>
       </c>
       <c r="D369">
-        <v>0.5744100833551919</v>
+        <v>0.574410083355192</v>
       </c>
       <c r="E369">
         <v>0.288064967078871</v>
@@ -19569,10 +19569,10 @@
         <v>0.351898281311524</v>
       </c>
       <c r="O369">
-        <v>0.617834236760885</v>
+        <v>0.61783423676177</v>
       </c>
       <c r="P369">
-        <v>0.488519920007344</v>
+        <v>0.488519920007339</v>
       </c>
     </row>
     <row r="370">
@@ -19621,10 +19621,10 @@
         <v>0.440134112487013</v>
       </c>
       <c r="O370">
-        <v>0.624709631129495</v>
+        <v>0.624709631130479</v>
       </c>
       <c r="P370">
-        <v>0.595617628271662</v>
+        <v>0.595617628271676</v>
       </c>
     </row>
     <row r="371">
@@ -19673,10 +19673,10 @@
         <v>0.498579086034423</v>
       </c>
       <c r="O371">
-        <v>0.605671241884341</v>
+        <v>0.605671241885129</v>
       </c>
       <c r="P371">
-        <v>0.473069081947067</v>
+        <v>0.473069081947044</v>
       </c>
     </row>
     <row r="372">
@@ -19725,10 +19725,10 @@
         <v>0.565860458007451</v>
       </c>
       <c r="O372">
-        <v>0.6140297152201351</v>
+        <v>0.614029715221291</v>
       </c>
       <c r="P372">
-        <v>0.368164086069015</v>
+        <v>0.368164086068938</v>
       </c>
     </row>
     <row r="373">
@@ -19777,10 +19777,10 @@
         <v>0.659055645553248</v>
       </c>
       <c r="O373">
-        <v>0.5859998931095221</v>
+        <v>0.585999893109619</v>
       </c>
       <c r="P373">
-        <v>0.619087378042941</v>
+        <v>0.619087378043043</v>
       </c>
     </row>
     <row r="374">
@@ -19829,10 +19829,10 @@
         <v>0.466800298408614</v>
       </c>
       <c r="O374">
-        <v>0.6177660908229879</v>
+        <v>0.617766090823376</v>
       </c>
       <c r="P374">
-        <v>0.549513656614412</v>
+        <v>0.549513656614429</v>
       </c>
     </row>
     <row r="375">
@@ -19881,10 +19881,10 @@
         <v>0.507096069116122</v>
       </c>
       <c r="O375">
-        <v>0.616782042129852</v>
+        <v>0.616782042129409</v>
       </c>
       <c r="P375">
-        <v>0.465904575432663</v>
+        <v>0.465904575432679</v>
       </c>
     </row>
     <row r="376">
@@ -19933,10 +19933,10 @@
         <v>1</v>
       </c>
       <c r="O376">
-        <v>0.607323591008444</v>
+        <v>0.607323591008367</v>
       </c>
       <c r="P376">
-        <v>0.331017231980459</v>
+        <v>0.331017231980456</v>
       </c>
     </row>
     <row r="377">
@@ -19985,10 +19985,10 @@
         <v>1</v>
       </c>
       <c r="O377">
-        <v>0.603679679250517</v>
+        <v>0.603679679250717</v>
       </c>
       <c r="P377">
-        <v>0.406293128347653</v>
+        <v>0.40629312834763</v>
       </c>
     </row>
     <row r="378">
@@ -20037,10 +20037,10 @@
         <v>0.668088833589173</v>
       </c>
       <c r="O378">
-        <v>0.610205592584756</v>
+        <v>0.6102055925848821</v>
       </c>
       <c r="P378">
-        <v>0.756463426567241</v>
+        <v>0.756463426567334</v>
       </c>
     </row>
     <row r="379">
@@ -20089,10 +20089,10 @@
         <v>0.381724827515174</v>
       </c>
       <c r="O379">
-        <v>0.601954191749241</v>
+        <v>0.601954191750026</v>
       </c>
       <c r="P379">
-        <v>0.5390927720226369</v>
+        <v>0.539092772022584</v>
       </c>
     </row>
     <row r="380">
@@ -20141,10 +20141,10 @@
         <v>0.846021970475533</v>
       </c>
       <c r="O380">
-        <v>0.60456147418689</v>
+        <v>0.6045614741872381</v>
       </c>
       <c r="P380">
-        <v>0.567606300395215</v>
+        <v>0.567606300395229</v>
       </c>
     </row>
     <row r="381">
@@ -20193,10 +20193,10 @@
         <v>0.246294617737082</v>
       </c>
       <c r="O381">
-        <v>0.611177367024947</v>
+        <v>0.6111773670271971</v>
       </c>
       <c r="P381">
-        <v>0.472852732742336</v>
+        <v>0.472852732742304</v>
       </c>
     </row>
     <row r="382">
@@ -20245,10 +20245,10 @@
         <v>0.32319909977871</v>
       </c>
       <c r="O382">
-        <v>0.622694884100962</v>
+        <v>0.622694884100836</v>
       </c>
       <c r="P382">
-        <v>0.440931887807687</v>
+        <v>0.440931887807672</v>
       </c>
     </row>
     <row r="383">
@@ -20285,7 +20285,7 @@
         <v>0.233520660498834</v>
       </c>
       <c r="K383">
-        <v>0.762539778385608</v>
+        <v>0.7625397783856081</v>
       </c>
       <c r="L383">
         <v>0.342728355831242</v>
@@ -20297,10 +20297,10 @@
         <v>0.425412289976685</v>
       </c>
       <c r="O383">
-        <v>0.6002999828441899</v>
+        <v>0.600299982844508</v>
       </c>
       <c r="P383">
-        <v>0.354002898711902</v>
+        <v>0.354002898711887</v>
       </c>
     </row>
     <row r="384">
@@ -20316,7 +20316,7 @@
         <v>0.395420450845894</v>
       </c>
       <c r="D384">
-        <v>0.097373976107871</v>
+        <v>0.09737397610787101</v>
       </c>
       <c r="E384">
         <v>0.370844267955305</v>
@@ -20349,10 +20349,10 @@
         <v>0.272082799500668</v>
       </c>
       <c r="O384">
-        <v>0.611811431328659</v>
+        <v>0.611811431327616</v>
       </c>
       <c r="P384">
-        <v>0.486789651881336</v>
+        <v>0.486789651881348</v>
       </c>
     </row>
     <row r="385">
@@ -20368,10 +20368,10 @@
         <v>0.278763829658835</v>
       </c>
       <c r="D385">
-        <v>0.8409157955979299</v>
+        <v>0.84091579559793</v>
       </c>
       <c r="E385">
-        <v>0.5684618970415209</v>
+        <v>0.568461897041521</v>
       </c>
       <c r="F385">
         <v>1</v>
@@ -20401,10 +20401,10 @@
         <v>0.523508295078462</v>
       </c>
       <c r="O385">
-        <v>0.612734399471305</v>
+        <v>0.612734399471531</v>
       </c>
       <c r="P385">
-        <v>0.416752034334368</v>
+        <v>0.41675203433441</v>
       </c>
     </row>
     <row r="386">
@@ -20453,7 +20453,7 @@
         <v>0.38864610337124</v>
       </c>
       <c r="O386">
-        <v>0.627368702930608</v>
+        <v>0.627368702930826</v>
       </c>
       <c r="P386">
         <v>0.628941903770362</v>
@@ -20505,10 +20505,10 @@
         <v>0.446708853202188</v>
       </c>
       <c r="O387">
-        <v>0.610610562651391</v>
+        <v>0.610610562655222</v>
       </c>
       <c r="P387">
-        <v>0.559654009080482</v>
+        <v>0.559654009080476</v>
       </c>
     </row>
     <row r="388">
@@ -20524,7 +20524,7 @@
         <v>0.194938224058908</v>
       </c>
       <c r="D388">
-        <v>0.779894455623042</v>
+        <v>0.7798944556230421</v>
       </c>
       <c r="E388">
         <v>0.322616108239977</v>
@@ -20557,10 +20557,10 @@
         <v>1</v>
       </c>
       <c r="O388">
-        <v>0.601439584098465</v>
+        <v>0.601439584098833</v>
       </c>
       <c r="P388">
-        <v>0.66977733468737</v>
+        <v>0.6697773346872961</v>
       </c>
     </row>
     <row r="389">
@@ -20609,10 +20609,10 @@
         <v>0.549202282371661</v>
       </c>
       <c r="O389">
-        <v>0.597980096707758</v>
+        <v>0.597980096708746</v>
       </c>
       <c r="P389">
-        <v>0.641709690563385</v>
+        <v>0.641709690563414</v>
       </c>
     </row>
     <row r="390">
@@ -20661,10 +20661,10 @@
         <v>1</v>
       </c>
       <c r="O390">
-        <v>0.606745631263402</v>
+        <v>0.606745631263488</v>
       </c>
       <c r="P390">
-        <v>0.5157740542009061</v>
+        <v>0.515774054200893</v>
       </c>
     </row>
     <row r="391">
@@ -20713,10 +20713,10 @@
         <v>0.298169512443556</v>
       </c>
       <c r="O391">
-        <v>0.602324694090548</v>
+        <v>0.602324694090464</v>
       </c>
       <c r="P391">
-        <v>0.477290649262421</v>
+        <v>0.477290649262427</v>
       </c>
     </row>
     <row r="392">
@@ -20765,10 +20765,10 @@
         <v>0.393554391126064</v>
       </c>
       <c r="O392">
-        <v>0.602176129146155</v>
+        <v>0.602176129147816</v>
       </c>
       <c r="P392">
-        <v>0.461166086410105</v>
+        <v>0.461166086410058</v>
       </c>
     </row>
     <row r="393">
@@ -20817,10 +20817,10 @@
         <v>0.912255337672528</v>
       </c>
       <c r="O393">
-        <v>0.612827195186921</v>
+        <v>0.612827195187089</v>
       </c>
       <c r="P393">
-        <v>0.411861141508814</v>
+        <v>0.411861141508846</v>
       </c>
     </row>
     <row r="394">
@@ -20851,13 +20851,13 @@
         <v>0.338515769310309</v>
       </c>
       <c r="I394">
-        <v>0.941779693653584</v>
+        <v>0.9417796936535841</v>
       </c>
       <c r="J394">
         <v>1</v>
       </c>
       <c r="K394">
-        <v>0.610213820254991</v>
+        <v>0.6102138202549911</v>
       </c>
       <c r="L394">
         <v>0.385679638162873</v>
@@ -20869,10 +20869,10 @@
         <v>0.762050512410096</v>
       </c>
       <c r="O394">
-        <v>0.589939621810662</v>
+        <v>0.589939621810387</v>
       </c>
       <c r="P394">
-        <v>0.558422930439924</v>
+        <v>0.558422930439883</v>
       </c>
     </row>
     <row r="395">
@@ -20921,10 +20921,10 @@
         <v>0.340384955104483</v>
       </c>
       <c r="O395">
-        <v>0.618391750569762</v>
+        <v>0.618391750570334</v>
       </c>
       <c r="P395">
-        <v>0.424306096064667</v>
+        <v>0.424306096064638</v>
       </c>
     </row>
     <row r="396">
@@ -20973,10 +20973,10 @@
         <v>0.365606149203894</v>
       </c>
       <c r="O396">
-        <v>0.590821562866683</v>
+        <v>0.590821562867028</v>
       </c>
       <c r="P396">
-        <v>0.451096414744478</v>
+        <v>0.451096414744486</v>
       </c>
     </row>
     <row r="397">
@@ -21025,10 +21025,10 @@
         <v>0.594475793575677</v>
       </c>
       <c r="O397">
-        <v>0.599754130983719</v>
+        <v>0.5997541309837851</v>
       </c>
       <c r="P397">
-        <v>0.41783251557447</v>
+        <v>0.417832515574572</v>
       </c>
     </row>
     <row r="398">
@@ -21062,7 +21062,7 @@
         <v>0.55449834188694</v>
       </c>
       <c r="J398">
-        <v>0.580296044768922</v>
+        <v>0.5802960447689221</v>
       </c>
       <c r="K398">
         <v>0.5519968757140989</v>
@@ -21077,10 +21077,10 @@
         <v>0.338131086705509</v>
       </c>
       <c r="O398">
-        <v>0.6002009081719309</v>
+        <v>0.600200908172296</v>
       </c>
       <c r="P398">
-        <v>0.499597197200391</v>
+        <v>0.499597197200448</v>
       </c>
     </row>
     <row r="399">
@@ -21123,16 +21123,16 @@
         <v>0.198939246230288</v>
       </c>
       <c r="M399">
-        <v>0.0804664783088453</v>
+        <v>0.08046647830884531</v>
       </c>
       <c r="N399">
         <v>0.345951851764658</v>
       </c>
       <c r="O399">
-        <v>0.60290379953798</v>
+        <v>0.602903799538039</v>
       </c>
       <c r="P399">
-        <v>0.386224881416627</v>
+        <v>0.386224881416643</v>
       </c>
     </row>
     <row r="400">
@@ -21233,7 +21233,7 @@
         <v>0.432556750864495</v>
       </c>
       <c r="O401">
-        <v>0.603484994142314</v>
+        <v>0.6034849941423141</v>
       </c>
       <c r="P401">
         <v>0.524113028363371</v>
@@ -21392,7 +21392,7 @@
         <v>0.661461489493503</v>
       </c>
       <c r="P404">
-        <v>0.609053827143141</v>
+        <v>0.6090538271431411</v>
       </c>
     </row>
     <row r="405">
@@ -21943,7 +21943,7 @@
         <v>0.44581223697537</v>
       </c>
       <c r="I415">
-        <v>0.519336999378548</v>
+        <v>0.5193369993785481</v>
       </c>
       <c r="J415">
         <v>0.445531154514717</v>
@@ -22016,7 +22016,7 @@
         <v>0.668854753909732</v>
       </c>
       <c r="P416">
-        <v>0.65004886514194</v>
+        <v>0.6500488651419401</v>
       </c>
     </row>
     <row r="417">
@@ -22221,7 +22221,7 @@
         <v>0.285471187427668</v>
       </c>
       <c r="O420">
-        <v>0.516325192044304</v>
+        <v>0.5163251920443041</v>
       </c>
       <c r="P420">
         <v>0.480477566256655</v>
@@ -22328,7 +22328,7 @@
         <v>0.625763308165349</v>
       </c>
       <c r="P422">
-        <v>0.543970083529503</v>
+        <v>0.5439700835295031</v>
       </c>
     </row>
     <row r="423">
@@ -22429,7 +22429,7 @@
         <v>0.40350330513439</v>
       </c>
       <c r="O424">
-        <v>0.6593222571744189</v>
+        <v>0.659322257174419</v>
       </c>
       <c r="P424">
         <v>0.495376316390571</v>
@@ -22463,7 +22463,7 @@
         <v>0.363589643209059</v>
       </c>
       <c r="I425">
-        <v>0.5713838232788629</v>
+        <v>0.571383823278863</v>
       </c>
       <c r="J425">
         <v>0.401096558199467</v>
@@ -22640,7 +22640,7 @@
         <v>0.579352745226725</v>
       </c>
       <c r="P428">
-        <v>0.5548017590434809</v>
+        <v>0.554801759043481</v>
       </c>
     </row>
     <row r="429">
@@ -22714,7 +22714,7 @@
         <v>0.345128692172935</v>
       </c>
       <c r="F430">
-        <v>0.548357978597321</v>
+        <v>0.5483579785973211</v>
       </c>
       <c r="G430">
         <v>0.348622437914087</v>
@@ -23096,7 +23096,7 @@
         <v>0.241956515529207</v>
       </c>
       <c r="L437">
-        <v>0.608866649061867</v>
+        <v>0.6088666490618671</v>
       </c>
       <c r="M437">
         <v>0.250804495567193</v>
@@ -23105,7 +23105,7 @@
         <v>0.390773487576302</v>
       </c>
       <c r="O437">
-        <v>0.604215388233096</v>
+        <v>0.6042153882308891</v>
       </c>
       <c r="P437">
         <v>0.656492973843803</v>
@@ -23124,7 +23124,7 @@
         <v>0.290906222980438</v>
       </c>
       <c r="D438">
-        <v>0.5954216619937019</v>
+        <v>0.595421661993702</v>
       </c>
       <c r="E438">
         <v>0.165219227317738</v>
@@ -23157,7 +23157,7 @@
         <v>0.317093322637951</v>
       </c>
       <c r="O438">
-        <v>0.6179701882408239</v>
+        <v>0.617970188240183</v>
       </c>
       <c r="P438">
         <v>0.0956716070986358</v>
@@ -23209,7 +23209,7 @@
         <v>0.414546215626777</v>
       </c>
       <c r="O439">
-        <v>0.607110989127794</v>
+        <v>0.607110989126741</v>
       </c>
       <c r="P439">
         <v>0.656103700213573</v>
@@ -23261,10 +23261,10 @@
         <v>0.517654014558817</v>
       </c>
       <c r="O440">
-        <v>0.592912209470303</v>
+        <v>0.592912209469933</v>
       </c>
       <c r="P440">
-        <v>0.439416346476205</v>
+        <v>0.439416346476204</v>
       </c>
     </row>
     <row r="441">
@@ -23313,10 +23313,10 @@
         <v>0.384323026299189</v>
       </c>
       <c r="O441">
-        <v>0.614006880956903</v>
+        <v>0.614006880948462</v>
       </c>
       <c r="P441">
-        <v>0.758281555015123</v>
+        <v>0.758281555015129</v>
       </c>
     </row>
     <row r="442">
@@ -23365,10 +23365,10 @@
         <v>0.543568576369711</v>
       </c>
       <c r="O442">
-        <v>0.6155735023939271</v>
+        <v>0.615573502392728</v>
       </c>
       <c r="P442">
-        <v>0.400671705275601</v>
+        <v>0.400671705275602</v>
       </c>
     </row>
     <row r="443">
@@ -23405,7 +23405,7 @@
         <v>0.410176612381923</v>
       </c>
       <c r="K443">
-        <v>0.535635697879784</v>
+        <v>0.5356356978797841</v>
       </c>
       <c r="L443">
         <v>0.51119404043785</v>
@@ -23417,10 +23417,10 @@
         <v>0.391432641473404</v>
       </c>
       <c r="O443">
-        <v>0.610384493399314</v>
+        <v>0.610384493398105</v>
       </c>
       <c r="P443">
-        <v>0.651877096203207</v>
+        <v>0.651877096203205</v>
       </c>
     </row>
     <row r="444">
@@ -23469,7 +23469,7 @@
         <v>0.564498790748324</v>
       </c>
       <c r="O444">
-        <v>0.624081490786508</v>
+        <v>0.6240814907862871</v>
       </c>
       <c r="P444">
         <v>0.432079825718631</v>
@@ -23521,10 +23521,10 @@
         <v>0.420425125551084</v>
       </c>
       <c r="O445">
-        <v>0.589345115209427</v>
+        <v>0.589345115206206</v>
       </c>
       <c r="P445">
-        <v>0.829004870939642</v>
+        <v>0.829004870939641</v>
       </c>
     </row>
     <row r="446">
@@ -23573,10 +23573,10 @@
         <v>0.316859864542767</v>
       </c>
       <c r="O446">
-        <v>0.612680902594628</v>
+        <v>0.612680902591614</v>
       </c>
       <c r="P446">
-        <v>0.570637729180405</v>
+        <v>0.570637729180402</v>
       </c>
     </row>
     <row r="447">
@@ -23625,10 +23625,10 @@
         <v>0.255345958814524</v>
       </c>
       <c r="O447">
-        <v>0.594282701980486</v>
+        <v>0.594282701980116</v>
       </c>
       <c r="P447">
-        <v>0.8275773930832721</v>
+        <v>0.8275773930832751</v>
       </c>
     </row>
     <row r="448">
@@ -23677,7 +23677,7 @@
         <v>0.648989048624248</v>
       </c>
       <c r="O448">
-        <v>0.6006113934846951</v>
+        <v>0.600611393484539</v>
       </c>
       <c r="P448">
         <v>0.445220235731507</v>
@@ -23723,16 +23723,16 @@
         <v>0.344251792275348</v>
       </c>
       <c r="M449">
-        <v>0.09486123475886279</v>
+        <v>0.0948612347588628</v>
       </c>
       <c r="N449">
         <v>0.370178327533355</v>
       </c>
       <c r="O449">
-        <v>0.603984431099551</v>
+        <v>0.603984431097145</v>
       </c>
       <c r="P449">
-        <v>0.193278214189851</v>
+        <v>0.193278214189849</v>
       </c>
     </row>
     <row r="450">
@@ -23781,7 +23781,7 @@
         <v>0.951606680193168</v>
       </c>
       <c r="O450">
-        <v>0.59469333132957</v>
+        <v>0.5946933313285761</v>
       </c>
       <c r="P450">
         <v>0.283798409216236</v>
@@ -23833,10 +23833,10 @@
         <v>0.781565530698775</v>
       </c>
       <c r="O451">
-        <v>0.607491777454759</v>
+        <v>0.6074917774544461</v>
       </c>
       <c r="P451">
-        <v>0.27238214877006</v>
+        <v>0.272382148770061</v>
       </c>
     </row>
     <row r="452">
@@ -23882,10 +23882,10 @@
         <v>0.333180046729632</v>
       </c>
       <c r="N452">
-        <v>0.5833539391225639</v>
+        <v>0.583353939122564</v>
       </c>
       <c r="O452">
-        <v>0.595953882471845</v>
+        <v>0.595953882473049</v>
       </c>
       <c r="P452">
         <v>0.250805055995185</v>
@@ -23937,10 +23937,10 @@
         <v>0.259149699982598</v>
       </c>
       <c r="O453">
-        <v>0.601855377959906</v>
+        <v>0.601855377961129</v>
       </c>
       <c r="P453">
-        <v>0.509447542247385</v>
+        <v>0.509447542247384</v>
       </c>
     </row>
     <row r="454">
@@ -23989,7 +23989,7 @@
         <v>0.267539926065666</v>
       </c>
       <c r="O454">
-        <v>0.591588709716625</v>
+        <v>0.591588709717618</v>
       </c>
       <c r="P454">
         <v>0.170529757542549</v>
@@ -24041,10 +24041,10 @@
         <v>0.289545713824183</v>
       </c>
       <c r="O455">
-        <v>0.585518433444654</v>
+        <v>0.585518433445445</v>
       </c>
       <c r="P455">
-        <v>0.668960437198025</v>
+        <v>0.668960437198019</v>
       </c>
     </row>
     <row r="456">
@@ -24093,10 +24093,10 @@
         <v>0.362370300496381</v>
       </c>
       <c r="O456">
-        <v>0.609150458278361</v>
+        <v>0.609150458276251</v>
       </c>
       <c r="P456">
-        <v>0.471705274946891</v>
+        <v>0.471705274946896</v>
       </c>
     </row>
     <row r="457">
@@ -24145,10 +24145,10 @@
         <v>0.476650788315219</v>
       </c>
       <c r="O457">
-        <v>0.619694505036567</v>
+        <v>0.619694505035072</v>
       </c>
       <c r="P457">
-        <v>0.659582661031002</v>
+        <v>0.6595826610310021</v>
       </c>
     </row>
     <row r="458">
@@ -24197,7 +24197,7 @@
         <v>0.565398335799199</v>
       </c>
       <c r="O458">
-        <v>0.597862212644381</v>
+        <v>0.597862212642531</v>
       </c>
       <c r="P458">
         <v>0.423869949515882</v>
@@ -24249,7 +24249,7 @@
         <v>0.5693169595134741</v>
       </c>
       <c r="O459">
-        <v>0.607917499171333</v>
+        <v>0.607917499169472</v>
       </c>
       <c r="P459">
         <v>0.359171222463876</v>
@@ -24301,10 +24301,10 @@
         <v>0.539997903836241</v>
       </c>
       <c r="O460">
-        <v>0.580714432260042</v>
+        <v>0.580714432261997</v>
       </c>
       <c r="P460">
-        <v>0.50018462215561</v>
+        <v>0.500184622155612</v>
       </c>
     </row>
     <row r="461">
@@ -24353,7 +24353,7 @@
         <v>0.428120649698994</v>
       </c>
       <c r="O461">
-        <v>0.610792354431253</v>
+        <v>0.610792354430285</v>
       </c>
       <c r="P461">
         <v>0.369124391344854</v>
@@ -24405,10 +24405,10 @@
         <v>0.495606389884669</v>
       </c>
       <c r="O462">
-        <v>0.614743421860896</v>
+        <v>0.614743421859727</v>
       </c>
       <c r="P462">
-        <v>0.4669225367566</v>
+        <v>0.466922536756603</v>
       </c>
     </row>
     <row r="463">
@@ -24448,7 +24448,7 @@
         <v>0.780903961447974</v>
       </c>
       <c r="L463">
-        <v>0.610432404771113</v>
+        <v>0.6104324047711131</v>
       </c>
       <c r="M463">
         <v>0.175976158297325</v>
@@ -24457,7 +24457,7 @@
         <v>1</v>
       </c>
       <c r="O463">
-        <v>0.602234143305566</v>
+        <v>0.602234143305236</v>
       </c>
       <c r="P463">
         <v>0.293898464334075</v>
@@ -24509,10 +24509,10 @@
         <v>1</v>
       </c>
       <c r="O464">
-        <v>0.596230509829853</v>
+        <v>0.596230509829962</v>
       </c>
       <c r="P464">
-        <v>0.546792590616323</v>
+        <v>0.546792590616324</v>
       </c>
     </row>
     <row r="465">
@@ -24561,10 +24561,10 @@
         <v>0.89492659131381</v>
       </c>
       <c r="O465">
-        <v>0.606061958954333</v>
+        <v>0.606061958954069</v>
       </c>
       <c r="P465">
-        <v>0.698846281879044</v>
+        <v>0.698846281879041</v>
       </c>
     </row>
     <row r="466">
@@ -24613,7 +24613,7 @@
         <v>0.334308512655523</v>
       </c>
       <c r="O466">
-        <v>0.596602424737113</v>
+        <v>0.59660242473537</v>
       </c>
       <c r="P466">
         <v>0.575905539763613</v>
@@ -24647,7 +24647,7 @@
         <v>0.189214675637579</v>
       </c>
       <c r="I467">
-        <v>0.5898984461810129</v>
+        <v>0.589898446181013</v>
       </c>
       <c r="J467">
         <v>0.292554979789394</v>
@@ -24665,10 +24665,10 @@
         <v>0.519550352406238</v>
       </c>
       <c r="O467">
-        <v>0.606359239752192</v>
+        <v>0.606359239752379</v>
       </c>
       <c r="P467">
-        <v>0.658713993715229</v>
+        <v>0.658713993715233</v>
       </c>
     </row>
     <row r="468">
@@ -24717,10 +24717,10 @@
         <v>0.18464751215322</v>
       </c>
       <c r="O468">
-        <v>0.6039979232484251</v>
+        <v>0.603997923240988</v>
       </c>
       <c r="P468">
-        <v>0.497980730761434</v>
+        <v>0.497980730761433</v>
       </c>
     </row>
     <row r="469">
@@ -24769,10 +24769,10 @@
         <v>0.395144308235682</v>
       </c>
       <c r="O469">
-        <v>0.616147994432098</v>
+        <v>0.616147994430348</v>
       </c>
       <c r="P469">
-        <v>0.444222272297836</v>
+        <v>0.444222272297835</v>
       </c>
     </row>
     <row r="470">
@@ -24821,7 +24821,7 @@
         <v>0.391904771126563</v>
       </c>
       <c r="O470">
-        <v>0.594486395955876</v>
+        <v>0.594486395955302</v>
       </c>
       <c r="P470">
         <v>0.262718606677673</v>
@@ -24855,7 +24855,7 @@
         <v>0.433201463188032</v>
       </c>
       <c r="I471">
-        <v>0.505456266690485</v>
+        <v>0.5054562666904851</v>
       </c>
       <c r="J471">
         <v>0.476233652742182</v>
@@ -24873,7 +24873,7 @@
         <v>0.334153299489545</v>
       </c>
       <c r="O471">
-        <v>0.604989156116453</v>
+        <v>0.604989156114492</v>
       </c>
       <c r="P471">
         <v>0.351716395539127</v>
@@ -24904,7 +24904,7 @@
         <v>0.09324086756465071</v>
       </c>
       <c r="H472">
-        <v>0.56216747738279</v>
+        <v>0.5621674773827901</v>
       </c>
       <c r="I472">
         <v>0.506266967900581</v>
@@ -24925,7 +24925,7 @@
         <v>0.360199426182398</v>
       </c>
       <c r="O472">
-        <v>0.607942224121878</v>
+        <v>0.607942224121434</v>
       </c>
       <c r="P472">
         <v>0.462631057135932</v>
@@ -24977,7 +24977,7 @@
         <v>0.302001432660511</v>
       </c>
       <c r="O473">
-        <v>0.622750982885429</v>
+        <v>0.622750982887114</v>
       </c>
       <c r="P473">
         <v>0.657068355711271</v>
@@ -25029,7 +25029,7 @@
         <v>0.41508912408235</v>
       </c>
       <c r="O474">
-        <v>0.6027889675192259</v>
+        <v>0.6027889675167371</v>
       </c>
       <c r="P474">
         <v>0.578507380333986</v>
@@ -25081,7 +25081,7 @@
         <v>1</v>
       </c>
       <c r="O475">
-        <v>0.596853067851735</v>
+        <v>0.596853067851345</v>
       </c>
       <c r="P475">
         <v>0.707981356267309</v>
@@ -25133,7 +25133,7 @@
         <v>0.474966593979601</v>
       </c>
       <c r="O476">
-        <v>0.592862103320581</v>
+        <v>0.592862103321067</v>
       </c>
       <c r="P476">
         <v>0.527138632701585</v>
@@ -25185,7 +25185,7 @@
         <v>1</v>
       </c>
       <c r="O477">
-        <v>0.600524943930425</v>
+        <v>0.600524943930896</v>
       </c>
       <c r="P477">
         <v>0.329747916996411</v>
@@ -25237,10 +25237,10 @@
         <v>0.35210061971183</v>
       </c>
       <c r="O478">
-        <v>0.595530440552248</v>
+        <v>0.595530440551138</v>
       </c>
       <c r="P478">
-        <v>0.498896308967189</v>
+        <v>0.498896308967188</v>
       </c>
     </row>
     <row r="479">
@@ -25289,7 +25289,7 @@
         <v>0.22251640637843</v>
       </c>
       <c r="O479">
-        <v>0.598157251671245</v>
+        <v>0.598157251664765</v>
       </c>
       <c r="P479">
         <v>0.404325878038258</v>
@@ -25341,7 +25341,7 @@
         <v>0.756108557106178</v>
       </c>
       <c r="O480">
-        <v>0.609623254475858</v>
+        <v>0.609623254475408</v>
       </c>
       <c r="P480">
         <v>0.454568252937123</v>
@@ -25378,7 +25378,7 @@
         <v>0.8276523881951811</v>
       </c>
       <c r="J481">
-        <v>0.5570837269034969</v>
+        <v>0.557083726903497</v>
       </c>
       <c r="K481">
         <v>0.625212097891202</v>
@@ -25393,10 +25393,10 @@
         <v>1</v>
       </c>
       <c r="O481">
-        <v>0.579992375750952</v>
+        <v>0.579992375750743</v>
       </c>
       <c r="P481">
-        <v>0.6032983691536929</v>
+        <v>0.603298369153694</v>
       </c>
     </row>
     <row r="482">
@@ -25445,10 +25445,10 @@
         <v>0.361732355965645</v>
       </c>
       <c r="O482">
-        <v>0.612025230470043</v>
+        <v>0.612025230468231</v>
       </c>
       <c r="P482">
-        <v>0.481827326497152</v>
+        <v>0.481827326497155</v>
       </c>
     </row>
     <row r="483">
@@ -25491,13 +25491,13 @@
         <v>0.440691651799394</v>
       </c>
       <c r="M483">
-        <v>0.5509952985448719</v>
+        <v>0.550995298544872</v>
       </c>
       <c r="N483">
         <v>0.28426210483376</v>
       </c>
       <c r="O483">
-        <v>0.584295601251908</v>
+        <v>0.5842956012494031</v>
       </c>
       <c r="P483">
         <v>0.476706970977296</v>
@@ -25549,10 +25549,10 @@
         <v>0.402903026224435</v>
       </c>
       <c r="O484">
-        <v>0.593609521384585</v>
+        <v>0.593609521385822</v>
       </c>
       <c r="P484">
-        <v>0.497685952857163</v>
+        <v>0.497685952857162</v>
       </c>
     </row>
     <row r="485">
@@ -25601,10 +25601,10 @@
         <v>0.390334708402126</v>
       </c>
       <c r="O485">
-        <v>0.595944378248888</v>
+        <v>0.595944378244786</v>
       </c>
       <c r="P485">
-        <v>0.415244387422764</v>
+        <v>0.415244387422766</v>
       </c>
     </row>
     <row r="486">
@@ -25653,7 +25653,7 @@
         <v>0.186625757419929</v>
       </c>
       <c r="O486">
-        <v>0.5950461255662191</v>
+        <v>0.595046125565618</v>
       </c>
       <c r="P486">
         <v>0.414216067943672</v>
@@ -26381,7 +26381,7 @@
         <v>0.3955687698759</v>
       </c>
       <c r="O500">
-        <v>0.583275593195215</v>
+        <v>0.5832755931952151</v>
       </c>
       <c r="P500">
         <v>0.516244014728518</v>
@@ -26614,7 +26614,7 @@
         <v>0.360644610290824</v>
       </c>
       <c r="F505">
-        <v>0.730548329286773</v>
+        <v>0.7305483292867731</v>
       </c>
       <c r="G505">
         <v>0.298716560344997</v>
@@ -26693,7 +26693,7 @@
         <v>0.243457580944985</v>
       </c>
       <c r="O506">
-        <v>0.6300201252609789</v>
+        <v>0.630020125260979</v>
       </c>
       <c r="P506">
         <v>0.767537548508288</v>
@@ -26852,7 +26852,7 @@
         <v>0.623028952675159</v>
       </c>
       <c r="P509">
-        <v>0.5307381684611659</v>
+        <v>0.530738168461166</v>
       </c>
     </row>
     <row r="510">
@@ -27008,7 +27008,7 @@
         <v>0.721109666414359</v>
       </c>
       <c r="P512">
-        <v>0.6051286477387759</v>
+        <v>0.605128647738776</v>
       </c>
     </row>
     <row r="513">
@@ -27216,7 +27216,7 @@
         <v>0.587303611887809</v>
       </c>
       <c r="P516">
-        <v>0.532745575985837</v>
+        <v>0.5327455759858371</v>
       </c>
     </row>
     <row r="517">
@@ -27629,10 +27629,10 @@
         <v>0.456283506062668</v>
       </c>
       <c r="O524">
-        <v>0.601504114604961</v>
+        <v>0.601504114593898</v>
       </c>
       <c r="P524">
-        <v>0.503298931400482</v>
+        <v>0.503298931400484</v>
       </c>
     </row>
     <row r="525">
@@ -27681,7 +27681,7 @@
         <v>0.345591633398385</v>
       </c>
       <c r="O525">
-        <v>0.615629813925876</v>
+        <v>0.615629813926026</v>
       </c>
       <c r="P525">
         <v>0.10771333849509</v>
@@ -27733,10 +27733,10 @@
         <v>0.496721852302111</v>
       </c>
       <c r="O526">
-        <v>0.604676968162972</v>
+        <v>0.604676968162947</v>
       </c>
       <c r="P526">
-        <v>0.586575733752575</v>
+        <v>0.586575733752578</v>
       </c>
     </row>
     <row r="527">
@@ -27785,10 +27785,10 @@
         <v>0.537712128609824</v>
       </c>
       <c r="O527">
-        <v>0.590072248444007</v>
+        <v>0.5900722484441811</v>
       </c>
       <c r="P527">
-        <v>0.417040408290411</v>
+        <v>0.417040408290412</v>
       </c>
     </row>
     <row r="528">
@@ -27837,10 +27837,10 @@
         <v>0.415628776636416</v>
       </c>
       <c r="O528">
-        <v>0.609655596368971</v>
+        <v>0.6096555963682671</v>
       </c>
       <c r="P528">
-        <v>0.726118785548071</v>
+        <v>0.726118785548073</v>
       </c>
     </row>
     <row r="529">
@@ -27886,13 +27886,13 @@
         <v>0.561897473167929</v>
       </c>
       <c r="N529">
-        <v>0.619678798481415</v>
+        <v>0.6196787984814151</v>
       </c>
       <c r="O529">
-        <v>0.612671290787038</v>
+        <v>0.612671290787144</v>
       </c>
       <c r="P529">
-        <v>0.369755926173188</v>
+        <v>0.369755926173187</v>
       </c>
     </row>
     <row r="530">
@@ -27941,10 +27941,10 @@
         <v>0.43299455998158</v>
       </c>
       <c r="O530">
-        <v>0.60964368652565</v>
+        <v>0.609643686525731</v>
       </c>
       <c r="P530">
-        <v>0.60361931539653</v>
+        <v>0.603619315396533</v>
       </c>
     </row>
     <row r="531">
@@ -27960,7 +27960,7 @@
         <v>0.36302019806398</v>
       </c>
       <c r="D531">
-        <v>0.745540803850204</v>
+        <v>0.7455408038502041</v>
       </c>
       <c r="E531">
         <v>0.609702205380981</v>
@@ -27993,7 +27993,7 @@
         <v>0.519815351890499</v>
       </c>
       <c r="O531">
-        <v>0.622313072809386</v>
+        <v>0.622313072809401</v>
       </c>
       <c r="P531">
         <v>0.341140676493036</v>
@@ -28045,10 +28045,10 @@
         <v>0.454648745336145</v>
       </c>
       <c r="O532">
-        <v>0.586301325748677</v>
+        <v>0.586301325748037</v>
       </c>
       <c r="P532">
-        <v>0.852309682010161</v>
+        <v>0.852309682010163</v>
       </c>
     </row>
     <row r="533">
@@ -28097,10 +28097,10 @@
         <v>0.31542177584447</v>
       </c>
       <c r="O533">
-        <v>0.607938194636265</v>
+        <v>0.607938194635734</v>
       </c>
       <c r="P533">
-        <v>0.488319409563217</v>
+        <v>0.488319409563218</v>
       </c>
     </row>
     <row r="534">
@@ -28149,10 +28149,10 @@
         <v>0.258688075459667</v>
       </c>
       <c r="O534">
-        <v>0.589760026265608</v>
+        <v>0.589760026265664</v>
       </c>
       <c r="P534">
-        <v>0.853585586418999</v>
+        <v>0.853585586419004</v>
       </c>
     </row>
     <row r="535">
@@ -28201,10 +28201,10 @@
         <v>0.691686162792327</v>
       </c>
       <c r="O535">
-        <v>0.603060169510226</v>
+        <v>0.603060169510279</v>
       </c>
       <c r="P535">
-        <v>0.458429389726536</v>
+        <v>0.458429389726533</v>
       </c>
     </row>
     <row r="536">
@@ -28253,10 +28253,10 @@
         <v>0.417820254352725</v>
       </c>
       <c r="O536">
-        <v>0.601718434283721</v>
+        <v>0.6017184342837501</v>
       </c>
       <c r="P536">
-        <v>0.280550456325549</v>
+        <v>0.280550456325547</v>
       </c>
     </row>
     <row r="537">
@@ -28305,7 +28305,7 @@
         <v>0.881636784824819</v>
       </c>
       <c r="O537">
-        <v>0.593689182847509</v>
+        <v>0.593689182848023</v>
       </c>
       <c r="P537">
         <v>0.322398172801201</v>
@@ -28357,7 +28357,7 @@
         <v>0.821129163526261</v>
       </c>
       <c r="O538">
-        <v>0.604302264551165</v>
+        <v>0.604302264551233</v>
       </c>
       <c r="P538">
         <v>0.266603947088855</v>
@@ -28409,10 +28409,10 @@
         <v>0.732204974758342</v>
       </c>
       <c r="O539">
-        <v>0.595462504438395</v>
+        <v>0.595462504438611</v>
       </c>
       <c r="P539">
-        <v>0.196363563006234</v>
+        <v>0.196363563006236</v>
       </c>
     </row>
     <row r="540">
@@ -28461,10 +28461,10 @@
         <v>0.25411402916142</v>
       </c>
       <c r="O540">
-        <v>0.59928552120915</v>
+        <v>0.5992855212095261</v>
       </c>
       <c r="P540">
-        <v>0.543442700256179</v>
+        <v>0.543442700256178</v>
       </c>
     </row>
     <row r="541">
@@ -28513,7 +28513,7 @@
         <v>0.254991697029274</v>
       </c>
       <c r="O541">
-        <v>0.586320247520247</v>
+        <v>0.586320247520453</v>
       </c>
       <c r="P541">
         <v>0.168460842504001</v>
@@ -28565,7 +28565,7 @@
         <v>0.306209949984372</v>
       </c>
       <c r="O542">
-        <v>0.581878093228784</v>
+        <v>0.581878093228988</v>
       </c>
       <c r="P542">
         <v>0.748386556823384</v>
@@ -28617,10 +28617,10 @@
         <v>0.423947575900195</v>
       </c>
       <c r="O543">
-        <v>0.60683059894778</v>
+        <v>0.6068305989480141</v>
       </c>
       <c r="P543">
-        <v>0.461209303797029</v>
+        <v>0.461209303797032</v>
       </c>
     </row>
     <row r="544">
@@ -28669,10 +28669,10 @@
         <v>0.549760851282986</v>
       </c>
       <c r="O544">
-        <v>0.617598484355</v>
+        <v>0.617598484355612</v>
       </c>
       <c r="P544">
-        <v>0.796445845220793</v>
+        <v>0.796445845220786</v>
       </c>
     </row>
     <row r="545">
@@ -28718,13 +28718,13 @@
         <v>0.305861091127858</v>
       </c>
       <c r="N545">
-        <v>0.524062613677803</v>
+        <v>0.5240626136778031</v>
       </c>
       <c r="O545">
-        <v>0.595593769949032</v>
+        <v>0.595593769949906</v>
       </c>
       <c r="P545">
-        <v>0.487842412965835</v>
+        <v>0.487842412965837</v>
       </c>
     </row>
     <row r="546">
@@ -28743,7 +28743,7 @@
         <v>0.246261807705429</v>
       </c>
       <c r="E546">
-        <v>0.5557838878461659</v>
+        <v>0.555783887846166</v>
       </c>
       <c r="F546">
         <v>0.217551594462186</v>
@@ -28761,7 +28761,7 @@
         <v>0.439306961252816</v>
       </c>
       <c r="K546">
-        <v>0.502550248589068</v>
+        <v>0.5025502485890681</v>
       </c>
       <c r="L546">
         <v>0.46086933426735</v>
@@ -28773,7 +28773,7 @@
         <v>0.521062389689904</v>
       </c>
       <c r="O546">
-        <v>0.604799463440954</v>
+        <v>0.604799463441438</v>
       </c>
       <c r="P546">
         <v>0.383816553003806</v>
@@ -28825,10 +28825,10 @@
         <v>0.519353814714959</v>
       </c>
       <c r="O547">
-        <v>0.578254234011934</v>
+        <v>0.578254234012084</v>
       </c>
       <c r="P547">
-        <v>0.336489603084159</v>
+        <v>0.336489603084158</v>
       </c>
     </row>
     <row r="548">
@@ -28877,10 +28877,10 @@
         <v>0.417050234663134</v>
       </c>
       <c r="O548">
-        <v>0.609726115093662</v>
+        <v>0.609726115093937</v>
       </c>
       <c r="P548">
-        <v>0.397026743937839</v>
+        <v>0.397026743937837</v>
       </c>
     </row>
     <row r="549">
@@ -28923,16 +28923,16 @@
         <v>0.239064618370128</v>
       </c>
       <c r="M549">
-        <v>0.09528093711154439</v>
+        <v>0.0952809371115444</v>
       </c>
       <c r="N549">
         <v>0.602198964290569</v>
       </c>
       <c r="O549">
-        <v>0.614123531775976</v>
+        <v>0.614123531776123</v>
       </c>
       <c r="P549">
-        <v>0.344114489707926</v>
+        <v>0.344114489707927</v>
       </c>
     </row>
     <row r="550">
@@ -28981,7 +28981,7 @@
         <v>1</v>
       </c>
       <c r="O550">
-        <v>0.603130299827045</v>
+        <v>0.603130299827051</v>
       </c>
       <c r="P550">
         <v>0.229564275534475</v>
@@ -29033,7 +29033,7 @@
         <v>1</v>
       </c>
       <c r="O551">
-        <v>0.5958475477294291</v>
+        <v>0.595847547729393</v>
       </c>
       <c r="P551">
         <v>0.570440041076723</v>
@@ -29064,13 +29064,13 @@
         <v>0.161744067107888</v>
       </c>
       <c r="H552">
-        <v>0.713351689656271</v>
+        <v>0.7133516896562711</v>
       </c>
       <c r="I552">
         <v>0.691981840169989</v>
       </c>
       <c r="J552">
-        <v>0.682771740051008</v>
+        <v>0.6827717400510081</v>
       </c>
       <c r="K552">
         <v>0.5162898664236441</v>
@@ -29079,16 +29079,16 @@
         <v>0.943186551933663</v>
       </c>
       <c r="M552">
-        <v>0.09861177375099719</v>
+        <v>0.0986117737509972</v>
       </c>
       <c r="N552">
         <v>0.965606787904728</v>
       </c>
       <c r="O552">
-        <v>0.605508402645589</v>
+        <v>0.605508402645783</v>
       </c>
       <c r="P552">
-        <v>0.732317469463528</v>
+        <v>0.7323174694635311</v>
       </c>
     </row>
     <row r="553">
@@ -29137,7 +29137,7 @@
         <v>0.375417914641544</v>
       </c>
       <c r="O553">
-        <v>0.592702472056754</v>
+        <v>0.592702472057311</v>
       </c>
       <c r="P553">
         <v>0.655644284102858</v>
@@ -29189,10 +29189,10 @@
         <v>0.529299332158547</v>
       </c>
       <c r="O554">
-        <v>0.59979885677911</v>
+        <v>0.599798856779314</v>
       </c>
       <c r="P554">
-        <v>0.544967945371139</v>
+        <v>0.544967945371141</v>
       </c>
     </row>
     <row r="555">
@@ -29241,10 +29241,10 @@
         <v>0.178033881033843</v>
       </c>
       <c r="O555">
-        <v>0.601250576583872</v>
+        <v>0.601250576583643</v>
       </c>
       <c r="P555">
-        <v>0.488841180569976</v>
+        <v>0.488841180569974</v>
       </c>
     </row>
     <row r="556">
@@ -29293,10 +29293,10 @@
         <v>0.427030352539176</v>
       </c>
       <c r="O556">
-        <v>0.61346303860411</v>
+        <v>0.613463038604073</v>
       </c>
       <c r="P556">
-        <v>0.422797341567992</v>
+        <v>0.422797341567989</v>
       </c>
     </row>
     <row r="557">
@@ -29345,10 +29345,10 @@
         <v>0.431382356430956</v>
       </c>
       <c r="O557">
-        <v>0.596034511134662</v>
+        <v>0.5960345111347291</v>
       </c>
       <c r="P557">
-        <v>0.277457946770784</v>
+        <v>0.277457946770785</v>
       </c>
     </row>
     <row r="558">
@@ -29397,10 +29397,10 @@
         <v>0.337233877182467</v>
       </c>
       <c r="O558">
-        <v>0.603292888609711</v>
+        <v>0.603292888610621</v>
       </c>
       <c r="P558">
-        <v>0.369413334826259</v>
+        <v>0.36941333482626</v>
       </c>
     </row>
     <row r="559">
@@ -29449,10 +29449,10 @@
         <v>0.38284920731377</v>
       </c>
       <c r="O559">
-        <v>0.605758036795509</v>
+        <v>0.605758036795831</v>
       </c>
       <c r="P559">
-        <v>0.358450180492699</v>
+        <v>0.358450180492698</v>
       </c>
     </row>
     <row r="560">
@@ -29501,7 +29501,7 @@
         <v>0.312581431451494</v>
       </c>
       <c r="O560">
-        <v>0.621480333983248</v>
+        <v>0.621480333983591</v>
       </c>
       <c r="P560">
         <v>0.754207927048789</v>
@@ -29553,10 +29553,10 @@
         <v>0.436644578621879</v>
       </c>
       <c r="O561">
-        <v>0.600191427728564</v>
+        <v>0.60019142773007</v>
       </c>
       <c r="P561">
-        <v>0.56217691686758</v>
+        <v>0.562176916867579</v>
       </c>
     </row>
     <row r="562">
@@ -29572,7 +29572,7 @@
         <v>0.28981964919207</v>
       </c>
       <c r="D562">
-        <v>0.886506486982313</v>
+        <v>0.8865064869823131</v>
       </c>
       <c r="E562">
         <v>0.395428609233767</v>
@@ -29605,7 +29605,7 @@
         <v>1</v>
       </c>
       <c r="O562">
-        <v>0.59603633493734</v>
+        <v>0.5960363349374011</v>
       </c>
       <c r="P562">
         <v>0.759764814662094</v>
@@ -29657,7 +29657,7 @@
         <v>0.526049404566733</v>
       </c>
       <c r="O563">
-        <v>0.590712241348149</v>
+        <v>0.5907122413484031</v>
       </c>
       <c r="P563">
         <v>0.515898031760285</v>
@@ -29709,10 +29709,10 @@
         <v>1</v>
       </c>
       <c r="O564">
-        <v>0.599378518015751</v>
+        <v>0.599378518015803</v>
       </c>
       <c r="P564">
-        <v>0.239607059139626</v>
+        <v>0.239607059139627</v>
       </c>
     </row>
     <row r="565">
@@ -29761,7 +29761,7 @@
         <v>0.343986521990156</v>
       </c>
       <c r="O565">
-        <v>0.593935683097962</v>
+        <v>0.593935683098014</v>
       </c>
       <c r="P565">
         <v>0.631540108683703</v>
@@ -29813,7 +29813,7 @@
         <v>0.233078298526424</v>
       </c>
       <c r="O566">
-        <v>0.596728031483554</v>
+        <v>0.596728031483906</v>
       </c>
       <c r="P566">
         <v>0.344407291014232</v>
@@ -29862,10 +29862,10 @@
         <v>0.49218929689752</v>
       </c>
       <c r="N567">
-        <v>0.798579184024593</v>
+        <v>0.7985791840245931</v>
       </c>
       <c r="O567">
-        <v>0.610109766068427</v>
+        <v>0.610109766068442</v>
       </c>
       <c r="P567">
         <v>0.369602564740731</v>
@@ -29905,7 +29905,7 @@
         <v>0.7567458099372411</v>
       </c>
       <c r="K568">
-        <v>0.645303756730577</v>
+        <v>0.6453037567305771</v>
       </c>
       <c r="L568">
         <v>0.334054537797063</v>
@@ -29917,10 +29917,10 @@
         <v>1</v>
       </c>
       <c r="O568">
-        <v>0.577409787009563</v>
+        <v>0.577409787009657</v>
       </c>
       <c r="P568">
-        <v>0.502085879776763</v>
+        <v>0.502085879776761</v>
       </c>
     </row>
     <row r="569">
@@ -29969,10 +29969,10 @@
         <v>0.386733883848951</v>
       </c>
       <c r="O569">
-        <v>0.609978900795171</v>
+        <v>0.609978900795303</v>
       </c>
       <c r="P569">
-        <v>0.42919197781565</v>
+        <v>0.429191977815648</v>
       </c>
     </row>
     <row r="570">
@@ -30021,7 +30021,7 @@
         <v>0.325935334183106</v>
       </c>
       <c r="O570">
-        <v>0.582130681323092</v>
+        <v>0.582130681323334</v>
       </c>
       <c r="P570">
         <v>0.521715931750409</v>
@@ -30073,10 +30073,10 @@
         <v>0.569239949576446</v>
       </c>
       <c r="O571">
-        <v>0.594494549598547</v>
+        <v>0.594494549598742</v>
       </c>
       <c r="P571">
-        <v>0.471225872903859</v>
+        <v>0.47122587290386</v>
       </c>
     </row>
     <row r="572">
@@ -30104,7 +30104,7 @@
         <v>0.332508500655533</v>
       </c>
       <c r="H572">
-        <v>0.5946697501160489</v>
+        <v>0.594669750116049</v>
       </c>
       <c r="I572">
         <v>0.641178116918702</v>
@@ -30125,10 +30125,10 @@
         <v>0.401436196219653</v>
       </c>
       <c r="O572">
-        <v>0.592966909423616</v>
+        <v>0.592966909424314</v>
       </c>
       <c r="P572">
-        <v>0.407391021777377</v>
+        <v>0.40739102177738</v>
       </c>
     </row>
     <row r="573">
@@ -30177,7 +30177,7 @@
         <v>0.196687424431517</v>
       </c>
       <c r="O573">
-        <v>0.595345443790913</v>
+        <v>0.595345443790911</v>
       </c>
       <c r="P573">
         <v>0.403886353449624</v>
@@ -30202,7 +30202,7 @@
         <v>0.442286356971706</v>
       </c>
       <c r="F574">
-        <v>0.5177225596284249</v>
+        <v>0.517722559628425</v>
       </c>
       <c r="G574">
         <v>0.343878684162927</v>
@@ -30908,7 +30908,7 @@
         <v>0.568848670933057</v>
       </c>
       <c r="P587">
-        <v>0.507513376733789</v>
+        <v>0.5075133767337891</v>
       </c>
     </row>
     <row r="588">
@@ -30930,7 +30930,7 @@
         <v>0.35345318181058</v>
       </c>
       <c r="F588">
-        <v>0.149622790586663</v>
+        <v>0.149622790586664</v>
       </c>
       <c r="G588">
         <v>0.300669185240778</v>
@@ -30957,7 +30957,7 @@
         <v>0.359557637859874</v>
       </c>
       <c r="O588">
-        <v>0.6017287656889549</v>
+        <v>0.601728765688955</v>
       </c>
       <c r="P588">
         <v>0.481943235156592</v>
@@ -31376,7 +31376,7 @@
         <v>0.621384603797649</v>
       </c>
       <c r="P596">
-        <v>0.5279128145134619</v>
+        <v>0.527912814513462</v>
       </c>
     </row>
     <row r="597">
@@ -31948,7 +31948,7 @@
         <v>0.543774445152037</v>
       </c>
       <c r="P607">
-        <v>0.515943159037148</v>
+        <v>0.5159431590371481</v>
       </c>
     </row>
     <row r="608">
@@ -32000,7 +32000,7 @@
         <v>0.583315779579492</v>
       </c>
       <c r="P608">
-        <v>0.5917058404157099</v>
+        <v>0.59170584041571</v>
       </c>
     </row>
     <row r="609">
@@ -32049,7 +32049,7 @@
         <v>0.274383241772262</v>
       </c>
       <c r="O609">
-        <v>0.63610887187242</v>
+        <v>0.6361088718724201</v>
       </c>
       <c r="P609">
         <v>0.680235244508125</v>
@@ -32153,10 +32153,10 @@
         <v>0.431569107039864</v>
       </c>
       <c r="O611">
-        <v>0.602294719417909</v>
+        <v>0.602294719417776</v>
       </c>
       <c r="P611">
-        <v>0.416454747430652</v>
+        <v>0.41645474743064</v>
       </c>
     </row>
     <row r="612">
@@ -32205,10 +32205,10 @@
         <v>0.35712310857972</v>
       </c>
       <c r="O612">
-        <v>0.61475298129463</v>
+        <v>0.614752981294642</v>
       </c>
       <c r="P612">
-        <v>0.0851865758794372</v>
+        <v>0.0851865758794319</v>
       </c>
     </row>
     <row r="613">
@@ -32251,16 +32251,16 @@
         <v>0.515533056081378</v>
       </c>
       <c r="M613">
-        <v>0.546994762893884</v>
+        <v>0.5469947628938841</v>
       </c>
       <c r="N613">
         <v>0.545047831283513</v>
       </c>
       <c r="O613">
-        <v>0.6025105380001819</v>
+        <v>0.602510538000144</v>
       </c>
       <c r="P613">
-        <v>0.602874494445636</v>
+        <v>0.602874494445678</v>
       </c>
     </row>
     <row r="614">
@@ -32309,10 +32309,10 @@
         <v>0.51323674895767</v>
       </c>
       <c r="O614">
-        <v>0.594391164296126</v>
+        <v>0.594391164296101</v>
       </c>
       <c r="P614">
-        <v>0.414522926142523</v>
+        <v>0.414522926142534</v>
       </c>
     </row>
     <row r="615">
@@ -32361,10 +32361,10 @@
         <v>0.3924133451981</v>
       </c>
       <c r="O615">
-        <v>0.609622147325404</v>
+        <v>0.609622147325108</v>
       </c>
       <c r="P615">
-        <v>0.769220888358041</v>
+        <v>0.769220888357942</v>
       </c>
     </row>
     <row r="616">
@@ -32413,10 +32413,10 @@
         <v>0.683716275873926</v>
       </c>
       <c r="O616">
-        <v>0.613273001178913</v>
+        <v>0.6132730011788891</v>
       </c>
       <c r="P616">
-        <v>0.414869567203907</v>
+        <v>0.414869567203935</v>
       </c>
     </row>
     <row r="617">
@@ -32465,10 +32465,10 @@
         <v>0.493332378750777</v>
       </c>
       <c r="O617">
-        <v>0.610636921078762</v>
+        <v>0.610636921078706</v>
       </c>
       <c r="P617">
-        <v>0.546256695506658</v>
+        <v>0.546256695506618</v>
       </c>
     </row>
     <row r="618">
@@ -32517,10 +32517,10 @@
         <v>0.535772938591816</v>
       </c>
       <c r="O618">
-        <v>0.622023088860954</v>
+        <v>0.622023088860938</v>
       </c>
       <c r="P618">
-        <v>0.315083949625338</v>
+        <v>0.315083949625325</v>
       </c>
     </row>
     <row r="619">
@@ -32569,10 +32569,10 @@
         <v>0.450379398021964</v>
       </c>
       <c r="O619">
-        <v>0.585188973775315</v>
+        <v>0.5851889737752221</v>
       </c>
       <c r="P619">
-        <v>0.763176961909717</v>
+        <v>0.7631769619096021</v>
       </c>
     </row>
     <row r="620">
@@ -32621,10 +32621,10 @@
         <v>0.315184450248173</v>
       </c>
       <c r="O620">
-        <v>0.608574943423957</v>
+        <v>0.608574943423889</v>
       </c>
       <c r="P620">
-        <v>0.479807984288046</v>
+        <v>0.479807984288167</v>
       </c>
     </row>
     <row r="621">
@@ -32673,10 +32673,10 @@
         <v>0.236279701000431</v>
       </c>
       <c r="O621">
-        <v>0.589300583341092</v>
+        <v>0.589300583341078</v>
       </c>
       <c r="P621">
-        <v>0.724754718804043</v>
+        <v>0.724754718804081</v>
       </c>
     </row>
     <row r="622">
@@ -32725,10 +32725,10 @@
         <v>0.649272418297914</v>
       </c>
       <c r="O622">
-        <v>0.604877321603194</v>
+        <v>0.604877321603178</v>
       </c>
       <c r="P622">
-        <v>0.523703242055874</v>
+        <v>0.52370324205585</v>
       </c>
     </row>
     <row r="623">
@@ -32771,16 +32771,16 @@
         <v>0.353589072034357</v>
       </c>
       <c r="M623">
-        <v>0.07796657559649429</v>
+        <v>0.0779665755964943</v>
       </c>
       <c r="N623">
         <v>0.429820877456611</v>
       </c>
       <c r="O623">
-        <v>0.60217350888064</v>
+        <v>0.60217350888053</v>
       </c>
       <c r="P623">
-        <v>0.348898811337729</v>
+        <v>0.348898811337727</v>
       </c>
     </row>
     <row r="624">
@@ -32829,10 +32829,10 @@
         <v>0.8864550551859171</v>
       </c>
       <c r="O624">
-        <v>0.602235871439781</v>
+        <v>0.602235871439685</v>
       </c>
       <c r="P624">
-        <v>0.375469083356414</v>
+        <v>0.375469083356408</v>
       </c>
     </row>
     <row r="625">
@@ -32851,7 +32851,7 @@
         <v>0.610299976903129</v>
       </c>
       <c r="E625">
-        <v>0.53827534954842</v>
+        <v>0.5382753495484201</v>
       </c>
       <c r="F625">
         <v>0.0755626307900225</v>
@@ -32881,10 +32881,10 @@
         <v>0.865035158424349</v>
       </c>
       <c r="O625">
-        <v>0.607462502532195</v>
+        <v>0.607462502532182</v>
       </c>
       <c r="P625">
-        <v>0.319208661028889</v>
+        <v>0.319208661028883</v>
       </c>
     </row>
     <row r="626">
@@ -32936,7 +32936,7 @@
         <v>0.599256334659882</v>
       </c>
       <c r="P626">
-        <v>0.226020567835939</v>
+        <v>0.226020567835916</v>
       </c>
     </row>
     <row r="627">
@@ -32958,7 +32958,7 @@
         <v>0.385832772538104</v>
       </c>
       <c r="F627">
-        <v>0.5211775498983759</v>
+        <v>0.521177549898376</v>
       </c>
       <c r="G627">
         <v>0.170653858844167</v>
@@ -32985,10 +32985,10 @@
         <v>0.284866297519505</v>
       </c>
       <c r="O627">
-        <v>0.60272314792086</v>
+        <v>0.60272314792084</v>
       </c>
       <c r="P627">
-        <v>0.429322325397815</v>
+        <v>0.429322325397811</v>
       </c>
     </row>
     <row r="628">
@@ -33037,10 +33037,10 @@
         <v>0.244992598883184</v>
       </c>
       <c r="O628">
-        <v>0.59278603112641</v>
+        <v>0.592786031126387</v>
       </c>
       <c r="P628">
-        <v>0.136615278557013</v>
+        <v>0.136615278557014</v>
       </c>
     </row>
     <row r="629">
@@ -33056,7 +33056,7 @@
         <v>0.319778058684779</v>
       </c>
       <c r="D629">
-        <v>0.8911863524658989</v>
+        <v>0.891186352465899</v>
       </c>
       <c r="E629">
         <v>0.366345632508388</v>
@@ -33089,7 +33089,7 @@
         <v>0.326808905590794</v>
       </c>
       <c r="O629">
-        <v>0.587981687236478</v>
+        <v>0.587981687236514</v>
       </c>
       <c r="P629">
         <v>0.677265269649969</v>
@@ -33141,10 +33141,10 @@
         <v>0.43153617108907</v>
       </c>
       <c r="O630">
-        <v>0.607615941336962</v>
+        <v>0.60761594133689</v>
       </c>
       <c r="P630">
-        <v>0.412095210402072</v>
+        <v>0.412095210402068</v>
       </c>
     </row>
     <row r="631">
@@ -33193,10 +33193,10 @@
         <v>0.5382495770153271</v>
       </c>
       <c r="O631">
-        <v>0.619369594106021</v>
+        <v>0.619369594105962</v>
       </c>
       <c r="P631">
-        <v>0.691536339713352</v>
+        <v>0.6915363397133411</v>
       </c>
     </row>
     <row r="632">
@@ -33245,10 +33245,10 @@
         <v>0.610541219766166</v>
       </c>
       <c r="O632">
-        <v>0.595045821387489</v>
+        <v>0.595045821387454</v>
       </c>
       <c r="P632">
-        <v>0.459218268955192</v>
+        <v>0.459218268955206</v>
       </c>
     </row>
     <row r="633">
@@ -33297,10 +33297,10 @@
         <v>0.477706462340453</v>
       </c>
       <c r="O633">
-        <v>0.607744391795157</v>
+        <v>0.60774439179512</v>
       </c>
       <c r="P633">
-        <v>0.35666872257141</v>
+        <v>0.356668722571407</v>
       </c>
     </row>
     <row r="634">
@@ -33349,10 +33349,10 @@
         <v>0.551648219436269</v>
       </c>
       <c r="O634">
-        <v>0.585214591839837</v>
+        <v>0.585214591839815</v>
       </c>
       <c r="P634">
-        <v>0.357326912364427</v>
+        <v>0.357326912364464</v>
       </c>
     </row>
     <row r="635">
@@ -33401,10 +33401,10 @@
         <v>0.405122825435604</v>
       </c>
       <c r="O635">
-        <v>0.610147411111874</v>
+        <v>0.610147411111806</v>
       </c>
       <c r="P635">
-        <v>0.36970277924448</v>
+        <v>0.369702779244472</v>
       </c>
     </row>
     <row r="636">
@@ -33453,10 +33453,10 @@
         <v>0.700385734910317</v>
       </c>
       <c r="O636">
-        <v>0.615509418808861</v>
+        <v>0.615509418808858</v>
       </c>
       <c r="P636">
-        <v>0.427924355585592</v>
+        <v>0.427924355585654</v>
       </c>
     </row>
     <row r="637">
@@ -33505,10 +33505,10 @@
         <v>1</v>
       </c>
       <c r="O637">
-        <v>0.604220824401912</v>
+        <v>0.604220824401893</v>
       </c>
       <c r="P637">
-        <v>0.309597463402096</v>
+        <v>0.309597463402174</v>
       </c>
     </row>
     <row r="638">
@@ -33557,10 +33557,10 @@
         <v>1</v>
       </c>
       <c r="O638">
-        <v>0.594775533919507</v>
+        <v>0.594775533919486</v>
       </c>
       <c r="P638">
-        <v>0.425778377429102</v>
+        <v>0.425778377429149</v>
       </c>
     </row>
     <row r="639">
@@ -33600,7 +33600,7 @@
         <v>0.6180985900085471</v>
       </c>
       <c r="L639">
-        <v>0.8676759593683649</v>
+        <v>0.867675959368365</v>
       </c>
       <c r="M639">
         <v>0.0921307438552518</v>
@@ -33609,10 +33609,10 @@
         <v>0.799486384433312</v>
       </c>
       <c r="O639">
-        <v>0.605908096848244</v>
+        <v>0.60590809684825</v>
       </c>
       <c r="P639">
-        <v>0.6368379640269231</v>
+        <v>0.636837964026948</v>
       </c>
     </row>
     <row r="640">
@@ -33661,10 +33661,10 @@
         <v>0.37629486979911</v>
       </c>
       <c r="O640">
-        <v>0.591269762383523</v>
+        <v>0.591269762383481</v>
       </c>
       <c r="P640">
-        <v>0.6069535254973411</v>
+        <v>0.6069535254973371</v>
       </c>
     </row>
     <row r="641">
@@ -33713,10 +33713,10 @@
         <v>0.666989506614134</v>
       </c>
       <c r="O641">
-        <v>0.600721566368561</v>
+        <v>0.600721566368532</v>
       </c>
       <c r="P641">
-        <v>0.6252346574136221</v>
+        <v>0.6252346574136201</v>
       </c>
     </row>
     <row r="642">
@@ -33765,10 +33765,10 @@
         <v>0.188679591085444</v>
       </c>
       <c r="O642">
-        <v>0.6017079530882961</v>
+        <v>0.601707953088105</v>
       </c>
       <c r="P642">
-        <v>0.51821907688865</v>
+        <v>0.51821907688864</v>
       </c>
     </row>
     <row r="643">
@@ -33781,7 +33781,7 @@
         </is>
       </c>
       <c r="C643">
-        <v>0.518121947057343</v>
+        <v>0.5181219470573431</v>
       </c>
       <c r="D643">
         <v>0.454642533467706</v>
@@ -33817,10 +33817,10 @@
         <v>0.424967972362404</v>
       </c>
       <c r="O643">
-        <v>0.613835034796046</v>
+        <v>0.613835034795971</v>
       </c>
       <c r="P643">
-        <v>0.366652683453073</v>
+        <v>0.366652683453027</v>
       </c>
     </row>
     <row r="644">
@@ -33872,7 +33872,7 @@
         <v>0.5999253907237611</v>
       </c>
       <c r="P644">
-        <v>0.406193372155591</v>
+        <v>0.406193372155537</v>
       </c>
     </row>
     <row r="645">
@@ -33921,10 +33921,10 @@
         <v>0.343198547462936</v>
       </c>
       <c r="O645">
-        <v>0.602654717293083</v>
+        <v>0.602654717292939</v>
       </c>
       <c r="P645">
-        <v>0.378956693612846</v>
+        <v>0.378956693612832</v>
       </c>
     </row>
     <row r="646">
@@ -33976,7 +33976,7 @@
         <v>0.605512508198685</v>
       </c>
       <c r="P646">
-        <v>0.324733758095335</v>
+        <v>0.324733758095354</v>
       </c>
     </row>
     <row r="647">
@@ -34025,10 +34025,10 @@
         <v>0.330123728569709</v>
       </c>
       <c r="O647">
-        <v>0.621962553700569</v>
+        <v>0.621962553700551</v>
       </c>
       <c r="P647">
-        <v>0.589627356169968</v>
+        <v>0.589627356169956</v>
       </c>
     </row>
     <row r="648">
@@ -34077,10 +34077,10 @@
         <v>0.453023094516862</v>
       </c>
       <c r="O648">
-        <v>0.601150018395699</v>
+        <v>0.601150018395615</v>
       </c>
       <c r="P648">
-        <v>0.535455339639593</v>
+        <v>0.535455339639524</v>
       </c>
     </row>
     <row r="649">
@@ -34129,10 +34129,10 @@
         <v>1</v>
       </c>
       <c r="O649">
-        <v>0.597237992952999</v>
+        <v>0.5972379929530191</v>
       </c>
       <c r="P649">
-        <v>0.616245988720916</v>
+        <v>0.616245988720957</v>
       </c>
     </row>
     <row r="650">
@@ -34181,10 +34181,10 @@
         <v>0.606829755903057</v>
       </c>
       <c r="O650">
-        <v>0.5929780769070701</v>
+        <v>0.592978076907096</v>
       </c>
       <c r="P650">
-        <v>0.417424992146976</v>
+        <v>0.417424992146986</v>
       </c>
     </row>
     <row r="651">
@@ -34233,10 +34233,10 @@
         <v>1</v>
       </c>
       <c r="O651">
-        <v>0.599264212923367</v>
+        <v>0.599264212923345</v>
       </c>
       <c r="P651">
-        <v>0.411382206232512</v>
+        <v>0.411382206232516</v>
       </c>
     </row>
     <row r="652">
@@ -34285,10 +34285,10 @@
         <v>0.373323433008553</v>
       </c>
       <c r="O652">
-        <v>0.593724006921559</v>
+        <v>0.5937240069215201</v>
       </c>
       <c r="P652">
-        <v>0.550611951758886</v>
+        <v>0.550611951758879</v>
       </c>
     </row>
     <row r="653">
@@ -34337,10 +34337,10 @@
         <v>0.263916274896176</v>
       </c>
       <c r="O653">
-        <v>0.59474411626073</v>
+        <v>0.594744116260581</v>
       </c>
       <c r="P653">
-        <v>0.336618696280248</v>
+        <v>0.336618696280257</v>
       </c>
     </row>
     <row r="654">
@@ -34389,7 +34389,7 @@
         <v>0.844933859338766</v>
       </c>
       <c r="O654">
-        <v>0.6120970329334871</v>
+        <v>0.612097032933477</v>
       </c>
       <c r="P654">
         <v>0.377151402627856</v>
@@ -34423,7 +34423,7 @@
         <v>0.44479039334372</v>
       </c>
       <c r="I655">
-        <v>0.575296978093721</v>
+        <v>0.5752969780937211</v>
       </c>
       <c r="J655">
         <v>0.763111344029246</v>
@@ -34441,10 +34441,10 @@
         <v>1</v>
       </c>
       <c r="O655">
-        <v>0.576966057129885</v>
+        <v>0.576966057129877</v>
       </c>
       <c r="P655">
-        <v>0.60769142310396</v>
+        <v>0.607691423103949</v>
       </c>
     </row>
     <row r="656">
@@ -34493,10 +34493,10 @@
         <v>0.376766690107671</v>
       </c>
       <c r="O656">
-        <v>0.610384445778293</v>
+        <v>0.61038444577822</v>
       </c>
       <c r="P656">
-        <v>0.367366510188913</v>
+        <v>0.367366510188857</v>
       </c>
     </row>
     <row r="657">
@@ -34545,10 +34545,10 @@
         <v>0.311863087821414</v>
       </c>
       <c r="O657">
-        <v>0.586307198097799</v>
+        <v>0.586307198097759</v>
       </c>
       <c r="P657">
-        <v>0.508429181797303</v>
+        <v>0.508429181797372</v>
       </c>
     </row>
     <row r="658">
@@ -34597,10 +34597,10 @@
         <v>0.740970323974519</v>
       </c>
       <c r="O658">
-        <v>0.5955191779557359</v>
+        <v>0.595519177955708</v>
       </c>
       <c r="P658">
-        <v>0.341291355899254</v>
+        <v>0.341291355899226</v>
       </c>
     </row>
     <row r="659">
@@ -34628,7 +34628,7 @@
         <v>0.28152013486461</v>
       </c>
       <c r="H659">
-        <v>0.647477362300184</v>
+        <v>0.6474773623001841</v>
       </c>
       <c r="I659">
         <v>0.558140455609402</v>
@@ -34649,10 +34649,10 @@
         <v>0.426083101753805</v>
       </c>
       <c r="O659">
-        <v>0.595333876885237</v>
+        <v>0.595333876885211</v>
       </c>
       <c r="P659">
-        <v>0.468525481052085</v>
+        <v>0.468525481052102</v>
       </c>
     </row>
     <row r="660">
@@ -34701,10 +34701,10 @@
         <v>0.206339529906258</v>
       </c>
       <c r="O660">
-        <v>0.593057436518675</v>
+        <v>0.59305743651867</v>
       </c>
       <c r="P660">
-        <v>0.287238062614135</v>
+        <v>0.287238062614179</v>
       </c>
     </row>
     <row r="661">
@@ -35221,7 +35221,7 @@
         <v>0.395493565632498</v>
       </c>
       <c r="O670">
-        <v>0.618026544828789</v>
+        <v>0.6180265448287891</v>
       </c>
       <c r="P670">
         <v>0.47247761318585</v>
@@ -35377,7 +35377,7 @@
         <v>0.284338033047417</v>
       </c>
       <c r="O673">
-        <v>0.5082242938199369</v>
+        <v>0.508224293819937</v>
       </c>
       <c r="P673">
         <v>0.464986751625714</v>
@@ -35662,7 +35662,7 @@
         <v>0.363082572536532</v>
       </c>
       <c r="F679">
-        <v>0.7336903155435039</v>
+        <v>0.733690315543504</v>
       </c>
       <c r="G679">
         <v>0.293691843012431</v>
@@ -36264,7 +36264,7 @@
         <v>0.580684577318453</v>
       </c>
       <c r="P690">
-        <v>0.5049462436198749</v>
+        <v>0.504946243619875</v>
       </c>
     </row>
     <row r="691">
@@ -36417,7 +36417,7 @@
         <v>0.268417095581931</v>
       </c>
       <c r="O693">
-        <v>0.5488925347414489</v>
+        <v>0.548892534741449</v>
       </c>
       <c r="P693">
         <v>0.526753257847881</v>
